--- a/output2.xlsx
+++ b/output2.xlsx
@@ -450,3943 +450,3943 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>203.16</v>
+        <v>227.24</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.96</v>
+        <v>1.63</v>
       </c>
       <c r="D2" t="n">
-        <v>1.21</v>
+        <v>2.31</v>
       </c>
       <c r="E2" t="n">
-        <v>2.311474987770655</v>
+        <v>1.724981334157205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.87</v>
+        <v>6.45</v>
       </c>
       <c r="B3" t="n">
-        <v>165.67</v>
+        <v>376.32</v>
       </c>
       <c r="C3" t="n">
-        <v>8.56</v>
+        <v>-9.5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.36</v>
+        <v>3.4</v>
       </c>
       <c r="E3" t="n">
-        <v>2.501222934527947</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.18</v>
+        <v>5.62</v>
       </c>
       <c r="B4" t="n">
-        <v>211.73</v>
+        <v>108.79</v>
       </c>
       <c r="C4" t="n">
-        <v>10.54</v>
+        <v>23.58</v>
       </c>
       <c r="D4" t="n">
-        <v>4.21</v>
+        <v>1.56</v>
       </c>
       <c r="E4" t="n">
-        <v>1.595607734095414</v>
+        <v>2.466723307844803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.32</v>
+        <v>3.82</v>
       </c>
       <c r="B5" t="n">
-        <v>147.55</v>
+        <v>103.18</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.28</v>
+        <v>13.05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>3.77</v>
       </c>
       <c r="E5" t="n">
-        <v>2.337349707783013</v>
+        <v>1.586982827424628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.08</v>
+        <v>5.4</v>
       </c>
       <c r="B6" t="n">
-        <v>306.64</v>
+        <v>415.31</v>
       </c>
       <c r="C6" t="n">
-        <v>23.06</v>
+        <v>11.09</v>
       </c>
       <c r="D6" t="n">
-        <v>5.86</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2.492598027857161</v>
+        <v>2.393411601143122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.28</v>
+        <v>6.08</v>
       </c>
       <c r="B7" t="n">
-        <v>104.13</v>
+        <v>124.7</v>
       </c>
       <c r="C7" t="n">
-        <v>17.79</v>
+        <v>1.3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>2.410661414484694</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.49</v>
+        <v>5.51</v>
       </c>
       <c r="B8" t="n">
-        <v>272.98</v>
+        <v>244.9</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.88</v>
+        <v>-5.3</v>
       </c>
       <c r="D8" t="n">
-        <v>2.07</v>
+        <v>6.62</v>
       </c>
       <c r="E8" t="n">
-        <v>1.405859787338122</v>
+        <v>2.414973867820087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.79</v>
+        <v>4.38</v>
       </c>
       <c r="B9" t="n">
-        <v>180.89</v>
+        <v>500.77</v>
       </c>
       <c r="C9" t="n">
-        <v>7.36</v>
+        <v>5.08</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01</v>
+        <v>3.65</v>
       </c>
       <c r="E9" t="n">
-        <v>2.604721814577379</v>
+        <v>1.940604000926855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.22</v>
+        <v>3.53</v>
       </c>
       <c r="B10" t="n">
-        <v>104.65</v>
+        <v>55.69</v>
       </c>
       <c r="C10" t="n">
-        <v>5.15</v>
+        <v>3.41</v>
       </c>
       <c r="D10" t="n">
-        <v>1.79</v>
+        <v>2.27</v>
       </c>
       <c r="E10" t="n">
-        <v>2.33303725444762</v>
+        <v>1.397234880667336</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.98</v>
+        <v>6.25</v>
       </c>
       <c r="B11" t="n">
-        <v>113.8</v>
+        <v>554.75</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41</v>
+        <v>-0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.62</v>
+        <v>1.67</v>
       </c>
       <c r="E11" t="n">
-        <v>2.531410107875698</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="B12" t="n">
-        <v>191.62</v>
+        <v>162.74</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.47</v>
+        <v>4.58</v>
       </c>
       <c r="D12" t="n">
-        <v>2.76</v>
+        <v>1.49</v>
       </c>
       <c r="E12" t="n">
-        <v>1.776730774181921</v>
+        <v>1.897479467572925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.44</v>
+        <v>4.45</v>
       </c>
       <c r="B13" t="n">
-        <v>187.84</v>
+        <v>175.93</v>
       </c>
       <c r="C13" t="n">
-        <v>1.38</v>
+        <v>-5.44</v>
       </c>
       <c r="D13" t="n">
-        <v>4.99</v>
+        <v>2.66</v>
       </c>
       <c r="E13" t="n">
-        <v>2.203663654385829</v>
+        <v>1.988040987616179</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.92</v>
+        <v>4.94</v>
       </c>
       <c r="B14" t="n">
-        <v>114.07</v>
+        <v>222.15</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.65</v>
+        <v>6.25</v>
       </c>
       <c r="D14" t="n">
-        <v>1.39</v>
+        <v>1.98</v>
       </c>
       <c r="E14" t="n">
-        <v>1.837105120877423</v>
+        <v>2.220913467727402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.42</v>
+        <v>5.26</v>
       </c>
       <c r="B15" t="n">
-        <v>406.47</v>
+        <v>166.66</v>
       </c>
       <c r="C15" t="n">
-        <v>0.85</v>
+        <v>7.99</v>
       </c>
       <c r="D15" t="n">
-        <v>3.14</v>
+        <v>1.7</v>
       </c>
       <c r="E15" t="n">
-        <v>1.436046960685873</v>
+        <v>2.337349707783013</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.86</v>
+        <v>5.07</v>
       </c>
       <c r="B16" t="n">
-        <v>147.51</v>
+        <v>121.17</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.21</v>
+        <v>2.49</v>
       </c>
       <c r="D16" t="n">
-        <v>3.07</v>
+        <v>4.76</v>
       </c>
       <c r="E16" t="n">
-        <v>1.884542107566747</v>
+        <v>2.251100641075153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.85</v>
+        <v>6.08</v>
       </c>
       <c r="B17" t="n">
-        <v>190.95</v>
+        <v>127.12</v>
       </c>
       <c r="C17" t="n">
-        <v>12.09</v>
+        <v>2.67</v>
       </c>
       <c r="D17" t="n">
-        <v>6.29</v>
+        <v>2.13</v>
       </c>
       <c r="E17" t="n">
-        <v>2.587472001235807</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.87</v>
+        <v>3.59</v>
       </c>
       <c r="B18" t="n">
-        <v>288.54</v>
+        <v>132.02</v>
       </c>
       <c r="C18" t="n">
-        <v>7.91</v>
+        <v>7.79</v>
       </c>
       <c r="D18" t="n">
-        <v>0.74</v>
+        <v>3.62</v>
       </c>
       <c r="E18" t="n">
-        <v>1.888854560902139</v>
+        <v>1.457609227362838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.01</v>
+        <v>3.96</v>
       </c>
       <c r="B19" t="n">
-        <v>1071.62</v>
+        <v>493.19</v>
       </c>
       <c r="C19" t="n">
-        <v>5.71</v>
+        <v>1.56</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="E19" t="n">
-        <v>2.708220694626812</v>
+        <v>1.66029453412631</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.29</v>
+        <v>7.52</v>
       </c>
       <c r="B20" t="n">
-        <v>188.06</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.49</v>
+        <v>-1.02</v>
       </c>
       <c r="D20" t="n">
-        <v>6.74</v>
+        <v>-0.32</v>
       </c>
       <c r="E20" t="n">
-        <v>2.367536881130764</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.64</v>
+        <v>4.14</v>
       </c>
       <c r="B21" t="n">
-        <v>208.33</v>
+        <v>133.79</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.38</v>
+        <v>12.42</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1</v>
+        <v>1.79</v>
       </c>
       <c r="E21" t="n">
-        <v>2.173476481038078</v>
+        <v>1.776730774181921</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.3</v>
+        <v>6.42</v>
       </c>
       <c r="B22" t="n">
-        <v>90.29000000000001</v>
+        <v>141.24</v>
       </c>
       <c r="C22" t="n">
-        <v>11.61</v>
+        <v>26.65</v>
       </c>
       <c r="D22" t="n">
-        <v>2.27</v>
+        <v>1.07</v>
       </c>
       <c r="E22" t="n">
-        <v>1.509358667387554</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.85</v>
+        <v>4.61</v>
       </c>
       <c r="B23" t="n">
-        <v>925.5599999999999</v>
+        <v>316.42</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.41</v>
+        <v>2.59</v>
       </c>
       <c r="D23" t="n">
-        <v>1.29</v>
+        <v>0.78</v>
       </c>
       <c r="E23" t="n">
-        <v>2.268350454416725</v>
+        <v>2.052727787647074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.44</v>
+        <v>4.38</v>
       </c>
       <c r="B24" t="n">
-        <v>499.79</v>
+        <v>176.72</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.85</v>
+        <v>-4.67</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.24</v>
+        <v>0.4</v>
       </c>
       <c r="E24" t="n">
-        <v>1.539545840735306</v>
+        <v>1.901791920908319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.15</v>
+        <v>5.8</v>
       </c>
       <c r="B25" t="n">
-        <v>146.17</v>
+        <v>200.44</v>
       </c>
       <c r="C25" t="n">
-        <v>15.19</v>
+        <v>-12.34</v>
       </c>
       <c r="D25" t="n">
-        <v>0.85</v>
+        <v>4.41</v>
       </c>
       <c r="E25" t="n">
-        <v>1.690481707474061</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.89</v>
+        <v>4.3</v>
       </c>
       <c r="B26" t="n">
-        <v>212.55</v>
+        <v>146.78</v>
       </c>
       <c r="C26" t="n">
-        <v>10.67</v>
+        <v>-0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>3.01</v>
+        <v>1.52</v>
       </c>
       <c r="E26" t="n">
-        <v>2.46241085450941</v>
+        <v>1.893167014237533</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.19</v>
+        <v>4.05</v>
       </c>
       <c r="B27" t="n">
-        <v>481.75</v>
+        <v>156.96</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.17</v>
+        <v>-11.44</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.95</v>
+        <v>3.17</v>
       </c>
       <c r="E27" t="n">
-        <v>2.540035014546485</v>
+        <v>1.707731520815633</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.97</v>
+        <v>3.79</v>
       </c>
       <c r="B28" t="n">
-        <v>88.73</v>
+        <v>199.4</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.53</v>
+        <v>-7</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.35</v>
+        <v>-0.79</v>
       </c>
       <c r="E28" t="n">
-        <v>2.647846347931309</v>
+        <v>1.440359414021266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.87</v>
+        <v>5.54</v>
       </c>
       <c r="B29" t="n">
-        <v>267.43</v>
+        <v>124.31</v>
       </c>
       <c r="C29" t="n">
-        <v>3.06</v>
+        <v>6.5</v>
       </c>
       <c r="D29" t="n">
-        <v>2.62</v>
+        <v>1.65</v>
       </c>
       <c r="E29" t="n">
-        <v>2.488285574521768</v>
+        <v>2.445161041167838</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.39</v>
+        <v>5.61</v>
       </c>
       <c r="B30" t="n">
-        <v>88.43000000000001</v>
+        <v>142.01</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4</v>
+        <v>30.89</v>
       </c>
       <c r="D30" t="n">
-        <v>0.52</v>
+        <v>1.63</v>
       </c>
       <c r="E30" t="n">
-        <v>1.505046214052161</v>
+        <v>2.436536134497052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.18</v>
+        <v>6.93</v>
       </c>
       <c r="B31" t="n">
-        <v>218.86</v>
+        <v>489.92</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.84</v>
+        <v>-0.41</v>
       </c>
       <c r="D31" t="n">
-        <v>2.11</v>
+        <v>4.74</v>
       </c>
       <c r="E31" t="n">
-        <v>1.630107360778559</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.93</v>
+        <v>4.62</v>
       </c>
       <c r="B32" t="n">
-        <v>221.31</v>
+        <v>158.28</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.300000000000001</v>
+        <v>-6.86</v>
       </c>
       <c r="D32" t="n">
-        <v>2.69</v>
+        <v>0.53</v>
       </c>
       <c r="E32" t="n">
-        <v>2.535722561211091</v>
+        <v>2.031165520970109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.12</v>
+        <v>5.76</v>
       </c>
       <c r="B33" t="n">
-        <v>292.86</v>
+        <v>216.28</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.07</v>
+        <v>-3.22</v>
       </c>
       <c r="D33" t="n">
-        <v>4.61</v>
+        <v>2.97</v>
       </c>
       <c r="E33" t="n">
-        <v>1.668919440797096</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.48</v>
+        <v>3.66</v>
       </c>
       <c r="B34" t="n">
-        <v>141.33</v>
+        <v>124.23</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>11.26</v>
       </c>
       <c r="D34" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="E34" t="n">
-        <v>1.423109600679694</v>
+        <v>1.483483947375196</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.1</v>
+        <v>4.68</v>
       </c>
       <c r="B35" t="n">
-        <v>210.61</v>
+        <v>173.4</v>
       </c>
       <c r="C35" t="n">
-        <v>23.03</v>
+        <v>70.2</v>
       </c>
       <c r="D35" t="n">
-        <v>1.67</v>
+        <v>2.92</v>
       </c>
       <c r="E35" t="n">
-        <v>1.724981334157205</v>
+        <v>1.505046214052161</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.78</v>
+        <v>4.1</v>
       </c>
       <c r="B36" t="n">
-        <v>161.25</v>
+        <v>521.41</v>
       </c>
       <c r="C36" t="n">
-        <v>10.63</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2</v>
+        <v>3.31</v>
       </c>
       <c r="E36" t="n">
-        <v>2.609034267912773</v>
+        <v>1.755168507504956</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.42</v>
+        <v>3.67</v>
       </c>
       <c r="B37" t="n">
-        <v>158.22</v>
+        <v>250.35</v>
       </c>
       <c r="C37" t="n">
-        <v>8.42</v>
+        <v>20.15</v>
       </c>
       <c r="D37" t="n">
-        <v>3.34</v>
+        <v>0.19</v>
       </c>
       <c r="E37" t="n">
-        <v>2.19072629437965</v>
+        <v>1.401547334002729</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.89</v>
+        <v>5.1</v>
       </c>
       <c r="B38" t="n">
-        <v>451.62</v>
+        <v>502.55</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.84</v>
+        <v>-3.91</v>
       </c>
       <c r="D38" t="n">
-        <v>3.2</v>
+        <v>0.36</v>
       </c>
       <c r="E38" t="n">
-        <v>1.841417574212816</v>
+        <v>2.23385082773358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.84</v>
+        <v>3.71</v>
       </c>
       <c r="B39" t="n">
-        <v>1631.26</v>
+        <v>343.5</v>
       </c>
       <c r="C39" t="n">
-        <v>1.4</v>
+        <v>5.89</v>
       </c>
       <c r="D39" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="E39" t="n">
-        <v>2.755657681316135</v>
+        <v>1.509358667387554</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.48</v>
+        <v>4.94</v>
       </c>
       <c r="B40" t="n">
-        <v>167.19</v>
+        <v>363.28</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.07</v>
+        <v>1.53</v>
       </c>
       <c r="D40" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="E40" t="n">
-        <v>2.207976107721222</v>
+        <v>2.216601014392008</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.95</v>
+        <v>3.79</v>
       </c>
       <c r="B41" t="n">
-        <v>497.51</v>
+        <v>143.24</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.05</v>
+        <v>-4.42</v>
       </c>
       <c r="D41" t="n">
-        <v>0.91</v>
+        <v>1.64</v>
       </c>
       <c r="E41" t="n">
-        <v>1.880229654231353</v>
+        <v>1.530920934064519</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.83</v>
+        <v>9.81</v>
       </c>
       <c r="B42" t="n">
-        <v>111.01</v>
+        <v>795.76</v>
       </c>
       <c r="C42" t="n">
-        <v>2.77</v>
+        <v>20.48</v>
       </c>
       <c r="D42" t="n">
-        <v>1.82</v>
+        <v>7.08</v>
       </c>
       <c r="E42" t="n">
-        <v>2.544347467881877</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.05</v>
+        <v>4.65</v>
       </c>
       <c r="B43" t="n">
-        <v>151.49</v>
+        <v>263.63</v>
       </c>
       <c r="C43" t="n">
-        <v>9.710000000000001</v>
+        <v>-6.61</v>
       </c>
       <c r="D43" t="n">
-        <v>1.06</v>
+        <v>2.97</v>
       </c>
       <c r="E43" t="n">
-        <v>1.729293787492598</v>
+        <v>2.095852321001004</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.22</v>
+        <v>3.59</v>
       </c>
       <c r="B44" t="n">
-        <v>170.02</v>
+        <v>113.83</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.27</v>
+        <v>17.29</v>
       </c>
       <c r="D44" t="n">
-        <v>1.21</v>
+        <v>2.4</v>
       </c>
       <c r="E44" t="n">
-        <v>1.634419814113952</v>
+        <v>1.423109600679694</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.28</v>
+        <v>4.31</v>
       </c>
       <c r="B45" t="n">
-        <v>239.98</v>
+        <v>163.17</v>
       </c>
       <c r="C45" t="n">
-        <v>1.94</v>
+        <v>6.47</v>
       </c>
       <c r="D45" t="n">
-        <v>2.87</v>
+        <v>0.67</v>
       </c>
       <c r="E45" t="n">
-        <v>1.492108854045982</v>
+        <v>1.880229654231353</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.43</v>
+        <v>5.08</v>
       </c>
       <c r="B46" t="n">
-        <v>164.75</v>
+        <v>141.92</v>
       </c>
       <c r="C46" t="n">
-        <v>3.09</v>
+        <v>3.33</v>
       </c>
       <c r="D46" t="n">
-        <v>2.09</v>
+        <v>2.87</v>
       </c>
       <c r="E46" t="n">
-        <v>1.427422054015087</v>
+        <v>2.255413094410545</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.74</v>
+        <v>3.98</v>
       </c>
       <c r="B47" t="n">
-        <v>516.1799999999999</v>
+        <v>269.5</v>
       </c>
       <c r="C47" t="n">
-        <v>7.88</v>
+        <v>2.78</v>
       </c>
       <c r="D47" t="n">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="E47" t="n">
-        <v>2.621971627918951</v>
+        <v>1.712043974151026</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.94</v>
+        <v>7.78</v>
       </c>
       <c r="B48" t="n">
-        <v>2364.47</v>
+        <v>268.17</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.3</v>
+        <v>5.77</v>
       </c>
       <c r="D48" t="n">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="E48" t="n">
-        <v>2.759970134651528</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.1</v>
+        <v>4.35</v>
       </c>
       <c r="B49" t="n">
-        <v>182.73</v>
+        <v>182.72</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.47</v>
+        <v>3.41</v>
       </c>
       <c r="D49" t="n">
-        <v>1.83</v>
+        <v>2.64</v>
       </c>
       <c r="E49" t="n">
-        <v>2.41928632115548</v>
+        <v>1.927666640920677</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.23</v>
+        <v>3.8</v>
       </c>
       <c r="B50" t="n">
-        <v>263.92</v>
+        <v>220.12</v>
       </c>
       <c r="C50" t="n">
-        <v>2.13</v>
+        <v>20.46</v>
       </c>
       <c r="D50" t="n">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="E50" t="n">
-        <v>1.56110810741227</v>
+        <v>1.535233387399912</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.16</v>
+        <v>4.94</v>
       </c>
       <c r="B51" t="n">
-        <v>196.99</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>23.42</v>
+        <v>14.24</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04</v>
+        <v>2.55</v>
       </c>
       <c r="E51" t="n">
-        <v>1.772418320846528</v>
+        <v>2.207976107721222</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.11</v>
+        <v>3.65</v>
       </c>
       <c r="B52" t="n">
-        <v>182.7</v>
+        <v>128.56</v>
       </c>
       <c r="C52" t="n">
-        <v>2.85</v>
+        <v>19.13</v>
       </c>
       <c r="D52" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="E52" t="n">
-        <v>2.397724054478515</v>
+        <v>1.453296774027445</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="B53" t="n">
-        <v>236.58</v>
+        <v>102.88</v>
       </c>
       <c r="C53" t="n">
-        <v>3.71</v>
+        <v>6.94</v>
       </c>
       <c r="D53" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>2.121727041013362</v>
+        <v>1.772418320846528</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.88</v>
+        <v>5.18</v>
       </c>
       <c r="B54" t="n">
-        <v>409.26</v>
+        <v>255.59</v>
       </c>
       <c r="C54" t="n">
-        <v>0.74</v>
+        <v>-7.67</v>
       </c>
       <c r="D54" t="n">
-        <v>0.86</v>
+        <v>1.56</v>
       </c>
       <c r="E54" t="n">
-        <v>1.897479467572925</v>
+        <v>2.285600267758296</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.59</v>
+        <v>3.96</v>
       </c>
       <c r="B55" t="n">
-        <v>158.85</v>
+        <v>186.99</v>
       </c>
       <c r="C55" t="n">
-        <v>8.44</v>
+        <v>6.79</v>
       </c>
       <c r="D55" t="n">
-        <v>8.390000000000001</v>
+        <v>4.12</v>
       </c>
       <c r="E55" t="n">
-        <v>1.47485904070441</v>
+        <v>1.70341906748024</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.96</v>
+        <v>5.15</v>
       </c>
       <c r="B56" t="n">
-        <v>185.64</v>
+        <v>153.04</v>
       </c>
       <c r="C56" t="n">
-        <v>8.81</v>
+        <v>1.15</v>
       </c>
       <c r="D56" t="n">
-        <v>2.91</v>
+        <v>3.4</v>
       </c>
       <c r="E56" t="n">
-        <v>2.436536134497052</v>
+        <v>2.302850081099868</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.66</v>
+        <v>4.88</v>
       </c>
       <c r="B57" t="n">
-        <v>404.29</v>
+        <v>286.01</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.87</v>
+        <v>0.61</v>
       </c>
       <c r="D57" t="n">
-        <v>5.29</v>
+        <v>3.67</v>
       </c>
       <c r="E57" t="n">
-        <v>2.091539867665611</v>
+        <v>2.19072629437965</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.31</v>
+        <v>5.19</v>
       </c>
       <c r="B58" t="n">
-        <v>130.88</v>
+        <v>442.84</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.08</v>
+        <v>4.93</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43</v>
+        <v>4.14</v>
       </c>
       <c r="E58" t="n">
-        <v>1.526608480729126</v>
+        <v>2.315787441106048</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.74</v>
+        <v>5.37</v>
       </c>
       <c r="B59" t="n">
-        <v>170.26</v>
+        <v>116.84</v>
       </c>
       <c r="C59" t="n">
-        <v>6.02</v>
+        <v>58.81</v>
       </c>
       <c r="D59" t="n">
-        <v>2.65</v>
+        <v>1.18</v>
       </c>
       <c r="E59" t="n">
-        <v>1.936291547591463</v>
+        <v>2.143289307690327</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.77</v>
+        <v>3.71</v>
       </c>
       <c r="B60" t="n">
-        <v>181.14</v>
+        <v>207.02</v>
       </c>
       <c r="C60" t="n">
-        <v>2.11</v>
+        <v>1.4</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.51</v>
+        <v>3.63</v>
       </c>
       <c r="E60" t="n">
-        <v>2.682345974614454</v>
+        <v>1.522296027393733</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.13</v>
+        <v>7</v>
       </c>
       <c r="B61" t="n">
-        <v>173.38</v>
+        <v>153.26</v>
       </c>
       <c r="C61" t="n">
-        <v>14.17</v>
+        <v>-3.75</v>
       </c>
       <c r="D61" t="n">
-        <v>1.64</v>
+        <v>4.03</v>
       </c>
       <c r="E61" t="n">
-        <v>1.655982080790917</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.57</v>
+        <v>3.94</v>
       </c>
       <c r="B62" t="n">
-        <v>218.55</v>
+        <v>226</v>
       </c>
       <c r="C62" t="n">
-        <v>10.54</v>
+        <v>4.28</v>
       </c>
       <c r="D62" t="n">
-        <v>1.52</v>
+        <v>3.61</v>
       </c>
       <c r="E62" t="n">
-        <v>2.126039494348755</v>
+        <v>1.690481707474061</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.84</v>
+        <v>4.28</v>
       </c>
       <c r="B63" t="n">
-        <v>82.22</v>
+        <v>166.83</v>
       </c>
       <c r="C63" t="n">
-        <v>7.35</v>
+        <v>5.85</v>
       </c>
       <c r="D63" t="n">
-        <v>0.65</v>
+        <v>3.37</v>
       </c>
       <c r="E63" t="n">
-        <v>1.953541360933035</v>
+        <v>1.906104374243711</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9</v>
+        <v>5.61</v>
       </c>
       <c r="B64" t="n">
-        <v>805.42</v>
+        <v>185.67</v>
       </c>
       <c r="C64" t="n">
-        <v>2.92</v>
+        <v>5.35</v>
       </c>
       <c r="D64" t="n">
-        <v>2.07</v>
+        <v>3.46</v>
       </c>
       <c r="E64" t="n">
-        <v>2.673721067943668</v>
+        <v>2.496910481192554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.69</v>
+        <v>5.57</v>
       </c>
       <c r="B65" t="n">
-        <v>122.99</v>
+        <v>258.39</v>
       </c>
       <c r="C65" t="n">
-        <v>-4.3</v>
+        <v>6.46</v>
       </c>
       <c r="D65" t="n">
-        <v>1.03</v>
+        <v>2.63</v>
       </c>
       <c r="E65" t="n">
-        <v>2.100164774336397</v>
+        <v>2.496910481192554</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.86</v>
+        <v>4.33</v>
       </c>
       <c r="B66" t="n">
-        <v>173.07</v>
+        <v>276.49</v>
       </c>
       <c r="C66" t="n">
-        <v>6.8</v>
+        <v>13.8</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.83</v>
+        <v>2.63</v>
       </c>
       <c r="E66" t="n">
-        <v>2.660783707937489</v>
+        <v>1.919041734249891</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.55</v>
+        <v>4.78</v>
       </c>
       <c r="B67" t="n">
-        <v>316.19</v>
+        <v>171.87</v>
       </c>
       <c r="C67" t="n">
-        <v>5.98</v>
+        <v>16.27</v>
       </c>
       <c r="D67" t="n">
-        <v>2.35</v>
+        <v>4.3</v>
       </c>
       <c r="E67" t="n">
-        <v>2.117414587677969</v>
+        <v>2.134664401019541</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.96</v>
+        <v>3.68</v>
       </c>
       <c r="B68" t="n">
-        <v>169.17</v>
+        <v>247.79</v>
       </c>
       <c r="C68" t="n">
-        <v>20.61</v>
+        <v>1.2</v>
       </c>
       <c r="D68" t="n">
-        <v>3.42</v>
+        <v>4.02</v>
       </c>
       <c r="E68" t="n">
-        <v>2.483973121186375</v>
+        <v>1.500733760716768</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.69</v>
+        <v>4.53</v>
       </c>
       <c r="B69" t="n">
-        <v>212.96</v>
+        <v>157.62</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8</v>
+        <v>9.25</v>
       </c>
       <c r="D69" t="n">
-        <v>0.57</v>
+        <v>3.07</v>
       </c>
       <c r="E69" t="n">
-        <v>2.078602507659432</v>
+        <v>2.039790427640895</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.86</v>
+        <v>3.85</v>
       </c>
       <c r="B70" t="n">
-        <v>121.15</v>
+        <v>311.96</v>
       </c>
       <c r="C70" t="n">
-        <v>34.42</v>
+        <v>5.88</v>
       </c>
       <c r="D70" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="E70" t="n">
-        <v>2.69097088128524</v>
+        <v>1.625794907443166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.23</v>
+        <v>4.36</v>
       </c>
       <c r="B71" t="n">
-        <v>336.12</v>
+        <v>224.83</v>
       </c>
       <c r="C71" t="n">
-        <v>-4.88</v>
+        <v>5.93</v>
       </c>
       <c r="D71" t="n">
-        <v>1.57</v>
+        <v>3.74</v>
       </c>
       <c r="E71" t="n">
-        <v>1.621482454107773</v>
+        <v>1.949228907597641</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.4</v>
+        <v>5.67</v>
       </c>
       <c r="B72" t="n">
-        <v>343.01</v>
+        <v>91.65000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>1.44</v>
+        <v>38.82</v>
       </c>
       <c r="D72" t="n">
-        <v>3.43</v>
+        <v>0.48</v>
       </c>
       <c r="E72" t="n">
-        <v>1.440359414021266</v>
+        <v>2.414973867820087</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.16</v>
+        <v>4.74</v>
       </c>
       <c r="B73" t="n">
-        <v>171.64</v>
+        <v>236.59</v>
       </c>
       <c r="C73" t="n">
-        <v>41.32</v>
+        <v>0.65</v>
       </c>
       <c r="D73" t="n">
-        <v>8.43</v>
+        <v>2.82</v>
       </c>
       <c r="E73" t="n">
-        <v>2.716845601297598</v>
+        <v>2.130351947684148</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.7</v>
+        <v>4.13</v>
       </c>
       <c r="B74" t="n">
-        <v>378.63</v>
+        <v>368.74</v>
       </c>
       <c r="C74" t="n">
-        <v>-9.52</v>
+        <v>1.43</v>
       </c>
       <c r="D74" t="n">
-        <v>2.52</v>
+        <v>1.08</v>
       </c>
       <c r="E74" t="n">
-        <v>2.074290054324039</v>
+        <v>1.768105867511135</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.89</v>
+        <v>5.25</v>
       </c>
       <c r="B75" t="n">
-        <v>212.52</v>
+        <v>257.73</v>
       </c>
       <c r="C75" t="n">
-        <v>2.56</v>
+        <v>14.85</v>
       </c>
       <c r="D75" t="n">
-        <v>4.12</v>
+        <v>2.18</v>
       </c>
       <c r="E75" t="n">
-        <v>1.815542854200458</v>
+        <v>2.33303725444762</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.71</v>
+        <v>4.5</v>
       </c>
       <c r="B76" t="n">
-        <v>316.59</v>
+        <v>467.8</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.53</v>
+        <v>-19.94</v>
       </c>
       <c r="D76" t="n">
-        <v>2.23</v>
+        <v>3.29</v>
       </c>
       <c r="E76" t="n">
-        <v>2.022540614299323</v>
+        <v>1.914729280914497</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.59</v>
+        <v>6.22</v>
       </c>
       <c r="B77" t="n">
-        <v>653.09</v>
+        <v>178.82</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.93</v>
+        <v>-2.78</v>
       </c>
       <c r="D77" t="n">
-        <v>1.22</v>
+        <v>0.19</v>
       </c>
       <c r="E77" t="n">
-        <v>2.27697536108751</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.11</v>
+        <v>6.67</v>
       </c>
       <c r="B78" t="n">
-        <v>238.9</v>
+        <v>279.89</v>
       </c>
       <c r="C78" t="n">
-        <v>8.42</v>
+        <v>-26.37</v>
       </c>
       <c r="D78" t="n">
-        <v>1.97</v>
+        <v>-1.83</v>
       </c>
       <c r="E78" t="n">
-        <v>1.647357174120131</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.16</v>
+        <v>3.96</v>
       </c>
       <c r="B79" t="n">
-        <v>102.39</v>
+        <v>209.79</v>
       </c>
       <c r="C79" t="n">
-        <v>17.49</v>
+        <v>9.74</v>
       </c>
       <c r="D79" t="n">
-        <v>2.04</v>
+        <v>2.48</v>
       </c>
       <c r="E79" t="n">
-        <v>2.380474241136943</v>
+        <v>1.699106614144847</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.74</v>
+        <v>3.94</v>
       </c>
       <c r="B80" t="n">
-        <v>144.76</v>
+        <v>417.98</v>
       </c>
       <c r="C80" t="n">
-        <v>10.14</v>
+        <v>-7.81</v>
       </c>
       <c r="D80" t="n">
-        <v>2.39</v>
+        <v>3.53</v>
       </c>
       <c r="E80" t="n">
-        <v>1.957853814268428</v>
+        <v>1.643044720784738</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.98</v>
+        <v>4.13</v>
       </c>
       <c r="B81" t="n">
-        <v>245.29</v>
+        <v>125.34</v>
       </c>
       <c r="C81" t="n">
-        <v>7.6</v>
+        <v>7.46</v>
       </c>
       <c r="D81" t="n">
-        <v>1.4</v>
+        <v>3.07</v>
       </c>
       <c r="E81" t="n">
-        <v>1.763793414175742</v>
+        <v>1.793980587523493</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.91</v>
+        <v>5.99</v>
       </c>
       <c r="B82" t="n">
-        <v>785.55</v>
+        <v>180.71</v>
       </c>
       <c r="C82" t="n">
-        <v>11.17</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>3.48</v>
+        <v>2.57</v>
       </c>
       <c r="E82" t="n">
-        <v>2.009603254293144</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.85</v>
+        <v>3.92</v>
       </c>
       <c r="B83" t="n">
-        <v>299.59</v>
+        <v>152.51</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25</v>
+        <v>-16.91</v>
       </c>
       <c r="D83" t="n">
-        <v>5.42</v>
+        <v>2.08</v>
       </c>
       <c r="E83" t="n">
-        <v>1.87591720089596</v>
+        <v>1.548170747406092</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.14</v>
+        <v>4.65</v>
       </c>
       <c r="B84" t="n">
-        <v>207.02</v>
+        <v>198.46</v>
       </c>
       <c r="C84" t="n">
-        <v>6.25</v>
+        <v>4.14</v>
       </c>
       <c r="D84" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="E84" t="n">
-        <v>2.363224427795371</v>
+        <v>2.10447722767179</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.32</v>
+        <v>6.54</v>
       </c>
       <c r="B85" t="n">
-        <v>254.08</v>
+        <v>185.61</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.47</v>
+        <v>1.63</v>
       </c>
       <c r="D85" t="n">
-        <v>1.52</v>
+        <v>3.39</v>
       </c>
       <c r="E85" t="n">
-        <v>1.51798357405834</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.01</v>
+        <v>6.26</v>
       </c>
       <c r="B86" t="n">
-        <v>145.58</v>
+        <v>160.9</v>
       </c>
       <c r="C86" t="n">
-        <v>9.279999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="D86" t="n">
-        <v>6.11</v>
+        <v>3.83</v>
       </c>
       <c r="E86" t="n">
-        <v>2.471035761180196</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.95</v>
+        <v>5.54</v>
       </c>
       <c r="B87" t="n">
-        <v>1820.24</v>
+        <v>146.2</v>
       </c>
       <c r="C87" t="n">
-        <v>7.99</v>
+        <v>5.25</v>
       </c>
       <c r="D87" t="n">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
       <c r="E87" t="n">
-        <v>2.742720321309956</v>
+        <v>2.466723307844803</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.14</v>
+        <v>4.42</v>
       </c>
       <c r="B88" t="n">
-        <v>61.51</v>
+        <v>250.48</v>
       </c>
       <c r="C88" t="n">
-        <v>15.51</v>
+        <v>0.04</v>
       </c>
       <c r="D88" t="n">
-        <v>2.79</v>
+        <v>4.28</v>
       </c>
       <c r="E88" t="n">
-        <v>2.37616178780155</v>
+        <v>1.979416080945393</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="B89" t="n">
-        <v>174.63</v>
+        <v>742.53</v>
       </c>
       <c r="C89" t="n">
-        <v>7.73</v>
+        <v>0.36</v>
       </c>
       <c r="D89" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="E89" t="n">
-        <v>2.220913467727402</v>
+        <v>2.108789681007183</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.94</v>
+        <v>4.41</v>
       </c>
       <c r="B90" t="n">
-        <v>254.08</v>
+        <v>176.61</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.08</v>
+        <v>0.86</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.78</v>
+        <v>2.73</v>
       </c>
       <c r="E90" t="n">
-        <v>2.652158801266703</v>
+        <v>1.97510362761</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.54</v>
+        <v>6.85</v>
       </c>
       <c r="B91" t="n">
-        <v>88.05</v>
+        <v>182.77</v>
       </c>
       <c r="C91" t="n">
-        <v>4.62</v>
+        <v>5.19</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E91" t="n">
-        <v>2.242475734404366</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.25</v>
+        <v>4.4</v>
       </c>
       <c r="B92" t="n">
-        <v>224.27</v>
+        <v>110.97</v>
       </c>
       <c r="C92" t="n">
-        <v>18.59</v>
+        <v>1.64</v>
       </c>
       <c r="D92" t="n">
-        <v>4.39</v>
+        <v>-0.64</v>
       </c>
       <c r="E92" t="n">
-        <v>2.320099894441441</v>
+        <v>1.884542107566747</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.18</v>
+        <v>4.82</v>
       </c>
       <c r="B93" t="n">
-        <v>22.46</v>
+        <v>183.92</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.2</v>
+        <v>4.71</v>
       </c>
       <c r="D93" t="n">
-        <v>1.56</v>
+        <v>3.75</v>
       </c>
       <c r="E93" t="n">
-        <v>1.716356427486419</v>
+        <v>2.160539121031899</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.27</v>
+        <v>4.77</v>
       </c>
       <c r="B94" t="n">
-        <v>737.62</v>
+        <v>139.87</v>
       </c>
       <c r="C94" t="n">
-        <v>0.78</v>
+        <v>-8.25</v>
       </c>
       <c r="D94" t="n">
-        <v>1.98</v>
+        <v>2.83</v>
       </c>
       <c r="E94" t="n">
-        <v>2.432223681161659</v>
+        <v>2.121727041013362</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.69</v>
+        <v>4.88</v>
       </c>
       <c r="B95" t="n">
-        <v>173.51</v>
+        <v>163.04</v>
       </c>
       <c r="C95" t="n">
-        <v>4.72</v>
+        <v>15.91</v>
       </c>
       <c r="D95" t="n">
-        <v>3.98</v>
+        <v>5.28</v>
       </c>
       <c r="E95" t="n">
-        <v>1.983728534280786</v>
+        <v>2.169164027702685</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.61</v>
+        <v>4.05</v>
       </c>
       <c r="B96" t="n">
-        <v>205.72</v>
+        <v>405.59</v>
       </c>
       <c r="C96" t="n">
-        <v>2.29</v>
+        <v>2.93</v>
       </c>
       <c r="D96" t="n">
-        <v>0.38</v>
+        <v>4.89</v>
       </c>
       <c r="E96" t="n">
-        <v>2.151914214361113</v>
+        <v>1.742231147498777</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3.33</v>
+        <v>5.34</v>
       </c>
       <c r="B97" t="n">
-        <v>236.13</v>
+        <v>194.37</v>
       </c>
       <c r="C97" t="n">
-        <v>3.04</v>
+        <v>0.68</v>
       </c>
       <c r="D97" t="n">
-        <v>0.11</v>
+        <v>2.46</v>
       </c>
       <c r="E97" t="n">
-        <v>1.548170747406092</v>
+        <v>2.37616178780155</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.92</v>
+        <v>4.04</v>
       </c>
       <c r="B98" t="n">
-        <v>176.94</v>
+        <v>124.91</v>
       </c>
       <c r="C98" t="n">
-        <v>6.49</v>
+        <v>3.21</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.21</v>
+        <v>1.43</v>
       </c>
       <c r="E98" t="n">
-        <v>2.613346721248166</v>
+        <v>1.733606240827991</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.39</v>
+        <v>5.38</v>
       </c>
       <c r="B99" t="n">
-        <v>59.43</v>
+        <v>582.2</v>
       </c>
       <c r="C99" t="n">
-        <v>24.84</v>
+        <v>8.15</v>
       </c>
       <c r="D99" t="n">
-        <v>1.49</v>
+        <v>3.81</v>
       </c>
       <c r="E99" t="n">
-        <v>1.535233387399912</v>
+        <v>2.380474241136943</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.51</v>
+        <v>5.48</v>
       </c>
       <c r="B100" t="n">
-        <v>247.95</v>
+        <v>172.38</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.1</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>2.61</v>
+        <v>1.17</v>
       </c>
       <c r="E100" t="n">
-        <v>2.14760176102572</v>
+        <v>2.41928632115548</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.36</v>
+        <v>11.44</v>
       </c>
       <c r="B101" t="n">
-        <v>164.08</v>
+        <v>986.5700000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.46</v>
+        <v>41.69</v>
       </c>
       <c r="D101" t="n">
-        <v>2.73</v>
+        <v>-0.54</v>
       </c>
       <c r="E101" t="n">
-        <v>2.24678818773976</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.76</v>
+        <v>3.89</v>
       </c>
       <c r="B102" t="n">
-        <v>211.34</v>
+        <v>215.88</v>
       </c>
       <c r="C102" t="n">
-        <v>13.13</v>
+        <v>12.45</v>
       </c>
       <c r="D102" t="n">
-        <v>1.97</v>
+        <v>5.52</v>
       </c>
       <c r="E102" t="n">
-        <v>1.949228907597641</v>
+        <v>1.621482454107773</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.54</v>
+        <v>4.87</v>
       </c>
       <c r="B103" t="n">
-        <v>80.44</v>
+        <v>172.6</v>
       </c>
       <c r="C103" t="n">
-        <v>1.6</v>
+        <v>4.63</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="E103" t="n">
-        <v>1.392922427331943</v>
+        <v>2.164851574367292</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.13</v>
+        <v>4.56</v>
       </c>
       <c r="B104" t="n">
-        <v>451.62</v>
+        <v>380.8</v>
       </c>
       <c r="C104" t="n">
-        <v>4.54</v>
+        <v>15.54</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>4.39</v>
       </c>
       <c r="E104" t="n">
-        <v>2.393411601143122</v>
+        <v>2.044102880976288</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.12</v>
+        <v>4.25</v>
       </c>
       <c r="B105" t="n">
-        <v>165.03</v>
+        <v>119.74</v>
       </c>
       <c r="C105" t="n">
-        <v>67.93000000000001</v>
+        <v>-6.49</v>
       </c>
       <c r="D105" t="n">
-        <v>2.34</v>
+        <v>1.12</v>
       </c>
       <c r="E105" t="n">
-        <v>2.738407867974563</v>
+        <v>1.811230400865065</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.26</v>
+        <v>5.84</v>
       </c>
       <c r="B106" t="n">
-        <v>312.05</v>
+        <v>498.92</v>
       </c>
       <c r="C106" t="n">
-        <v>-3.59</v>
+        <v>14.18</v>
       </c>
       <c r="D106" t="n">
-        <v>1.31</v>
+        <v>3.21</v>
       </c>
       <c r="E106" t="n">
-        <v>1.591295280760022</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.34</v>
+        <v>3.88</v>
       </c>
       <c r="B107" t="n">
-        <v>168.77</v>
+        <v>161.9</v>
       </c>
       <c r="C107" t="n">
-        <v>7.16</v>
+        <v>13.13</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4</v>
+        <v>2.54</v>
       </c>
       <c r="E107" t="n">
-        <v>2.307162534435262</v>
+        <v>1.630107360778559</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.96</v>
+        <v>4.04</v>
       </c>
       <c r="B108" t="n">
-        <v>304.31</v>
+        <v>144.1</v>
       </c>
       <c r="C108" t="n">
-        <v>5.09</v>
+        <v>13.76</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="E108" t="n">
-        <v>2.440848587832445</v>
+        <v>1.74654360083417</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.36</v>
+        <v>3.93</v>
       </c>
       <c r="B109" t="n">
-        <v>671.9299999999999</v>
+        <v>397.26</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2</v>
+        <v>30.84</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.18</v>
+        <v>3.78</v>
       </c>
       <c r="E109" t="n">
-        <v>1.737918694163384</v>
+        <v>1.57404546741845</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.96</v>
+        <v>5.1</v>
       </c>
       <c r="B110" t="n">
-        <v>251.89</v>
+        <v>181.09</v>
       </c>
       <c r="C110" t="n">
-        <v>7.52</v>
+        <v>4.82</v>
       </c>
       <c r="D110" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="E110" t="n">
-        <v>1.750856054169563</v>
+        <v>2.259725547745938</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.35</v>
+        <v>6.9</v>
       </c>
       <c r="B111" t="n">
-        <v>104.46</v>
+        <v>1032.98</v>
       </c>
       <c r="C111" t="n">
-        <v>19.4</v>
+        <v>-6.36</v>
       </c>
       <c r="D111" t="n">
-        <v>0.32</v>
+        <v>-1.27</v>
       </c>
       <c r="E111" t="n">
-        <v>1.586982827424628</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.66</v>
+        <v>4.27</v>
       </c>
       <c r="B112" t="n">
-        <v>210.32</v>
+        <v>153.84</v>
       </c>
       <c r="C112" t="n">
-        <v>17.53</v>
+        <v>3.96</v>
       </c>
       <c r="D112" t="n">
-        <v>11.41</v>
+        <v>0.35</v>
       </c>
       <c r="E112" t="n">
-        <v>1.755168507504956</v>
+        <v>1.828480214206637</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.01</v>
+        <v>3.6</v>
       </c>
       <c r="B113" t="n">
-        <v>150.33</v>
+        <v>354.55</v>
       </c>
       <c r="C113" t="n">
-        <v>3.71</v>
+        <v>-0.32</v>
       </c>
       <c r="D113" t="n">
-        <v>1.72</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>1.733606240827991</v>
+        <v>1.405859787338122</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.26</v>
+        <v>5.61</v>
       </c>
       <c r="B114" t="n">
-        <v>168.65</v>
+        <v>344.14</v>
       </c>
       <c r="C114" t="n">
-        <v>20.72</v>
+        <v>5.97</v>
       </c>
       <c r="D114" t="n">
-        <v>2.37</v>
+        <v>4.1</v>
       </c>
       <c r="E114" t="n">
-        <v>1.57404546741845</v>
+        <v>2.496910481192554</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.02</v>
+        <v>5.15</v>
       </c>
       <c r="B115" t="n">
-        <v>827.49</v>
+        <v>128.58</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42</v>
+        <v>6.5</v>
       </c>
       <c r="D115" t="n">
-        <v>2.78</v>
+        <v>1.11</v>
       </c>
       <c r="E115" t="n">
-        <v>1.940604000926855</v>
+        <v>2.281287814422904</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.21</v>
+        <v>5.6</v>
       </c>
       <c r="B116" t="n">
-        <v>152.99</v>
+        <v>411.11</v>
       </c>
       <c r="C116" t="n">
-        <v>54.74</v>
+        <v>6.92</v>
       </c>
       <c r="D116" t="n">
-        <v>2.4</v>
+        <v>-0.48</v>
       </c>
       <c r="E116" t="n">
-        <v>2.216601014392008</v>
+        <v>2.436536134497052</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.88</v>
+        <v>5.26</v>
       </c>
       <c r="B117" t="n">
-        <v>252.88</v>
+        <v>117.5</v>
       </c>
       <c r="C117" t="n">
-        <v>2.01</v>
+        <v>42.94</v>
       </c>
       <c r="D117" t="n">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="E117" t="n">
-        <v>1.83279266754203</v>
+        <v>2.242475734404366</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.26</v>
+        <v>4.68</v>
       </c>
       <c r="B118" t="n">
-        <v>213.11</v>
+        <v>256.97</v>
       </c>
       <c r="C118" t="n">
-        <v>7.11</v>
+        <v>-5.2</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09</v>
+        <v>0.74</v>
       </c>
       <c r="E118" t="n">
-        <v>2.324412347776834</v>
+        <v>2.082914960994825</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.63</v>
+        <v>6.44</v>
       </c>
       <c r="B119" t="n">
-        <v>166.42</v>
+        <v>262.66</v>
       </c>
       <c r="C119" t="n">
-        <v>8.33</v>
+        <v>2.77</v>
       </c>
       <c r="D119" t="n">
-        <v>2.44</v>
+        <v>4.14</v>
       </c>
       <c r="E119" t="n">
-        <v>2.052727787647074</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.16</v>
+        <v>4.24</v>
       </c>
       <c r="B120" t="n">
-        <v>239.95</v>
+        <v>85.20999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>4.77</v>
+        <v>10.94</v>
       </c>
       <c r="D120" t="n">
-        <v>1.93</v>
+        <v>0.74</v>
       </c>
       <c r="E120" t="n">
-        <v>2.358911974459978</v>
+        <v>1.819855307535851</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.69</v>
+        <v>3.81</v>
       </c>
       <c r="B121" t="n">
-        <v>153.72</v>
+        <v>95.95999999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>24.16</v>
+        <v>8.02</v>
       </c>
       <c r="D121" t="n">
-        <v>2.21</v>
+        <v>2.71</v>
       </c>
       <c r="E121" t="n">
-        <v>2.10447722767179</v>
+        <v>1.582670374089236</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.52</v>
+        <v>4.31</v>
       </c>
       <c r="B122" t="n">
-        <v>243.53</v>
+        <v>162.16</v>
       </c>
       <c r="C122" t="n">
-        <v>3.92</v>
+        <v>19.09</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="E122" t="n">
-        <v>1.397234880667336</v>
+        <v>1.858667387554388</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.25</v>
+        <v>5.8</v>
       </c>
       <c r="B123" t="n">
-        <v>165.28</v>
+        <v>131.41</v>
       </c>
       <c r="C123" t="n">
-        <v>9.279999999999999</v>
+        <v>-29.24</v>
       </c>
       <c r="D123" t="n">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="E123" t="n">
-        <v>1.543858294070698</v>
+        <v>2.436536134497052</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.61</v>
+        <v>5.91</v>
       </c>
       <c r="B124" t="n">
-        <v>229.77</v>
+        <v>85.06</v>
       </c>
       <c r="C124" t="n">
-        <v>12.3</v>
+        <v>2.17</v>
       </c>
       <c r="D124" t="n">
-        <v>4.3</v>
+        <v>0.35</v>
       </c>
       <c r="E124" t="n">
-        <v>2.06135269431786</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.35</v>
+        <v>5.75</v>
       </c>
       <c r="B125" t="n">
-        <v>199.68</v>
+        <v>232.08</v>
       </c>
       <c r="C125" t="n">
-        <v>1.17</v>
+        <v>3.17</v>
       </c>
       <c r="D125" t="n">
-        <v>2.27</v>
+        <v>3.26</v>
       </c>
       <c r="E125" t="n">
-        <v>2.255413094410545</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.04</v>
+        <v>4.21</v>
       </c>
       <c r="B126" t="n">
-        <v>206.6</v>
+        <v>225.75</v>
       </c>
       <c r="C126" t="n">
-        <v>6.72</v>
+        <v>4.74</v>
       </c>
       <c r="D126" t="n">
-        <v>4.42</v>
+        <v>6.24</v>
       </c>
       <c r="E126" t="n">
-        <v>1.694794160809454</v>
+        <v>1.806917947529672</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.71</v>
+        <v>4.19</v>
       </c>
       <c r="B127" t="n">
-        <v>126.21</v>
+        <v>295.35</v>
       </c>
       <c r="C127" t="n">
-        <v>41.36</v>
+        <v>19.35</v>
       </c>
       <c r="D127" t="n">
-        <v>3.94</v>
+        <v>3.38</v>
       </c>
       <c r="E127" t="n">
-        <v>1.461921680698231</v>
+        <v>1.815542854200458</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.26</v>
+        <v>5.58</v>
       </c>
       <c r="B128" t="n">
-        <v>1027.31</v>
+        <v>176.48</v>
       </c>
       <c r="C128" t="n">
-        <v>4.33</v>
+        <v>-1.69</v>
       </c>
       <c r="D128" t="n">
-        <v>0.53</v>
+        <v>1.79</v>
       </c>
       <c r="E128" t="n">
-        <v>2.695283334620633</v>
+        <v>2.466723307844803</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.06</v>
+        <v>6.12</v>
       </c>
       <c r="B129" t="n">
-        <v>130.28</v>
+        <v>166.07</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.02</v>
+        <v>2.35</v>
       </c>
       <c r="D129" t="n">
-        <v>0.99</v>
+        <v>0.48</v>
       </c>
       <c r="E129" t="n">
-        <v>1.742231147498777</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.93</v>
+        <v>4.07</v>
       </c>
       <c r="B130" t="n">
-        <v>445.27</v>
+        <v>190.87</v>
       </c>
       <c r="C130" t="n">
-        <v>3.07</v>
+        <v>5.2</v>
       </c>
       <c r="D130" t="n">
-        <v>2.17</v>
+        <v>4.41</v>
       </c>
       <c r="E130" t="n">
-        <v>1.824167760871244</v>
+        <v>1.759480960840349</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.38</v>
+        <v>4.88</v>
       </c>
       <c r="B131" t="n">
-        <v>280.04</v>
+        <v>152.78</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.91</v>
+        <v>5.03</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="E131" t="n">
-        <v>2.285600267758296</v>
+        <v>2.177788934373472</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.5</v>
+        <v>4.93</v>
       </c>
       <c r="B132" t="n">
-        <v>141.42</v>
+        <v>100.79</v>
       </c>
       <c r="C132" t="n">
-        <v>3.07</v>
+        <v>-5.33</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5</v>
+        <v>2.24</v>
       </c>
       <c r="E132" t="n">
-        <v>2.212288561056615</v>
+        <v>2.203663654385829</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.87</v>
+        <v>4.25</v>
       </c>
       <c r="B133" t="n">
-        <v>297.08</v>
+        <v>345.96</v>
       </c>
       <c r="C133" t="n">
-        <v>-4.73</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.67</v>
+        <v>3.74</v>
       </c>
       <c r="E133" t="n">
-        <v>2.665096161272882</v>
+        <v>1.888854560902139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.25</v>
+        <v>3.77</v>
       </c>
       <c r="B134" t="n">
-        <v>931.16</v>
+        <v>97</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36</v>
+        <v>5.92</v>
       </c>
       <c r="D134" t="n">
-        <v>2.21</v>
+        <v>2.85</v>
       </c>
       <c r="E134" t="n">
-        <v>2.617659174583558</v>
+        <v>1.565420560747663</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.82</v>
+        <v>4.47</v>
       </c>
       <c r="B135" t="n">
-        <v>916.3200000000001</v>
+        <v>174.22</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.31</v>
+        <v>8.23</v>
       </c>
       <c r="D135" t="n">
-        <v>0.54</v>
+        <v>1.92</v>
       </c>
       <c r="E135" t="n">
-        <v>2.725470507968384</v>
+        <v>2.005290800957751</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.44</v>
+        <v>4.12</v>
       </c>
       <c r="B136" t="n">
-        <v>257.94</v>
+        <v>234.22</v>
       </c>
       <c r="C136" t="n">
-        <v>-6.44</v>
+        <v>2.93</v>
       </c>
       <c r="D136" t="n">
-        <v>1.69</v>
+        <v>3.92</v>
       </c>
       <c r="E136" t="n">
-        <v>2.251100641075153</v>
+        <v>1.7896681341881</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.58</v>
+        <v>3.94</v>
       </c>
       <c r="B137" t="n">
-        <v>147.93</v>
+        <v>326.5</v>
       </c>
       <c r="C137" t="n">
-        <v>1.86</v>
+        <v>0.86</v>
       </c>
       <c r="D137" t="n">
-        <v>1.4</v>
+        <v>2.14</v>
       </c>
       <c r="E137" t="n">
-        <v>2.134664401019541</v>
+        <v>1.673231894132489</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3</v>
+        <v>4.41</v>
       </c>
       <c r="B138" t="n">
-        <v>116.2</v>
+        <v>158.56</v>
       </c>
       <c r="C138" t="n">
-        <v>14.34</v>
+        <v>1.54</v>
       </c>
       <c r="D138" t="n">
-        <v>2.26</v>
+        <v>5.22</v>
       </c>
       <c r="E138" t="n">
-        <v>1.74654360083417</v>
+        <v>1.962166267603821</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.78</v>
+        <v>4.71</v>
       </c>
       <c r="B139" t="n">
-        <v>195.2</v>
+        <v>769.8200000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.53</v>
+        <v>6.64</v>
       </c>
       <c r="D139" t="n">
-        <v>0.82</v>
+        <v>3.51</v>
       </c>
       <c r="E139" t="n">
-        <v>2.005290800957751</v>
+        <v>2.069977600988646</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.8</v>
+        <v>5.85</v>
       </c>
       <c r="B140" t="n">
-        <v>290.13</v>
+        <v>155.96</v>
       </c>
       <c r="C140" t="n">
-        <v>-3.28</v>
+        <v>8.66</v>
       </c>
       <c r="D140" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="E140" t="n">
-        <v>1.910416827579104</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.76</v>
+        <v>4.21</v>
       </c>
       <c r="B141" t="n">
-        <v>453.56</v>
+        <v>180.59</v>
       </c>
       <c r="C141" t="n">
-        <v>6.25</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>2.46</v>
+        <v>2.71</v>
       </c>
       <c r="E141" t="n">
-        <v>2.574534641229628</v>
+        <v>1.837105120877423</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3.48</v>
+        <v>4.08</v>
       </c>
       <c r="B142" t="n">
-        <v>182.76</v>
+        <v>221.34</v>
       </c>
       <c r="C142" t="n">
-        <v>-13</v>
+        <v>-9.859999999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>3.82</v>
+        <v>-0.55</v>
       </c>
       <c r="E142" t="n">
-        <v>1.453296774027445</v>
+        <v>1.634419814113952</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="B143" t="n">
-        <v>3939.19</v>
+        <v>165.78</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.37</v>
+        <v>3.12</v>
       </c>
       <c r="D143" t="n">
-        <v>0.68</v>
+        <v>2.01</v>
       </c>
       <c r="E143" t="n">
-        <v>2.768595041322314</v>
+        <v>1.448984320692052</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3</v>
+        <v>5.01</v>
       </c>
       <c r="B144" t="n">
-        <v>81.53</v>
+        <v>155.95</v>
       </c>
       <c r="C144" t="n">
-        <v>31.13</v>
+        <v>-0.37</v>
       </c>
       <c r="D144" t="n">
-        <v>0.77</v>
+        <v>-0.54</v>
       </c>
       <c r="E144" t="n">
-        <v>1.996665894286965</v>
+        <v>2.195038747715043</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.61</v>
+        <v>4.37</v>
       </c>
       <c r="B145" t="n">
-        <v>112.79</v>
+        <v>236.17</v>
       </c>
       <c r="C145" t="n">
-        <v>9.4</v>
+        <v>-3.54</v>
       </c>
       <c r="D145" t="n">
-        <v>0.47</v>
+        <v>2.98</v>
       </c>
       <c r="E145" t="n">
-        <v>2.160539121031899</v>
+        <v>1.936291547591463</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.14</v>
+        <v>3.83</v>
       </c>
       <c r="B146" t="n">
-        <v>138.41</v>
+        <v>279.49</v>
       </c>
       <c r="C146" t="n">
-        <v>8.59</v>
+        <v>-1.54</v>
       </c>
       <c r="D146" t="n">
-        <v>1.94</v>
+        <v>2.72</v>
       </c>
       <c r="E146" t="n">
-        <v>1.638732267449345</v>
+        <v>1.595607734095414</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.03</v>
+        <v>4.82</v>
       </c>
       <c r="B147" t="n">
-        <v>293.76</v>
+        <v>250.6</v>
       </c>
       <c r="C147" t="n">
-        <v>4.91</v>
+        <v>12.35</v>
       </c>
       <c r="D147" t="n">
-        <v>2.77</v>
+        <v>3.73</v>
       </c>
       <c r="E147" t="n">
-        <v>1.70341906748024</v>
+        <v>2.156226667696506</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.68</v>
+        <v>6.95</v>
       </c>
       <c r="B148" t="n">
-        <v>157.9</v>
+        <v>109.09</v>
       </c>
       <c r="C148" t="n">
-        <v>3.93</v>
+        <v>42.86</v>
       </c>
       <c r="D148" t="n">
-        <v>4.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E148" t="n">
-        <v>2.013915707628537</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.9</v>
+        <v>4.13</v>
       </c>
       <c r="B149" t="n">
-        <v>178.65</v>
+        <v>249.01</v>
       </c>
       <c r="C149" t="n">
-        <v>15.75</v>
+        <v>-0.22</v>
       </c>
       <c r="D149" t="n">
-        <v>1.27</v>
+        <v>2.33</v>
       </c>
       <c r="E149" t="n">
-        <v>1.850042480883602</v>
+        <v>1.785355680852707</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3</v>
+        <v>6.23</v>
       </c>
       <c r="B150" t="n">
-        <v>119</v>
+        <v>111.19</v>
       </c>
       <c r="C150" t="n">
-        <v>6.81</v>
+        <v>9.93</v>
       </c>
       <c r="D150" t="n">
-        <v>3.36</v>
+        <v>2.97</v>
       </c>
       <c r="E150" t="n">
-        <v>1.720668880821812</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.95</v>
+        <v>3.67</v>
       </c>
       <c r="B151" t="n">
-        <v>190.5</v>
+        <v>137.57</v>
       </c>
       <c r="C151" t="n">
-        <v>13.31</v>
+        <v>16.91</v>
       </c>
       <c r="D151" t="n">
-        <v>1.68</v>
+        <v>1.9</v>
       </c>
       <c r="E151" t="n">
-        <v>2.475348214515589</v>
+        <v>1.47485904070441</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.9</v>
+        <v>3.92</v>
       </c>
       <c r="B152" t="n">
-        <v>198.41</v>
+        <v>170.19</v>
       </c>
       <c r="C152" t="n">
-        <v>7.71</v>
+        <v>15.63</v>
       </c>
       <c r="D152" t="n">
-        <v>2.38</v>
+        <v>4.85</v>
       </c>
       <c r="E152" t="n">
-        <v>1.811230400865065</v>
+        <v>1.647357174120131</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="B153" t="n">
-        <v>170.46</v>
+        <v>321.16</v>
       </c>
       <c r="C153" t="n">
-        <v>-6.32</v>
+        <v>10.37</v>
       </c>
       <c r="D153" t="n">
-        <v>1.27</v>
+        <v>2.14</v>
       </c>
       <c r="E153" t="n">
-        <v>1.970791174274607</v>
+        <v>2.022540614299323</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.9</v>
+        <v>3.59</v>
       </c>
       <c r="B154" t="n">
-        <v>136.59</v>
+        <v>159.51</v>
       </c>
       <c r="C154" t="n">
-        <v>5.7</v>
+        <v>-2.55</v>
       </c>
       <c r="D154" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="E154" t="n">
-        <v>2.479660667850982</v>
+        <v>1.418797147344301</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.76</v>
+        <v>5.41</v>
       </c>
       <c r="B155" t="n">
-        <v>374.06</v>
+        <v>52.12</v>
       </c>
       <c r="C155" t="n">
-        <v>8.550000000000001</v>
+        <v>17.73</v>
       </c>
       <c r="D155" t="n">
-        <v>3.95</v>
+        <v>0.68</v>
       </c>
       <c r="E155" t="n">
-        <v>1.914729280914497</v>
+        <v>2.371849334466157</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.75</v>
+        <v>6.17</v>
       </c>
       <c r="B156" t="n">
-        <v>175.8</v>
+        <v>143.56</v>
       </c>
       <c r="C156" t="n">
-        <v>-3.24</v>
+        <v>27.88</v>
       </c>
       <c r="D156" t="n">
-        <v>0.98</v>
+        <v>-0.23</v>
       </c>
       <c r="E156" t="n">
-        <v>2.656471254602096</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.48</v>
+        <v>3.98</v>
       </c>
       <c r="B157" t="n">
-        <v>165.58</v>
+        <v>202.49</v>
       </c>
       <c r="C157" t="n">
-        <v>-3.68</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>1.02</v>
+        <v>6.47</v>
       </c>
       <c r="E157" t="n">
-        <v>2.225225921062794</v>
+        <v>1.612857547436987</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.27</v>
+        <v>4.71</v>
       </c>
       <c r="B158" t="n">
-        <v>119.88</v>
+        <v>75.91</v>
       </c>
       <c r="C158" t="n">
-        <v>8.76</v>
+        <v>0.71</v>
       </c>
       <c r="D158" t="n">
-        <v>2.81</v>
+        <v>3.8</v>
       </c>
       <c r="E158" t="n">
-        <v>2.28991272109369</v>
+        <v>2.117414587677969</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="B159" t="n">
-        <v>135.87</v>
+        <v>360.35</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.78</v>
+        <v>4.09</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9</v>
+        <v>2.61</v>
       </c>
       <c r="E159" t="n">
-        <v>2.561597281223449</v>
+        <v>2.341662161118406</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.18</v>
+        <v>4.57</v>
       </c>
       <c r="B160" t="n">
-        <v>233.57</v>
+        <v>131.45</v>
       </c>
       <c r="C160" t="n">
-        <v>-3.9</v>
+        <v>14.01</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.19</v>
+        <v>3.24</v>
       </c>
       <c r="E160" t="n">
-        <v>2.458098401174017</v>
+        <v>2.057040240982467</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.95</v>
+        <v>4.62</v>
       </c>
       <c r="B161" t="n">
-        <v>273.74</v>
+        <v>146.24</v>
       </c>
       <c r="C161" t="n">
-        <v>1.61</v>
+        <v>14.35</v>
       </c>
       <c r="D161" t="n">
-        <v>1.38</v>
+        <v>4.83</v>
       </c>
       <c r="E161" t="n">
-        <v>1.802605494194279</v>
+        <v>2.078602507659432</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.35</v>
+        <v>5.97</v>
       </c>
       <c r="B162" t="n">
-        <v>121.28</v>
+        <v>269.57</v>
       </c>
       <c r="C162" t="n">
-        <v>15.2</v>
+        <v>6.76</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.33</v>
+        <v>3.47</v>
       </c>
       <c r="E162" t="n">
-        <v>2.552972374552663</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3.2</v>
+        <v>3.57</v>
       </c>
       <c r="B163" t="n">
-        <v>123.42</v>
+        <v>418.98</v>
       </c>
       <c r="C163" t="n">
-        <v>5.19</v>
+        <v>3.82</v>
       </c>
       <c r="D163" t="n">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="E163" t="n">
-        <v>1.608545094101594</v>
+        <v>1.414484694008908</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.7</v>
+        <v>6.13</v>
       </c>
       <c r="B164" t="n">
-        <v>148.38</v>
+        <v>398.15</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.5600000000000001</v>
+        <v>13.74</v>
       </c>
       <c r="D164" t="n">
-        <v>1.96</v>
+        <v>2.9</v>
       </c>
       <c r="E164" t="n">
-        <v>2.031165520970109</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.77</v>
+        <v>4.78</v>
       </c>
       <c r="B165" t="n">
-        <v>159.62</v>
+        <v>142.73</v>
       </c>
       <c r="C165" t="n">
-        <v>-7.09</v>
+        <v>5.81</v>
       </c>
       <c r="D165" t="n">
-        <v>5.52</v>
+        <v>2.52</v>
       </c>
       <c r="E165" t="n">
-        <v>2.035477974305502</v>
+        <v>2.14760176102572</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="B166" t="n">
-        <v>239.99</v>
+        <v>150.2</v>
       </c>
       <c r="C166" t="n">
-        <v>-3.3</v>
+        <v>42.51</v>
       </c>
       <c r="D166" t="n">
-        <v>1.44</v>
+        <v>0.76</v>
       </c>
       <c r="E166" t="n">
-        <v>2.302850081099868</v>
+        <v>1.93197909425607</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.62</v>
+        <v>3.99</v>
       </c>
       <c r="B167" t="n">
-        <v>486.07</v>
+        <v>60.86</v>
       </c>
       <c r="C167" t="n">
-        <v>6.92</v>
+        <v>14.33</v>
       </c>
       <c r="D167" t="n">
-        <v>1.82</v>
+        <v>1.52</v>
       </c>
       <c r="E167" t="n">
-        <v>2.113102134342576</v>
+        <v>1.681856800803275</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="B168" t="n">
-        <v>305.87</v>
+        <v>110.69</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.74</v>
+        <v>16.65</v>
       </c>
       <c r="D168" t="n">
-        <v>1.75</v>
+        <v>0.74</v>
       </c>
       <c r="E168" t="n">
-        <v>1.858667387554388</v>
+        <v>1.862979840889781</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.12</v>
+        <v>5.02</v>
       </c>
       <c r="B169" t="n">
-        <v>161.18</v>
+        <v>386.87</v>
       </c>
       <c r="C169" t="n">
-        <v>5.78</v>
+        <v>8.44</v>
       </c>
       <c r="D169" t="n">
-        <v>1.32</v>
+        <v>5.5</v>
       </c>
       <c r="E169" t="n">
-        <v>2.406348961149301</v>
+        <v>2.238163281068974</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.35</v>
+        <v>5.58</v>
       </c>
       <c r="B170" t="n">
-        <v>182.98</v>
+        <v>387.1</v>
       </c>
       <c r="C170" t="n">
-        <v>2.11</v>
+        <v>23.12</v>
       </c>
       <c r="D170" t="n">
-        <v>2.9</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>2.238163281068974</v>
+        <v>2.345974614453799</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.7</v>
+        <v>4.15</v>
       </c>
       <c r="B171" t="n">
-        <v>196.26</v>
+        <v>314.44</v>
       </c>
       <c r="C171" t="n">
-        <v>5.27</v>
+        <v>8.25</v>
       </c>
       <c r="D171" t="n">
-        <v>2.42</v>
+        <v>4.99</v>
       </c>
       <c r="E171" t="n">
-        <v>1.979416080945393</v>
+        <v>1.798293040858886</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3.11</v>
+        <v>4.75</v>
       </c>
       <c r="B172" t="n">
-        <v>439.65</v>
+        <v>164.13</v>
       </c>
       <c r="C172" t="n">
-        <v>9.390000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="D172" t="n">
-        <v>4.45</v>
+        <v>1.83</v>
       </c>
       <c r="E172" t="n">
-        <v>1.664606987461703</v>
+        <v>2.126039494348755</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.83</v>
+        <v>5.64</v>
       </c>
       <c r="B173" t="n">
-        <v>160.47</v>
+        <v>129.56</v>
       </c>
       <c r="C173" t="n">
-        <v>18.95</v>
+        <v>-0.17</v>
       </c>
       <c r="D173" t="n">
-        <v>3.61</v>
+        <v>1.18</v>
       </c>
       <c r="E173" t="n">
-        <v>2.54865992121727</v>
+        <v>2.496910481192554</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.93</v>
+        <v>3.98</v>
       </c>
       <c r="B174" t="n">
-        <v>318.78</v>
+        <v>106.07</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.66</v>
+        <v>-7.56</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.67</v>
+        <v>3.08</v>
       </c>
       <c r="E174" t="n">
-        <v>1.97510362761</v>
+        <v>1.677544347467882</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.97</v>
+        <v>4</v>
       </c>
       <c r="B175" t="n">
-        <v>337.97</v>
+        <v>223.19</v>
       </c>
       <c r="C175" t="n">
-        <v>1.08</v>
+        <v>-2.07</v>
       </c>
       <c r="D175" t="n">
-        <v>0.98</v>
+        <v>2.39</v>
       </c>
       <c r="E175" t="n">
-        <v>1.819855307535851</v>
+        <v>1.716356427486419</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.73</v>
+        <v>3.89</v>
       </c>
       <c r="B176" t="n">
-        <v>100.34</v>
+        <v>82.92</v>
       </c>
       <c r="C176" t="n">
-        <v>5.55</v>
+        <v>-1.56</v>
       </c>
       <c r="D176" t="n">
-        <v>2.88</v>
+        <v>1.1</v>
       </c>
       <c r="E176" t="n">
-        <v>2.565909734558843</v>
+        <v>1.591295280760022</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3.48</v>
+        <v>5.7</v>
       </c>
       <c r="B177" t="n">
-        <v>413.51</v>
+        <v>221.8</v>
       </c>
       <c r="C177" t="n">
-        <v>-17.99</v>
+        <v>2.31</v>
       </c>
       <c r="D177" t="n">
-        <v>8.140000000000001</v>
+        <v>4.02</v>
       </c>
       <c r="E177" t="n">
-        <v>1.699106614144847</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3.23</v>
+        <v>4.85</v>
       </c>
       <c r="B178" t="n">
-        <v>311.28</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.24</v>
+        <v>5.24</v>
       </c>
       <c r="D178" t="n">
-        <v>2.22</v>
+        <v>2.79</v>
       </c>
       <c r="E178" t="n">
-        <v>1.569733014083056</v>
+        <v>2.173476481038078</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.69</v>
+        <v>4.35</v>
       </c>
       <c r="B179" t="n">
-        <v>99.14</v>
+        <v>364.69</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.94</v>
+        <v>-7.17</v>
       </c>
       <c r="D179" t="n">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="E179" t="n">
-        <v>2.143289307690327</v>
+        <v>1.83279266754203</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.26</v>
+        <v>4.91</v>
       </c>
       <c r="B180" t="n">
-        <v>172.09</v>
+        <v>99.23</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.58</v>
+        <v>7.75</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.48</v>
+        <v>0.75</v>
       </c>
       <c r="E180" t="n">
-        <v>2.527097654540305</v>
+        <v>2.182101387708864</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.62</v>
+        <v>5.3</v>
       </c>
       <c r="B181" t="n">
-        <v>181.61</v>
+        <v>461.55</v>
       </c>
       <c r="C181" t="n">
-        <v>5.13</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D181" t="n">
-        <v>2.64</v>
+        <v>3.8</v>
       </c>
       <c r="E181" t="n">
-        <v>2.057040240982467</v>
+        <v>2.350287067789192</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3.52</v>
+        <v>5.58</v>
       </c>
       <c r="B182" t="n">
-        <v>242.06</v>
+        <v>129.87</v>
       </c>
       <c r="C182" t="n">
-        <v>24.71</v>
+        <v>3.13</v>
       </c>
       <c r="D182" t="n">
-        <v>3.48</v>
+        <v>-0.21</v>
       </c>
       <c r="E182" t="n">
-        <v>1.414484694008908</v>
+        <v>2.436536134497052</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.87</v>
+        <v>3.85</v>
       </c>
       <c r="B183" t="n">
-        <v>154.13</v>
+        <v>192.39</v>
       </c>
       <c r="C183" t="n">
-        <v>11.78</v>
+        <v>14.37</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.21</v>
+        <v>3.55</v>
       </c>
       <c r="E183" t="n">
-        <v>1.988040987616179</v>
+        <v>1.61717000077238</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3.02</v>
+        <v>6.15</v>
       </c>
       <c r="B184" t="n">
-        <v>188.59</v>
+        <v>164.54</v>
       </c>
       <c r="C184" t="n">
-        <v>26.51</v>
+        <v>-4.58</v>
       </c>
       <c r="D184" t="n">
-        <v>6.76</v>
+        <v>1.22</v>
       </c>
       <c r="E184" t="n">
-        <v>1.906104374243711</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3.13</v>
+        <v>5.61</v>
       </c>
       <c r="B185" t="n">
-        <v>250.91</v>
+        <v>345.8</v>
       </c>
       <c r="C185" t="n">
-        <v>-8.99</v>
+        <v>0.26</v>
       </c>
       <c r="D185" t="n">
-        <v>1.85</v>
+        <v>3.89</v>
       </c>
       <c r="E185" t="n">
-        <v>1.707731520815633</v>
+        <v>2.496910481192554</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.89</v>
+        <v>5.22</v>
       </c>
       <c r="B186" t="n">
-        <v>64.73999999999999</v>
+        <v>278.96</v>
       </c>
       <c r="C186" t="n">
-        <v>10.47</v>
+        <v>16.96</v>
       </c>
       <c r="D186" t="n">
-        <v>0.48</v>
+        <v>2.96</v>
       </c>
       <c r="E186" t="n">
-        <v>2.600409361241987</v>
+        <v>2.320099894441441</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.35</v>
+        <v>5.12</v>
       </c>
       <c r="B187" t="n">
-        <v>281.55</v>
+        <v>294.35</v>
       </c>
       <c r="C187" t="n">
-        <v>-11.04</v>
+        <v>45.62</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.33</v>
+        <v>10.9</v>
       </c>
       <c r="E187" t="n">
-        <v>2.518472747869519</v>
+        <v>1.944916454262249</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3.36</v>
+        <v>4.47</v>
       </c>
       <c r="B188" t="n">
-        <v>248.58</v>
+        <v>145.93</v>
       </c>
       <c r="C188" t="n">
-        <v>4.75</v>
+        <v>10.09</v>
       </c>
       <c r="D188" t="n">
-        <v>2.47</v>
+        <v>1.81</v>
       </c>
       <c r="E188" t="n">
-        <v>1.466234134033624</v>
+        <v>2.000978347622357</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3.09</v>
+        <v>5.55</v>
       </c>
       <c r="B189" t="n">
-        <v>200.75</v>
+        <v>147.28</v>
       </c>
       <c r="C189" t="n">
-        <v>-8.1</v>
+        <v>53.95</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.9</v>
+        <v>1.75</v>
       </c>
       <c r="E189" t="n">
-        <v>2.01822816096393</v>
+        <v>2.272662907752117</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3.54</v>
+        <v>4.91</v>
       </c>
       <c r="B190" t="n">
-        <v>306.58</v>
+        <v>129.11</v>
       </c>
       <c r="C190" t="n">
-        <v>0.24</v>
+        <v>10.55</v>
       </c>
       <c r="D190" t="n">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="E190" t="n">
-        <v>1.38860997399655</v>
+        <v>2.186413841044257</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.85</v>
+        <v>5.33</v>
       </c>
       <c r="B191" t="n">
-        <v>406.31</v>
+        <v>275.51</v>
       </c>
       <c r="C191" t="n">
-        <v>12.82</v>
+        <v>-3.85</v>
       </c>
       <c r="D191" t="n">
-        <v>6.65</v>
+        <v>5.6</v>
       </c>
       <c r="E191" t="n">
-        <v>2.643533894595917</v>
+        <v>2.358911974459978</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.79</v>
+        <v>5.28</v>
       </c>
       <c r="B192" t="n">
-        <v>472.99</v>
+        <v>207.97</v>
       </c>
       <c r="C192" t="n">
-        <v>17.49</v>
+        <v>-5.75</v>
       </c>
       <c r="D192" t="n">
-        <v>2.38</v>
+        <v>1.63</v>
       </c>
       <c r="E192" t="n">
-        <v>2.626284081254345</v>
+        <v>2.328724801112227</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.48</v>
+        <v>3.9</v>
       </c>
       <c r="B193" t="n">
-        <v>128.58</v>
+        <v>165.03</v>
       </c>
       <c r="C193" t="n">
-        <v>28.21</v>
+        <v>8.91</v>
       </c>
       <c r="D193" t="n">
-        <v>4.21</v>
+        <v>0.68</v>
       </c>
       <c r="E193" t="n">
-        <v>2.281287814422904</v>
+        <v>1.599920187430808</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.07</v>
+        <v>4.5</v>
       </c>
       <c r="B194" t="n">
-        <v>148.93</v>
+        <v>690.1900000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>-4.97</v>
+        <v>5.23</v>
       </c>
       <c r="D194" t="n">
-        <v>6.42</v>
+        <v>2.54</v>
       </c>
       <c r="E194" t="n">
-        <v>2.50553538786334</v>
+        <v>1.966478720939214</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.77</v>
+        <v>5.13</v>
       </c>
       <c r="B195" t="n">
-        <v>351.51</v>
+        <v>277.46</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.89</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="D195" t="n">
-        <v>2.74</v>
+        <v>3.56</v>
       </c>
       <c r="E195" t="n">
-        <v>1.927666640920677</v>
+        <v>2.294225174429083</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3.04</v>
+        <v>5.09</v>
       </c>
       <c r="B196" t="n">
-        <v>52.85</v>
+        <v>332.37</v>
       </c>
       <c r="C196" t="n">
-        <v>15.5</v>
+        <v>4.29</v>
       </c>
       <c r="D196" t="n">
-        <v>0.62</v>
+        <v>4.03</v>
       </c>
       <c r="E196" t="n">
-        <v>1.806917947529672</v>
+        <v>2.264038001081332</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.8</v>
+        <v>4.39</v>
       </c>
       <c r="B197" t="n">
-        <v>271.83</v>
+        <v>160.33</v>
       </c>
       <c r="C197" t="n">
-        <v>8.369999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D197" t="n">
-        <v>3.97</v>
+        <v>2.7</v>
       </c>
       <c r="E197" t="n">
-        <v>1.862979840889781</v>
+        <v>1.957853814268428</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="B198" t="n">
-        <v>137.1</v>
+        <v>306.58</v>
       </c>
       <c r="C198" t="n">
-        <v>16.64</v>
+        <v>0.24</v>
       </c>
       <c r="D198" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="E198" t="n">
-        <v>1.457609227362838</v>
+        <v>1.384297520661157</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.64</v>
+        <v>4.47</v>
       </c>
       <c r="B199" t="n">
-        <v>555.7</v>
+        <v>387.29</v>
       </c>
       <c r="C199" t="n">
-        <v>-6.74</v>
+        <v>4.28</v>
       </c>
       <c r="D199" t="n">
-        <v>2.44</v>
+        <v>2.9</v>
       </c>
       <c r="E199" t="n">
-        <v>2.156226667696506</v>
+        <v>2.013915707628537</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.79</v>
+        <v>3.69</v>
       </c>
       <c r="B200" t="n">
-        <v>238.03</v>
+        <v>225.57</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.65</v>
+        <v>5.58</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.5</v>
+        <v>3.1</v>
       </c>
       <c r="E200" t="n">
-        <v>2.678033521279061</v>
+        <v>1.51798357405834</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.8</v>
+        <v>3.98</v>
       </c>
       <c r="B201" t="n">
-        <v>229.88</v>
+        <v>128.58</v>
       </c>
       <c r="C201" t="n">
-        <v>4.58</v>
+        <v>16.12</v>
       </c>
       <c r="D201" t="n">
-        <v>3.05</v>
+        <v>1.94</v>
       </c>
       <c r="E201" t="n">
-        <v>1.867292294225174</v>
+        <v>1.686169254138668</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.06</v>
+        <v>5.39</v>
       </c>
       <c r="B202" t="n">
-        <v>104.96</v>
+        <v>200.16</v>
       </c>
       <c r="C202" t="n">
-        <v>5.6</v>
+        <v>-4.11</v>
       </c>
       <c r="D202" t="n">
-        <v>0.75</v>
+        <v>2.54</v>
       </c>
       <c r="E202" t="n">
-        <v>2.453785947838624</v>
+        <v>2.389099147807729</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.77</v>
+        <v>5.17</v>
       </c>
       <c r="B203" t="n">
-        <v>125.97</v>
+        <v>176.83</v>
       </c>
       <c r="C203" t="n">
-        <v>-8.630000000000001</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.54</v>
+        <v>4.1</v>
       </c>
       <c r="E203" t="n">
-        <v>2.259725547745938</v>
+        <v>2.28991272109369</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3.52</v>
+        <v>6.36</v>
       </c>
       <c r="B204" t="n">
-        <v>144.69</v>
+        <v>74.84</v>
       </c>
       <c r="C204" t="n">
-        <v>-9.18</v>
+        <v>4.47</v>
       </c>
       <c r="D204" t="n">
-        <v>2.53</v>
+        <v>2.11</v>
       </c>
       <c r="E204" t="n">
-        <v>1.410172240673515</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3.48</v>
+        <v>4.93</v>
       </c>
       <c r="B205" t="n">
-        <v>1733.22</v>
+        <v>103.14</v>
       </c>
       <c r="C205" t="n">
-        <v>1.49</v>
+        <v>0.33</v>
       </c>
       <c r="D205" t="n">
-        <v>4.74</v>
+        <v>1.28</v>
       </c>
       <c r="E205" t="n">
-        <v>2.703908241291419</v>
+        <v>2.199351201050436</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.93</v>
+        <v>6.32</v>
       </c>
       <c r="B206" t="n">
-        <v>231.36</v>
+        <v>173.47</v>
       </c>
       <c r="C206" t="n">
-        <v>-7.15</v>
+        <v>11.04</v>
       </c>
       <c r="D206" t="n">
-        <v>0.68</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E206" t="n">
-        <v>2.591784454571201</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.98</v>
+        <v>12.1</v>
       </c>
       <c r="B207" t="n">
-        <v>124.45</v>
+        <v>154.9</v>
       </c>
       <c r="C207" t="n">
-        <v>16.71</v>
+        <v>-6.15</v>
       </c>
       <c r="D207" t="n">
-        <v>0.33</v>
+        <v>0.76</v>
       </c>
       <c r="E207" t="n">
-        <v>1.845730027548209</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.71</v>
+        <v>3.51</v>
       </c>
       <c r="B208" t="n">
-        <v>187.6</v>
+        <v>135.98</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.52</v>
+        <v>14.67</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5</v>
+        <v>3.52</v>
       </c>
       <c r="E208" t="n">
-        <v>2.082914960994825</v>
+        <v>1.392922427331943</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3.18</v>
+        <v>4.49</v>
       </c>
       <c r="B209" t="n">
-        <v>202.24</v>
+        <v>115.65</v>
       </c>
       <c r="C209" t="n">
-        <v>-2.48</v>
+        <v>30.63</v>
       </c>
       <c r="D209" t="n">
-        <v>2.62</v>
+        <v>-0.17</v>
       </c>
       <c r="E209" t="n">
-        <v>1.61717000077238</v>
+        <v>1.867292294225174</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.68</v>
+        <v>4.63</v>
       </c>
       <c r="B210" t="n">
-        <v>218.76</v>
+        <v>115.58</v>
       </c>
       <c r="C210" t="n">
-        <v>29.39</v>
+        <v>10.28</v>
       </c>
       <c r="D210" t="n">
-        <v>8.81</v>
+        <v>3.01</v>
       </c>
       <c r="E210" t="n">
-        <v>2.402036507813908</v>
+        <v>2.100164774336397</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.82</v>
+        <v>4.35</v>
       </c>
       <c r="B211" t="n">
-        <v>225.5</v>
+        <v>137.13</v>
       </c>
       <c r="C211" t="n">
-        <v>1.64</v>
+        <v>20.85</v>
       </c>
       <c r="D211" t="n">
-        <v>2.32</v>
+        <v>3.16</v>
       </c>
       <c r="E211" t="n">
-        <v>1.871604747560567</v>
+        <v>1.910416827579104</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.34</v>
+        <v>4.06</v>
       </c>
       <c r="B212" t="n">
-        <v>327.04</v>
+        <v>103.74</v>
       </c>
       <c r="C212" t="n">
-        <v>-13.29</v>
+        <v>0.78</v>
       </c>
       <c r="D212" t="n">
-        <v>-2.67</v>
+        <v>1.24</v>
       </c>
       <c r="E212" t="n">
-        <v>2.669408614608275</v>
+        <v>1.737918694163384</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.72</v>
+        <v>4.26</v>
       </c>
       <c r="B213" t="n">
-        <v>139.56</v>
+        <v>121.37</v>
       </c>
       <c r="C213" t="n">
-        <v>4.17</v>
+        <v>-0.73</v>
       </c>
       <c r="D213" t="n">
-        <v>2.45</v>
+        <v>1.47</v>
       </c>
       <c r="E213" t="n">
-        <v>1.962166267603821</v>
+        <v>1.841417574212816</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3.09</v>
+        <v>4.6</v>
       </c>
       <c r="B214" t="n">
-        <v>104.28</v>
+        <v>114.95</v>
       </c>
       <c r="C214" t="n">
-        <v>24.49</v>
+        <v>5.71</v>
       </c>
       <c r="D214" t="n">
-        <v>7.55</v>
+        <v>7.6</v>
       </c>
       <c r="E214" t="n">
-        <v>1.893167014237533</v>
+        <v>2.009603254293144</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.95</v>
+        <v>5.39</v>
       </c>
       <c r="B215" t="n">
-        <v>151.15</v>
+        <v>237.01</v>
       </c>
       <c r="C215" t="n">
-        <v>-15.05</v>
+        <v>-0.47</v>
       </c>
       <c r="D215" t="n">
-        <v>1.69</v>
+        <v>2.89</v>
       </c>
       <c r="E215" t="n">
-        <v>2.630596534589738</v>
+        <v>2.402036507813908</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3.33</v>
+        <v>5.65</v>
       </c>
       <c r="B216" t="n">
-        <v>146.78</v>
+        <v>193.67</v>
       </c>
       <c r="C216" t="n">
-        <v>17.51</v>
+        <v>-2.15</v>
       </c>
       <c r="D216" t="n">
-        <v>3.12</v>
+        <v>0.61</v>
       </c>
       <c r="E216" t="n">
-        <v>1.487796400710589</v>
+        <v>2.496910481192554</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.28</v>
+        <v>4.34</v>
       </c>
       <c r="B217" t="n">
-        <v>158.57</v>
+        <v>649.2</v>
       </c>
       <c r="C217" t="n">
-        <v>3.09</v>
+        <v>2.75</v>
       </c>
       <c r="D217" t="n">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="E217" t="n">
-        <v>2.298537627764476</v>
+        <v>1.845730027548209</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.77</v>
+        <v>3.68</v>
       </c>
       <c r="B218" t="n">
-        <v>388.87</v>
+        <v>115.52</v>
       </c>
       <c r="C218" t="n">
-        <v>-5.71</v>
+        <v>19.75</v>
       </c>
       <c r="D218" t="n">
-        <v>0.15</v>
+        <v>3.04</v>
       </c>
       <c r="E218" t="n">
-        <v>2.686658427949847</v>
+        <v>1.487796400710589</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.2</v>
+        <v>4.98</v>
       </c>
       <c r="B219" t="n">
-        <v>142.24</v>
+        <v>107.07</v>
       </c>
       <c r="C219" t="n">
-        <v>21.01</v>
+        <v>26.55</v>
       </c>
       <c r="D219" t="n">
-        <v>2.3</v>
+        <v>6.76</v>
       </c>
       <c r="E219" t="n">
-        <v>2.371849334466157</v>
+        <v>2.151914214361113</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3.14</v>
+        <v>5.67</v>
       </c>
       <c r="B220" t="n">
-        <v>96.68000000000001</v>
+        <v>136.27</v>
       </c>
       <c r="C220" t="n">
-        <v>-4.72</v>
+        <v>-6.79</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.35</v>
+        <v>0.63</v>
       </c>
       <c r="E220" t="n">
-        <v>1.785355680852707</v>
+        <v>2.466723307844803</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.13</v>
+        <v>5</v>
       </c>
       <c r="B221" t="n">
-        <v>177.23</v>
+        <v>207.5</v>
       </c>
       <c r="C221" t="n">
-        <v>-8.07</v>
+        <v>11.65</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.01</v>
+        <v>2.68</v>
       </c>
       <c r="E221" t="n">
-        <v>2.522785201204913</v>
+        <v>2.24678818773976</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.76</v>
+        <v>6.04</v>
       </c>
       <c r="B222" t="n">
-        <v>189.29</v>
+        <v>105.04</v>
       </c>
       <c r="C222" t="n">
-        <v>1.51</v>
+        <v>2.11</v>
       </c>
       <c r="D222" t="n">
-        <v>3.58</v>
+        <v>2.08</v>
       </c>
       <c r="E222" t="n">
-        <v>1.901791920908319</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3.51</v>
+        <v>3.67</v>
       </c>
       <c r="B223" t="n">
-        <v>465.02</v>
+        <v>178.86</v>
       </c>
       <c r="C223" t="n">
-        <v>8.050000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="D223" t="n">
-        <v>3.69</v>
+        <v>4.1</v>
       </c>
       <c r="E223" t="n">
-        <v>1.384297520661157</v>
+        <v>1.496421307381375</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.72</v>
+        <v>4.78</v>
       </c>
       <c r="B224" t="n">
-        <v>220.46</v>
+        <v>469.09</v>
       </c>
       <c r="C224" t="n">
-        <v>9.69</v>
+        <v>3.97</v>
       </c>
       <c r="D224" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="E224" t="n">
-        <v>1.944916454262249</v>
+        <v>2.138976854354934</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3.38</v>
+        <v>5.57</v>
       </c>
       <c r="B225" t="n">
-        <v>91.44</v>
+        <v>312.7</v>
       </c>
       <c r="C225" t="n">
-        <v>14.43</v>
+        <v>3.98</v>
       </c>
       <c r="D225" t="n">
-        <v>1.84</v>
+        <v>0.63</v>
       </c>
       <c r="E225" t="n">
-        <v>1.483483947375196</v>
+        <v>2.445161041167838</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.35</v>
+        <v>4.2</v>
       </c>
       <c r="B226" t="n">
-        <v>1637.73</v>
+        <v>306.71</v>
       </c>
       <c r="C226" t="n">
-        <v>4.23</v>
+        <v>-2.34</v>
       </c>
       <c r="D226" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="E226" t="n">
-        <v>2.751345227980742</v>
+        <v>1.802605494194279</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.93</v>
+        <v>3.74</v>
       </c>
       <c r="B227" t="n">
-        <v>91.15000000000001</v>
+        <v>140.42</v>
       </c>
       <c r="C227" t="n">
-        <v>2.73</v>
+        <v>6.69</v>
       </c>
       <c r="D227" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="E227" t="n">
-        <v>2.466723307844803</v>
+        <v>1.543858294070698</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.76</v>
+        <v>4.27</v>
       </c>
       <c r="B228" t="n">
-        <v>447.24</v>
+        <v>123.98</v>
       </c>
       <c r="C228" t="n">
-        <v>-22.54</v>
+        <v>11.42</v>
       </c>
       <c r="D228" t="n">
-        <v>0.91</v>
+        <v>5.51</v>
       </c>
       <c r="E228" t="n">
-        <v>2.712533147962205</v>
+        <v>1.850042480883602</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.66</v>
+        <v>5.18</v>
       </c>
       <c r="B229" t="n">
-        <v>89.7</v>
+        <v>132</v>
       </c>
       <c r="C229" t="n">
-        <v>9.869999999999999</v>
+        <v>15.16</v>
       </c>
       <c r="D229" t="n">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="E229" t="n">
-        <v>2.044102880976288</v>
+        <v>2.307162534435262</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.63</v>
+        <v>6.33</v>
       </c>
       <c r="B230" t="n">
-        <v>113.54</v>
+        <v>157.64</v>
       </c>
       <c r="C230" t="n">
-        <v>13.96</v>
+        <v>1.88</v>
       </c>
       <c r="D230" t="n">
-        <v>5.23</v>
+        <v>1.16</v>
       </c>
       <c r="E230" t="n">
-        <v>2.087227414330218</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.56</v>
+        <v>3.51</v>
       </c>
       <c r="B231" t="n">
-        <v>482.88</v>
+        <v>465.02</v>
       </c>
       <c r="C231" t="n">
-        <v>4.46</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D231" t="n">
-        <v>2.93</v>
+        <v>3.69</v>
       </c>
       <c r="E231" t="n">
-        <v>2.130351947684148</v>
+        <v>1.38860997399655</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.5</v>
+        <v>3.98</v>
       </c>
       <c r="B232" t="n">
-        <v>247.7</v>
+        <v>150.98</v>
       </c>
       <c r="C232" t="n">
-        <v>7.31</v>
+        <v>22.43</v>
       </c>
       <c r="D232" t="n">
-        <v>1.45</v>
+        <v>2.95</v>
       </c>
       <c r="E232" t="n">
-        <v>2.177788934373472</v>
+        <v>1.668919440797096</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3.26</v>
+        <v>3.77</v>
       </c>
       <c r="B233" t="n">
-        <v>119.01</v>
+        <v>294.36</v>
       </c>
       <c r="C233" t="n">
-        <v>6.8</v>
+        <v>6.95</v>
       </c>
       <c r="D233" t="n">
-        <v>1.3</v>
+        <v>5.05</v>
       </c>
       <c r="E233" t="n">
         <v>1.556795654076877</v>
@@ -4394,1532 +4394,1532 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3.18</v>
+        <v>4.12</v>
       </c>
       <c r="B234" t="n">
-        <v>285.03</v>
+        <v>101.01</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.03</v>
+        <v>5.31</v>
       </c>
       <c r="D234" t="n">
-        <v>3.09</v>
+        <v>1.22</v>
       </c>
       <c r="E234" t="n">
-        <v>1.599920187430808</v>
+        <v>1.763793414175742</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.2</v>
+        <v>4.1</v>
       </c>
       <c r="B235" t="n">
-        <v>152.85</v>
+        <v>180.88</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.86</v>
+        <v>-9.82</v>
       </c>
       <c r="D235" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="E235" t="n">
-        <v>2.423598774490873</v>
+        <v>1.720668880821812</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.96</v>
+        <v>4.26</v>
       </c>
       <c r="B236" t="n">
-        <v>216.63</v>
+        <v>203.57</v>
       </c>
       <c r="C236" t="n">
-        <v>3.31</v>
+        <v>-2.02</v>
       </c>
       <c r="D236" t="n">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="E236" t="n">
-        <v>1.768105867511135</v>
+        <v>1.87591720089596</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.96</v>
+        <v>3.9</v>
       </c>
       <c r="B237" t="n">
-        <v>1102.84</v>
+        <v>119.84</v>
       </c>
       <c r="C237" t="n">
-        <v>6.07</v>
+        <v>8.44</v>
       </c>
       <c r="D237" t="n">
-        <v>2.75</v>
+        <v>0.83</v>
       </c>
       <c r="E237" t="n">
-        <v>2.721158054632991</v>
+        <v>1.6042326407662</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.87</v>
+        <v>5.7</v>
       </c>
       <c r="B238" t="n">
-        <v>369.17</v>
+        <v>208.31</v>
       </c>
       <c r="C238" t="n">
-        <v>-4.77</v>
+        <v>8.02</v>
       </c>
       <c r="D238" t="n">
-        <v>-2.37</v>
+        <v>2.01</v>
       </c>
       <c r="E238" t="n">
-        <v>2.229538374398187</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.21</v>
+        <v>4.46</v>
       </c>
       <c r="B239" t="n">
-        <v>134.2</v>
+        <v>158.09</v>
       </c>
       <c r="C239" t="n">
-        <v>-20.06</v>
+        <v>-4.18</v>
       </c>
       <c r="D239" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="E239" t="n">
-        <v>1.828480214206637</v>
+        <v>1.953541360933035</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.77</v>
+        <v>3.96</v>
       </c>
       <c r="B240" t="n">
-        <v>237.08</v>
+        <v>159.87</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.85</v>
+        <v>8.07</v>
       </c>
       <c r="D240" t="n">
-        <v>1.02</v>
+        <v>4.48</v>
       </c>
       <c r="E240" t="n">
-        <v>2.000978347622357</v>
+        <v>1.694794160809454</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.3</v>
+        <v>5.75</v>
       </c>
       <c r="B241" t="n">
-        <v>181.7</v>
+        <v>257.54</v>
       </c>
       <c r="C241" t="n">
-        <v>-12.65</v>
+        <v>-1.16</v>
       </c>
       <c r="D241" t="n">
-        <v>1.34</v>
+        <v>2.75</v>
       </c>
       <c r="E241" t="n">
-        <v>2.384786694472336</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3.29</v>
+        <v>5.63</v>
       </c>
       <c r="B242" t="n">
-        <v>98.02</v>
+        <v>98.14</v>
       </c>
       <c r="C242" t="n">
-        <v>-7.83</v>
+        <v>4.72</v>
       </c>
       <c r="D242" t="n">
-        <v>1.88</v>
+        <v>0.96</v>
       </c>
       <c r="E242" t="n">
-        <v>1.578357920753843</v>
+        <v>2.496910481192554</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.79</v>
+        <v>6.18</v>
       </c>
       <c r="B243" t="n">
-        <v>175.48</v>
+        <v>268.69</v>
       </c>
       <c r="C243" t="n">
-        <v>8.890000000000001</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="E243" t="n">
-        <v>2.583159547900415</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3.17</v>
+        <v>7.56</v>
       </c>
       <c r="B244" t="n">
-        <v>126.62</v>
+        <v>126.27</v>
       </c>
       <c r="C244" t="n">
-        <v>10.18</v>
+        <v>-9.4</v>
       </c>
       <c r="D244" t="n">
-        <v>4.37</v>
+        <v>-0.48</v>
       </c>
       <c r="E244" t="n">
-        <v>1.612857547436987</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3.4</v>
+        <v>4.93</v>
       </c>
       <c r="B245" t="n">
-        <v>201.33</v>
+        <v>206.5</v>
       </c>
       <c r="C245" t="n">
-        <v>8.17</v>
+        <v>2.69</v>
       </c>
       <c r="D245" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="E245" t="n">
-        <v>1.444671867356659</v>
+        <v>2.212288561056615</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.93</v>
+        <v>5.3</v>
       </c>
       <c r="B246" t="n">
-        <v>420.57</v>
+        <v>358.98</v>
       </c>
       <c r="C246" t="n">
-        <v>15.86</v>
+        <v>-0.85</v>
       </c>
       <c r="D246" t="n">
-        <v>2.65</v>
+        <v>4.6</v>
       </c>
       <c r="E246" t="n">
-        <v>2.496910481192554</v>
+        <v>2.354599521124585</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.74</v>
+        <v>5.48</v>
       </c>
       <c r="B247" t="n">
-        <v>363.61</v>
+        <v>144.93</v>
       </c>
       <c r="C247" t="n">
-        <v>3.47</v>
+        <v>26.49</v>
       </c>
       <c r="D247" t="n">
-        <v>0.97</v>
+        <v>4.4</v>
       </c>
       <c r="E247" t="n">
-        <v>2.026853067634716</v>
+        <v>2.406348961149301</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.41</v>
+        <v>3.7</v>
       </c>
       <c r="B248" t="n">
-        <v>242.52</v>
+        <v>132.23</v>
       </c>
       <c r="C248" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="D248" t="n">
-        <v>5.93</v>
+        <v>2.83</v>
       </c>
       <c r="E248" t="n">
-        <v>1.470546587369017</v>
+        <v>1.513671120722947</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.84</v>
+        <v>6.61</v>
       </c>
       <c r="B249" t="n">
-        <v>122.51</v>
+        <v>93.75</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.6</v>
+        <v>2.05</v>
       </c>
       <c r="D249" t="n">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="E249" t="n">
-        <v>1.966478720939214</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.24</v>
+        <v>4.05</v>
       </c>
       <c r="B250" t="n">
-        <v>280.21</v>
+        <v>312.39</v>
       </c>
       <c r="C250" t="n">
-        <v>1.54</v>
+        <v>11.58</v>
       </c>
       <c r="D250" t="n">
-        <v>2.73</v>
+        <v>4.66</v>
       </c>
       <c r="E250" t="n">
-        <v>2.294225174429083</v>
+        <v>1.750856054169563</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.67</v>
+        <v>3.87</v>
       </c>
       <c r="B251" t="n">
-        <v>206.67</v>
+        <v>100.04</v>
       </c>
       <c r="C251" t="n">
-        <v>16.46</v>
+        <v>23.24</v>
       </c>
       <c r="D251" t="n">
-        <v>3.5</v>
+        <v>1.88</v>
       </c>
       <c r="E251" t="n">
-        <v>2.039790427640895</v>
+        <v>1.569733014083056</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.74</v>
+        <v>6.92</v>
       </c>
       <c r="B252" t="n">
-        <v>105.63</v>
+        <v>262.88</v>
       </c>
       <c r="C252" t="n">
-        <v>3.03</v>
+        <v>-2.3</v>
       </c>
       <c r="D252" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="E252" t="n">
-        <v>2.596096907906594</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.86</v>
+        <v>3.77</v>
       </c>
       <c r="B253" t="n">
-        <v>8468.610000000001</v>
+        <v>340.68</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.77</v>
+        <v>27.3</v>
       </c>
       <c r="D253" t="n">
-        <v>3.75</v>
+        <v>1.53</v>
       </c>
       <c r="E253" t="n">
-        <v>2.768595041322314</v>
+        <v>1.479171494039803</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.79</v>
+        <v>4.54</v>
       </c>
       <c r="B254" t="n">
-        <v>728.3200000000001</v>
+        <v>193.4</v>
       </c>
       <c r="C254" t="n">
-        <v>56.02</v>
+        <v>13.12</v>
       </c>
       <c r="D254" t="n">
-        <v>2.21</v>
+        <v>3.43</v>
       </c>
       <c r="E254" t="n">
-        <v>2.73409541463917</v>
+        <v>2.048415334311681</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.69</v>
+        <v>5.26</v>
       </c>
       <c r="B255" t="n">
-        <v>228.57</v>
+        <v>163.48</v>
       </c>
       <c r="C255" t="n">
-        <v>-3.97</v>
+        <v>-6.22</v>
       </c>
       <c r="D255" t="n">
-        <v>1.9</v>
+        <v>0.52</v>
       </c>
       <c r="E255" t="n">
-        <v>2.048415334311681</v>
+        <v>2.311474987770655</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.55</v>
+        <v>3.93</v>
       </c>
       <c r="B256" t="n">
-        <v>175.88</v>
+        <v>155.54</v>
       </c>
       <c r="C256" t="n">
-        <v>3.69</v>
+        <v>2.69</v>
       </c>
       <c r="D256" t="n">
-        <v>2.97</v>
+        <v>1.74</v>
       </c>
       <c r="E256" t="n">
-        <v>2.108789681007183</v>
+        <v>1.655982080790917</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.82</v>
+        <v>6.71</v>
       </c>
       <c r="B257" t="n">
-        <v>216.11</v>
+        <v>123.63</v>
       </c>
       <c r="C257" t="n">
-        <v>0.61</v>
+        <v>-1.43</v>
       </c>
       <c r="D257" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="E257" t="n">
-        <v>2.557284827888056</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3.08</v>
+        <v>6.84</v>
       </c>
       <c r="B258" t="n">
-        <v>192.58</v>
+        <v>158.66</v>
       </c>
       <c r="C258" t="n">
-        <v>11.58</v>
+        <v>-2.42</v>
       </c>
       <c r="D258" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="E258" t="n">
-        <v>1.677544347467882</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2</v>
+        <v>8.41</v>
       </c>
       <c r="B259" t="n">
-        <v>405.23</v>
+        <v>139.45</v>
       </c>
       <c r="C259" t="n">
-        <v>12.86</v>
+        <v>-2.15</v>
       </c>
       <c r="D259" t="n">
-        <v>0.79</v>
+        <v>0.26</v>
       </c>
       <c r="E259" t="n">
-        <v>2.514160294534126</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3.54</v>
+        <v>3.95</v>
       </c>
       <c r="B260" t="n">
-        <v>123.8</v>
+        <v>410.18</v>
       </c>
       <c r="C260" t="n">
-        <v>5.4</v>
+        <v>36.32</v>
       </c>
       <c r="D260" t="n">
-        <v>0.48</v>
+        <v>6.72</v>
       </c>
       <c r="E260" t="n">
-        <v>1.401547334002729</v>
+        <v>1.461921680698231</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.66</v>
+        <v>4.61</v>
       </c>
       <c r="B261" t="n">
-        <v>191.16</v>
+        <v>161.35</v>
       </c>
       <c r="C261" t="n">
-        <v>-2.45</v>
+        <v>-4.14</v>
       </c>
       <c r="D261" t="n">
-        <v>1.12</v>
+        <v>3.37</v>
       </c>
       <c r="E261" t="n">
-        <v>2.095852321001004</v>
+        <v>2.074290054324039</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.17</v>
+        <v>4.59</v>
       </c>
       <c r="B262" t="n">
-        <v>255.13</v>
+        <v>352.8</v>
       </c>
       <c r="C262" t="n">
-        <v>2.08</v>
+        <v>-2.36</v>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="E262" t="n">
-        <v>2.341662161118406</v>
+        <v>2.06135269431786</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3.03</v>
+        <v>5.92</v>
       </c>
       <c r="B263" t="n">
-        <v>144.26</v>
+        <v>278.81</v>
       </c>
       <c r="C263" t="n">
-        <v>22.36</v>
+        <v>-2.6</v>
       </c>
       <c r="D263" t="n">
-        <v>1.65</v>
+        <v>4.18</v>
       </c>
       <c r="E263" t="n">
-        <v>1.7896681341881</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.11</v>
+        <v>4.42</v>
       </c>
       <c r="B264" t="n">
-        <v>404.03</v>
+        <v>222.27</v>
       </c>
       <c r="C264" t="n">
-        <v>63.19</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.72</v>
+        <v>4.2</v>
       </c>
       <c r="E264" t="n">
-        <v>2.747032774645349</v>
+        <v>1.992353440951572</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.29</v>
+        <v>3.78</v>
       </c>
       <c r="B265" t="n">
-        <v>179.36</v>
+        <v>182.57</v>
       </c>
       <c r="C265" t="n">
-        <v>10.69</v>
+        <v>0.73</v>
       </c>
       <c r="D265" t="n">
-        <v>4.75</v>
+        <v>1.97</v>
       </c>
       <c r="E265" t="n">
-        <v>1.500733760716768</v>
+        <v>1.56110810741227</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.99</v>
+        <v>5.21</v>
       </c>
       <c r="B266" t="n">
-        <v>160.99</v>
+        <v>54.68</v>
       </c>
       <c r="C266" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="D266" t="n">
-        <v>2.36</v>
+        <v>0.54</v>
       </c>
       <c r="E266" t="n">
-        <v>2.427911227826266</v>
+        <v>2.298537627764476</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3.35</v>
+        <v>3.61</v>
       </c>
       <c r="B267" t="n">
-        <v>195.18</v>
+        <v>165.61</v>
       </c>
       <c r="C267" t="n">
-        <v>0.05</v>
+        <v>-2.76</v>
       </c>
       <c r="D267" t="n">
-        <v>2.2</v>
+        <v>4.67</v>
       </c>
       <c r="E267" t="n">
-        <v>1.479171494039803</v>
+        <v>1.444671867356659</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.52</v>
+        <v>3.64</v>
       </c>
       <c r="B268" t="n">
-        <v>171.39</v>
+        <v>165.52</v>
       </c>
       <c r="C268" t="n">
-        <v>2.9</v>
+        <v>7.33</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.21</v>
+        <v>2.66</v>
       </c>
       <c r="E268" t="n">
-        <v>2.264038001081332</v>
+        <v>1.492108854045982</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.59</v>
+        <v>6.1</v>
       </c>
       <c r="B269" t="n">
-        <v>149.71</v>
+        <v>227.93</v>
       </c>
       <c r="C269" t="n">
-        <v>6.17</v>
+        <v>17.26</v>
       </c>
       <c r="D269" t="n">
-        <v>3.57</v>
+        <v>4.2</v>
       </c>
       <c r="E269" t="n">
-        <v>2.069977600988646</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3.18</v>
+        <v>3.69</v>
       </c>
       <c r="B270" t="n">
-        <v>237.9</v>
+        <v>215.08</v>
       </c>
       <c r="C270" t="n">
-        <v>2.74</v>
+        <v>24.46</v>
       </c>
       <c r="D270" t="n">
-        <v>2.05</v>
+        <v>3.23</v>
       </c>
       <c r="E270" t="n">
-        <v>1.6042326407662</v>
+        <v>1.470546587369017</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3.07</v>
+        <v>6.99</v>
       </c>
       <c r="B271" t="n">
-        <v>119.82</v>
+        <v>282.94</v>
       </c>
       <c r="C271" t="n">
-        <v>5.61</v>
+        <v>3.14</v>
       </c>
       <c r="D271" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="E271" t="n">
-        <v>1.686169254138668</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3.23</v>
+        <v>3.95</v>
       </c>
       <c r="B272" t="n">
-        <v>220.88</v>
+        <v>133.44</v>
       </c>
       <c r="C272" t="n">
-        <v>-7.71</v>
+        <v>13.16</v>
       </c>
       <c r="D272" t="n">
-        <v>1.89</v>
+        <v>1.16</v>
       </c>
       <c r="E272" t="n">
-        <v>1.625794907443166</v>
+        <v>1.651669627455524</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.13</v>
+        <v>3.53</v>
       </c>
       <c r="B273" t="n">
-        <v>257.41</v>
+        <v>126.18</v>
       </c>
       <c r="C273" t="n">
-        <v>8.57</v>
+        <v>6.81</v>
       </c>
       <c r="D273" t="n">
-        <v>1.28</v>
+        <v>2.9</v>
       </c>
       <c r="E273" t="n">
-        <v>2.389099147807729</v>
+        <v>1.410172240673515</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.75</v>
+        <v>3.83</v>
       </c>
       <c r="B274" t="n">
-        <v>197.39</v>
+        <v>228.31</v>
       </c>
       <c r="C274" t="n">
-        <v>2.97</v>
+        <v>9.73</v>
       </c>
       <c r="D274" t="n">
-        <v>2.7</v>
+        <v>3.49</v>
       </c>
       <c r="E274" t="n">
-        <v>1.919041734249891</v>
+        <v>1.608545094101594</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3.21</v>
+        <v>4.61</v>
       </c>
       <c r="B275" t="n">
-        <v>199.7</v>
+        <v>149.7</v>
       </c>
       <c r="C275" t="n">
-        <v>-2.55</v>
+        <v>6.77</v>
       </c>
       <c r="D275" t="n">
-        <v>0.44</v>
+        <v>3.41</v>
       </c>
       <c r="E275" t="n">
-        <v>1.651669627455524</v>
+        <v>2.091539867665611</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.42</v>
+        <v>5.36</v>
       </c>
       <c r="B276" t="n">
-        <v>165.49</v>
+        <v>289.45</v>
       </c>
       <c r="C276" t="n">
-        <v>10.58</v>
+        <v>5.33</v>
       </c>
       <c r="D276" t="n">
-        <v>2.47</v>
+        <v>3.35</v>
       </c>
       <c r="E276" t="n">
-        <v>2.199351201050436</v>
+        <v>2.389099147807729</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.87</v>
+        <v>4.46</v>
       </c>
       <c r="B277" t="n">
-        <v>104.46</v>
+        <v>218.2</v>
       </c>
       <c r="C277" t="n">
-        <v>-7.08</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D277" t="n">
-        <v>0.98</v>
+        <v>1.94</v>
       </c>
       <c r="E277" t="n">
-        <v>2.634908987925131</v>
+        <v>1.996665894286965</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.2</v>
+        <v>5.57</v>
       </c>
       <c r="B278" t="n">
-        <v>156.3</v>
+        <v>165.76</v>
       </c>
       <c r="C278" t="n">
-        <v>40.48</v>
+        <v>22.86</v>
       </c>
       <c r="D278" t="n">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="E278" t="n">
-        <v>2.639221441260524</v>
+        <v>2.466723307844803</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.64</v>
+        <v>3.67</v>
       </c>
       <c r="B279" t="n">
-        <v>99.08</v>
+        <v>133.84</v>
       </c>
       <c r="C279" t="n">
-        <v>-1.79</v>
+        <v>21.56</v>
       </c>
       <c r="D279" t="n">
-        <v>0.44</v>
+        <v>1.22</v>
       </c>
       <c r="E279" t="n">
-        <v>2.164851574367292</v>
+        <v>1.436046960685873</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.79</v>
+        <v>6.46</v>
       </c>
       <c r="B280" t="n">
-        <v>255.92</v>
+        <v>712.03</v>
       </c>
       <c r="C280" t="n">
-        <v>27.1</v>
+        <v>5.85</v>
       </c>
       <c r="D280" t="n">
-        <v>1.54</v>
+        <v>3.94</v>
       </c>
       <c r="E280" t="n">
-        <v>2.065665147653253</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.46</v>
+        <v>4.39</v>
       </c>
       <c r="B281" t="n">
-        <v>51.19</v>
+        <v>196.19</v>
       </c>
       <c r="C281" t="n">
-        <v>21.78</v>
+        <v>6.94</v>
       </c>
       <c r="D281" t="n">
-        <v>1.66</v>
+        <v>2.97</v>
       </c>
       <c r="E281" t="n">
-        <v>2.272662907752117</v>
+        <v>1.970791174274607</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.48</v>
+        <v>5.13</v>
       </c>
       <c r="B282" t="n">
-        <v>151.64</v>
+        <v>436.71</v>
       </c>
       <c r="C282" t="n">
-        <v>32.78</v>
+        <v>0.83</v>
       </c>
       <c r="D282" t="n">
-        <v>3.05</v>
+        <v>4.16</v>
       </c>
       <c r="E282" t="n">
-        <v>2.315787441106048</v>
+        <v>2.27697536108751</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.8</v>
+        <v>3.78</v>
       </c>
       <c r="B283" t="n">
-        <v>508.35</v>
+        <v>116.32</v>
       </c>
       <c r="C283" t="n">
-        <v>2.03</v>
+        <v>10.03</v>
       </c>
       <c r="D283" t="n">
-        <v>2.71</v>
+        <v>1.33</v>
       </c>
       <c r="E283" t="n">
-        <v>1.93197909425607</v>
+        <v>1.539545840735306</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.71</v>
+        <v>4.21</v>
       </c>
       <c r="B284" t="n">
-        <v>263.88</v>
+        <v>136.6</v>
       </c>
       <c r="C284" t="n">
-        <v>3.61</v>
+        <v>0.53</v>
       </c>
       <c r="D284" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="E284" t="n">
-        <v>1.992353440951572</v>
+        <v>1.824167760871244</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.32</v>
+        <v>3.94</v>
       </c>
       <c r="B285" t="n">
-        <v>142.83</v>
+        <v>180.16</v>
       </c>
       <c r="C285" t="n">
-        <v>0.43</v>
+        <v>12.99</v>
       </c>
       <c r="D285" t="n">
-        <v>0.22</v>
+        <v>1.98</v>
       </c>
       <c r="E285" t="n">
-        <v>2.350287067789192</v>
+        <v>1.664606987461703</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3.11</v>
+        <v>3.8</v>
       </c>
       <c r="B286" t="n">
-        <v>99</v>
+        <v>158.59</v>
       </c>
       <c r="C286" t="n">
-        <v>16.32</v>
+        <v>2.81</v>
       </c>
       <c r="D286" t="n">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="E286" t="n">
-        <v>1.681856800803275</v>
+        <v>1.578357920753843</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.94</v>
+        <v>3.94</v>
       </c>
       <c r="B287" t="n">
-        <v>321.34</v>
+        <v>226.01</v>
       </c>
       <c r="C287" t="n">
-        <v>2.72</v>
+        <v>-2.63</v>
       </c>
       <c r="D287" t="n">
-        <v>3.24</v>
+        <v>1.12</v>
       </c>
       <c r="E287" t="n">
-        <v>1.759480960840349</v>
+        <v>1.638732267449345</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.78</v>
+        <v>3.59</v>
       </c>
       <c r="B288" t="n">
-        <v>181.16</v>
+        <v>208.33</v>
       </c>
       <c r="C288" t="n">
-        <v>7.57</v>
+        <v>-1.98</v>
       </c>
       <c r="D288" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="E288" t="n">
-        <v>1.923354187585284</v>
+        <v>1.43173450735048</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3.19</v>
+        <v>4.44</v>
       </c>
       <c r="B289" t="n">
-        <v>189.13</v>
+        <v>391.39</v>
       </c>
       <c r="C289" t="n">
-        <v>1.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D289" t="n">
-        <v>2.97</v>
+        <v>2.12</v>
       </c>
       <c r="E289" t="n">
-        <v>1.582670374089236</v>
+        <v>1.983728534280786</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3.44</v>
+        <v>5.09</v>
       </c>
       <c r="B290" t="n">
-        <v>470.51</v>
+        <v>217.45</v>
       </c>
       <c r="C290" t="n">
-        <v>28.86</v>
+        <v>6.42</v>
       </c>
       <c r="D290" t="n">
-        <v>3.51</v>
+        <v>4.39</v>
       </c>
       <c r="E290" t="n">
-        <v>1.513671120722947</v>
+        <v>2.268350454416725</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3.53</v>
+        <v>4.49</v>
       </c>
       <c r="B291" t="n">
-        <v>102.95</v>
+        <v>422.37</v>
       </c>
       <c r="C291" t="n">
-        <v>11.45</v>
+        <v>9.74</v>
       </c>
       <c r="D291" t="n">
-        <v>0.17</v>
+        <v>3.59</v>
       </c>
       <c r="E291" t="n">
-        <v>1.43173450735048</v>
+        <v>2.01822816096393</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3.29</v>
+        <v>10.46</v>
       </c>
       <c r="B292" t="n">
-        <v>318.41</v>
+        <v>155.39</v>
       </c>
       <c r="C292" t="n">
-        <v>-6.03</v>
+        <v>9.08</v>
       </c>
       <c r="D292" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="E292" t="n">
-        <v>1.530920934064519</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1.81</v>
+        <v>5.25</v>
       </c>
       <c r="B293" t="n">
-        <v>53.54</v>
+        <v>185.67</v>
       </c>
       <c r="C293" t="n">
-        <v>-2.88</v>
+        <v>9.92</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.8100000000000001</v>
+        <v>1.19</v>
       </c>
       <c r="E293" t="n">
-        <v>2.699595787956026</v>
+        <v>2.324412347776834</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.13</v>
+        <v>3.7</v>
       </c>
       <c r="B294" t="n">
-        <v>210.96</v>
+        <v>138.57</v>
       </c>
       <c r="C294" t="n">
-        <v>10.93</v>
+        <v>3.05</v>
       </c>
       <c r="D294" t="n">
-        <v>3.67</v>
+        <v>0.38</v>
       </c>
       <c r="E294" t="n">
-        <v>2.354599521124585</v>
+        <v>1.466234134033624</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.93</v>
+        <v>4.57</v>
       </c>
       <c r="B295" t="n">
-        <v>147.44</v>
+        <v>141.98</v>
       </c>
       <c r="C295" t="n">
-        <v>4.07</v>
+        <v>5.02</v>
       </c>
       <c r="D295" t="n">
-        <v>1.96</v>
+        <v>3.35</v>
       </c>
       <c r="E295" t="n">
-        <v>1.793980587523493</v>
+        <v>2.065665147653253</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.06</v>
+        <v>7.71</v>
       </c>
       <c r="B296" t="n">
-        <v>128.9</v>
+        <v>239.54</v>
       </c>
       <c r="C296" t="n">
-        <v>8.4</v>
+        <v>16.57</v>
       </c>
       <c r="D296" t="n">
-        <v>2.47</v>
+        <v>3.41</v>
       </c>
       <c r="E296" t="n">
-        <v>2.414973867820087</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.44</v>
+        <v>6.33</v>
       </c>
       <c r="B297" t="n">
-        <v>238.97</v>
+        <v>183.91</v>
       </c>
       <c r="C297" t="n">
-        <v>2.69</v>
+        <v>1.56</v>
       </c>
       <c r="D297" t="n">
-        <v>2.36</v>
+        <v>3.16</v>
       </c>
       <c r="E297" t="n">
-        <v>2.186413841044257</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.07</v>
+        <v>4.66</v>
       </c>
       <c r="B298" t="n">
-        <v>376.66</v>
+        <v>173.55</v>
       </c>
       <c r="C298" t="n">
-        <v>-3.94</v>
+        <v>6.98</v>
       </c>
       <c r="D298" t="n">
-        <v>1.36</v>
+        <v>0.85</v>
       </c>
       <c r="E298" t="n">
-        <v>2.445161041167838</v>
+        <v>2.087227414330218</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3.1</v>
+        <v>5.68</v>
       </c>
       <c r="B299" t="n">
-        <v>320.08</v>
+        <v>179.15</v>
       </c>
       <c r="C299" t="n">
-        <v>28.13</v>
+        <v>3.11</v>
       </c>
       <c r="D299" t="n">
-        <v>6.78</v>
+        <v>1.88</v>
       </c>
       <c r="E299" t="n">
-        <v>1.854354934218995</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3.51</v>
+        <v>5.01</v>
       </c>
       <c r="B300" t="n">
-        <v>127.3</v>
+        <v>527.4</v>
       </c>
       <c r="C300" t="n">
-        <v>7.22</v>
+        <v>-0.13</v>
       </c>
       <c r="D300" t="n">
-        <v>0.66</v>
+        <v>5.6</v>
       </c>
       <c r="E300" t="n">
-        <v>1.418797147344301</v>
+        <v>2.225225921062794</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3.03</v>
+        <v>6.93</v>
       </c>
       <c r="B301" t="n">
-        <v>181.33</v>
+        <v>145.99</v>
       </c>
       <c r="C301" t="n">
-        <v>8.44</v>
+        <v>13.67</v>
       </c>
       <c r="D301" t="n">
-        <v>2.24</v>
+        <v>-0.53</v>
       </c>
       <c r="E301" t="n">
-        <v>1.712043974151026</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3.2</v>
+        <v>4.26</v>
       </c>
       <c r="B302" t="n">
-        <v>193</v>
+        <v>140.12</v>
       </c>
       <c r="C302" t="n">
-        <v>6.63</v>
+        <v>0.2</v>
       </c>
       <c r="D302" t="n">
-        <v>3.82</v>
+        <v>2.39</v>
       </c>
       <c r="E302" t="n">
-        <v>1.552483200741484</v>
+        <v>1.871604747560567</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3.12</v>
+        <v>5.9</v>
       </c>
       <c r="B303" t="n">
-        <v>226.98</v>
+        <v>141.69</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.32</v>
+        <v>40.43</v>
       </c>
       <c r="D303" t="n">
-        <v>2.83</v>
+        <v>3.21</v>
       </c>
       <c r="E303" t="n">
-        <v>1.643044720784738</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3</v>
+        <v>3.76</v>
       </c>
       <c r="B304" t="n">
-        <v>148.22</v>
+        <v>122.78</v>
       </c>
       <c r="C304" t="n">
-        <v>16.49</v>
+        <v>10.72</v>
       </c>
       <c r="D304" t="n">
-        <v>1.3</v>
+        <v>3.12</v>
       </c>
       <c r="E304" t="n">
-        <v>1.781043227517314</v>
+        <v>1.552483200741484</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.33</v>
+        <v>6.31</v>
       </c>
       <c r="B305" t="n">
-        <v>147.87</v>
+        <v>113.79</v>
       </c>
       <c r="C305" t="n">
-        <v>17.74</v>
+        <v>14.08</v>
       </c>
       <c r="D305" t="n">
-        <v>9.25</v>
+        <v>0.6</v>
       </c>
       <c r="E305" t="n">
-        <v>2.578847094565021</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.98</v>
+        <v>3.64</v>
       </c>
       <c r="B306" t="n">
-        <v>341.79</v>
+        <v>164.95</v>
       </c>
       <c r="C306" t="n">
-        <v>-7.36</v>
+        <v>24.7</v>
       </c>
       <c r="D306" t="n">
-        <v>1.99</v>
+        <v>3.18</v>
       </c>
       <c r="E306" t="n">
-        <v>2.509847841198733</v>
+        <v>1.427422054015087</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3.28</v>
+        <v>4.57</v>
       </c>
       <c r="B307" t="n">
-        <v>154.93</v>
+        <v>173.32</v>
       </c>
       <c r="C307" t="n">
-        <v>5.67</v>
+        <v>-27.95</v>
       </c>
       <c r="D307" t="n">
-        <v>2.01</v>
+        <v>0.91</v>
       </c>
       <c r="E307" t="n">
-        <v>1.522296027393733</v>
+        <v>1.854354934218995</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.51</v>
+        <v>6.71</v>
       </c>
       <c r="B308" t="n">
-        <v>113.51</v>
+        <v>111.04</v>
       </c>
       <c r="C308" t="n">
-        <v>9.289999999999999</v>
+        <v>-3.68</v>
       </c>
       <c r="D308" t="n">
-        <v>1.69</v>
+        <v>0.93</v>
       </c>
       <c r="E308" t="n">
-        <v>2.169164027702685</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>3.19</v>
+        <v>4.18</v>
       </c>
       <c r="B309" t="n">
-        <v>1155.6</v>
+        <v>332.24</v>
       </c>
       <c r="C309" t="n">
-        <v>19.42</v>
+        <v>-5.71</v>
       </c>
       <c r="D309" t="n">
-        <v>4.05</v>
+        <v>1.58</v>
       </c>
       <c r="E309" t="n">
-        <v>2.182101387708864</v>
+        <v>1.781043227517314</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.76</v>
+        <v>4.79</v>
       </c>
       <c r="B310" t="n">
-        <v>692.37</v>
+        <v>703.72</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.16</v>
+        <v>13.01</v>
       </c>
       <c r="D310" t="n">
-        <v>1.27</v>
+        <v>2.17</v>
       </c>
       <c r="E310" t="n">
-        <v>2.138976854354934</v>
+        <v>2.113102134342576</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.66</v>
+        <v>5.42</v>
       </c>
       <c r="B311" t="n">
-        <v>114.96</v>
+        <v>121.51</v>
       </c>
       <c r="C311" t="n">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="D311" t="n">
-        <v>-1.15</v>
+        <v>1.17</v>
       </c>
       <c r="E311" t="n">
-        <v>2.23385082773358</v>
+        <v>2.402036507813908</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>3.4</v>
+        <v>5.93</v>
       </c>
       <c r="B312" t="n">
-        <v>89.93000000000001</v>
+        <v>137.1</v>
       </c>
       <c r="C312" t="n">
-        <v>8.779999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="D312" t="n">
-        <v>2.07</v>
+        <v>3.84</v>
       </c>
       <c r="E312" t="n">
-        <v>1.448984320692052</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2.92</v>
+        <v>5.77</v>
       </c>
       <c r="B313" t="n">
-        <v>185.07</v>
+        <v>224.76</v>
       </c>
       <c r="C313" t="n">
-        <v>12.89</v>
+        <v>0.92</v>
       </c>
       <c r="D313" t="n">
-        <v>4.66</v>
+        <v>2.93</v>
       </c>
       <c r="E313" t="n">
-        <v>1.798293040858886</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3.08</v>
+        <v>4.53</v>
       </c>
       <c r="B314" t="n">
-        <v>171.42</v>
+        <v>147.78</v>
       </c>
       <c r="C314" t="n">
-        <v>3.34</v>
+        <v>6.16</v>
       </c>
       <c r="D314" t="n">
-        <v>3.97</v>
+        <v>4.88</v>
       </c>
       <c r="E314" t="n">
-        <v>1.66029453412631</v>
+        <v>2.035477974305502</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2.74</v>
+        <v>4.36</v>
       </c>
       <c r="B315" t="n">
-        <v>209.41</v>
+        <v>183.19</v>
       </c>
       <c r="C315" t="n">
-        <v>-18.18</v>
+        <v>0.92</v>
       </c>
       <c r="D315" t="n">
-        <v>0.79</v>
+        <v>2.1</v>
       </c>
       <c r="E315" t="n">
-        <v>2.195038747715043</v>
+        <v>1.923354187585284</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3.3</v>
+        <v>7.24</v>
       </c>
       <c r="B316" t="n">
-        <v>293.06</v>
+        <v>137.95</v>
       </c>
       <c r="C316" t="n">
-        <v>2.41</v>
+        <v>-0.85</v>
       </c>
       <c r="D316" t="n">
-        <v>1.93</v>
+        <v>2.33</v>
       </c>
       <c r="E316" t="n">
-        <v>1.496421307381375</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2.99</v>
+        <v>3.72</v>
       </c>
       <c r="B317" t="n">
-        <v>190.12</v>
+        <v>114.42</v>
       </c>
       <c r="C317" t="n">
-        <v>51.86</v>
+        <v>7.3</v>
       </c>
       <c r="D317" t="n">
-        <v>1.32</v>
+        <v>3.63</v>
       </c>
       <c r="E317" t="n">
-        <v>2.345974614453799</v>
+        <v>1.526608480729126</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.25</v>
+        <v>5.31</v>
       </c>
       <c r="B318" t="n">
-        <v>250.55</v>
+        <v>235.34</v>
       </c>
       <c r="C318" t="n">
-        <v>-10.67</v>
+        <v>10.38</v>
       </c>
       <c r="D318" t="n">
-        <v>-5.34</v>
+        <v>3.4</v>
       </c>
       <c r="E318" t="n">
-        <v>2.729782961303777</v>
+        <v>2.367536881130764</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2.45</v>
+        <v>6.42</v>
       </c>
       <c r="B319" t="n">
-        <v>759.36</v>
+        <v>132.62</v>
       </c>
       <c r="C319" t="n">
-        <v>-9.300000000000001</v>
+        <v>-4.66</v>
       </c>
       <c r="D319" t="n">
-        <v>0.47</v>
+        <v>0.93</v>
       </c>
       <c r="E319" t="n">
-        <v>2.449473494503231</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>1.81</v>
+        <v>4</v>
       </c>
       <c r="B320" t="n">
-        <v>378.07</v>
+        <v>149.28</v>
       </c>
       <c r="C320" t="n">
-        <v>-4.06</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D320" t="n">
-        <v>2.14</v>
+        <v>2.73</v>
       </c>
       <c r="E320" t="n">
-        <v>2.570222187894236</v>
+        <v>1.729293787492598</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2.41</v>
+        <v>4.59</v>
       </c>
       <c r="B321" t="n">
-        <v>100.54</v>
+        <v>164.11</v>
       </c>
       <c r="C321" t="n">
-        <v>29.25</v>
+        <v>6.62</v>
       </c>
       <c r="D321" t="n">
-        <v>2.91</v>
+        <v>0.26</v>
       </c>
       <c r="E321" t="n">
-        <v>2.328724801112227</v>
+        <v>2.026853067634716</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>3.23</v>
+        <v>5.37</v>
       </c>
       <c r="B322" t="n">
-        <v>119.19</v>
+        <v>121.43</v>
       </c>
       <c r="C322" t="n">
-        <v>0.89</v>
+        <v>21.59</v>
       </c>
       <c r="D322" t="n">
-        <v>2.33</v>
+        <v>1.36</v>
       </c>
       <c r="E322" t="n">
-        <v>1.565420560747663</v>
+        <v>2.363224427795371</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>3.12</v>
+        <v>5.01</v>
       </c>
       <c r="B323" t="n">
-        <v>145.78</v>
+        <v>183.72</v>
       </c>
       <c r="C323" t="n">
-        <v>1.83</v>
+        <v>23.62</v>
       </c>
       <c r="D323" t="n">
-        <v>5.33</v>
+        <v>4.88</v>
       </c>
       <c r="E323" t="n">
-        <v>1.673231894132489</v>
+        <v>2.229538374398187</v>
       </c>
     </row>
   </sheetData>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -450,5476 +450,5476 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="B2" t="n">
-        <v>227.24</v>
+        <v>203.16</v>
       </c>
       <c r="C2" t="n">
-        <v>1.63</v>
+        <v>-13.96</v>
       </c>
       <c r="D2" t="n">
-        <v>2.31</v>
+        <v>1.21</v>
       </c>
       <c r="E2" t="n">
-        <v>1.724981334157205</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.45</v>
+        <v>1.87</v>
       </c>
       <c r="B3" t="n">
-        <v>376.32</v>
+        <v>165.67</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.5</v>
+        <v>8.56</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4</v>
+        <v>2.36</v>
       </c>
       <c r="E3" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9003115264797508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.62</v>
+        <v>3.18</v>
       </c>
       <c r="B4" t="n">
-        <v>108.79</v>
+        <v>211.73</v>
       </c>
       <c r="C4" t="n">
-        <v>23.58</v>
+        <v>10.54</v>
       </c>
       <c r="D4" t="n">
-        <v>1.56</v>
+        <v>4.21</v>
       </c>
       <c r="E4" t="n">
-        <v>2.466723307844803</v>
+        <v>0.5778816199376947</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.82</v>
+        <v>2.32</v>
       </c>
       <c r="B5" t="n">
-        <v>103.18</v>
+        <v>147.55</v>
       </c>
       <c r="C5" t="n">
-        <v>13.05</v>
+        <v>-6.28</v>
       </c>
       <c r="D5" t="n">
-        <v>3.77</v>
+        <v>0.93</v>
       </c>
       <c r="E5" t="n">
-        <v>1.586982827424628</v>
+        <v>0.8457943925233645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.4</v>
+        <v>2.08</v>
       </c>
       <c r="B6" t="n">
-        <v>415.31</v>
+        <v>306.64</v>
       </c>
       <c r="C6" t="n">
-        <v>11.09</v>
+        <v>23.06</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5.86</v>
       </c>
       <c r="E6" t="n">
-        <v>2.393411601143122</v>
+        <v>0.9127725856697819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.08</v>
+        <v>2.28</v>
       </c>
       <c r="B7" t="n">
-        <v>124.7</v>
+        <v>104.13</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3</v>
+        <v>17.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.21</v>
       </c>
       <c r="E7" t="n">
-        <v>2.768595041322314</v>
+        <v>0.867601246105919</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.51</v>
+        <v>3.49</v>
       </c>
       <c r="B8" t="n">
-        <v>244.9</v>
+        <v>272.98</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.3</v>
+        <v>-4.88</v>
       </c>
       <c r="D8" t="n">
-        <v>6.62</v>
+        <v>2.07</v>
       </c>
       <c r="E8" t="n">
-        <v>2.414973867820087</v>
+        <v>0.5077881619937694</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.38</v>
+        <v>1.79</v>
       </c>
       <c r="B9" t="n">
-        <v>500.77</v>
+        <v>180.89</v>
       </c>
       <c r="C9" t="n">
-        <v>5.08</v>
+        <v>7.36</v>
       </c>
       <c r="D9" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="E9" t="n">
-        <v>1.940604000926855</v>
+        <v>0.9361370716510904</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.53</v>
+        <v>2.22</v>
       </c>
       <c r="B10" t="n">
-        <v>55.69</v>
+        <v>104.65</v>
       </c>
       <c r="C10" t="n">
-        <v>3.41</v>
+        <v>5.15</v>
       </c>
       <c r="D10" t="n">
-        <v>2.27</v>
+        <v>1.79</v>
       </c>
       <c r="E10" t="n">
-        <v>1.397234880667336</v>
+        <v>0.8411214953271028</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.25</v>
+        <v>1.98</v>
       </c>
       <c r="B11" t="n">
-        <v>554.75</v>
+        <v>113.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.5</v>
+        <v>0.41</v>
       </c>
       <c r="D11" t="n">
-        <v>1.67</v>
+        <v>0.62</v>
       </c>
       <c r="E11" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9096573208722741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.3</v>
+        <v>2.96</v>
       </c>
       <c r="B12" t="n">
-        <v>162.74</v>
+        <v>191.62</v>
       </c>
       <c r="C12" t="n">
-        <v>4.58</v>
+        <v>-2.47</v>
       </c>
       <c r="D12" t="n">
-        <v>1.49</v>
+        <v>2.76</v>
       </c>
       <c r="E12" t="n">
-        <v>1.897479467572925</v>
+        <v>0.6401869158878505</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.45</v>
+        <v>2.44</v>
       </c>
       <c r="B13" t="n">
-        <v>175.93</v>
+        <v>187.84</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.44</v>
+        <v>1.38</v>
       </c>
       <c r="D13" t="n">
-        <v>2.66</v>
+        <v>4.99</v>
       </c>
       <c r="E13" t="n">
-        <v>1.988040987616179</v>
+        <v>0.7990654205607477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.94</v>
+        <v>2.92</v>
       </c>
       <c r="B14" t="n">
-        <v>222.15</v>
+        <v>114.07</v>
       </c>
       <c r="C14" t="n">
-        <v>6.25</v>
+        <v>-1.65</v>
       </c>
       <c r="D14" t="n">
-        <v>1.98</v>
+        <v>1.39</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220913467727402</v>
+        <v>0.661993769470405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.26</v>
+        <v>3.42</v>
       </c>
       <c r="B15" t="n">
-        <v>166.66</v>
+        <v>406.47</v>
       </c>
       <c r="C15" t="n">
-        <v>7.99</v>
+        <v>0.85</v>
       </c>
       <c r="D15" t="n">
-        <v>1.7</v>
+        <v>3.14</v>
       </c>
       <c r="E15" t="n">
-        <v>2.337349707783013</v>
+        <v>0.5186915887850467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.07</v>
+        <v>2.86</v>
       </c>
       <c r="B16" t="n">
-        <v>121.17</v>
+        <v>147.51</v>
       </c>
       <c r="C16" t="n">
-        <v>2.49</v>
+        <v>-7.21</v>
       </c>
       <c r="D16" t="n">
-        <v>4.76</v>
+        <v>3.07</v>
       </c>
       <c r="E16" t="n">
-        <v>2.251100641075153</v>
+        <v>0.6775700934579439</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6.08</v>
+        <v>1.85</v>
       </c>
       <c r="B17" t="n">
-        <v>127.12</v>
+        <v>190.95</v>
       </c>
       <c r="C17" t="n">
-        <v>2.67</v>
+        <v>12.09</v>
       </c>
       <c r="D17" t="n">
-        <v>2.13</v>
+        <v>6.29</v>
       </c>
       <c r="E17" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9501557632398754</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.59</v>
+        <v>2.87</v>
       </c>
       <c r="B18" t="n">
-        <v>132.02</v>
+        <v>288.54</v>
       </c>
       <c r="C18" t="n">
-        <v>7.79</v>
+        <v>7.91</v>
       </c>
       <c r="D18" t="n">
-        <v>3.62</v>
+        <v>0.74</v>
       </c>
       <c r="E18" t="n">
-        <v>1.457609227362838</v>
+        <v>0.67601246105919</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.96</v>
+        <v>2.01</v>
       </c>
       <c r="B19" t="n">
-        <v>493.19</v>
+        <v>1071.62</v>
       </c>
       <c r="C19" t="n">
-        <v>1.56</v>
+        <v>5.71</v>
       </c>
       <c r="D19" t="n">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1.66029453412631</v>
+        <v>0.9781931464174455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.52</v>
+        <v>2.29</v>
       </c>
       <c r="B20" t="n">
-        <v>95.48999999999999</v>
+        <v>188.06</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.02</v>
+        <v>-0.49</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.32</v>
+        <v>6.74</v>
       </c>
       <c r="E20" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8722741433021807</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.14</v>
+        <v>2.64</v>
       </c>
       <c r="B21" t="n">
-        <v>133.79</v>
+        <v>208.33</v>
       </c>
       <c r="C21" t="n">
-        <v>12.42</v>
+        <v>-10.38</v>
       </c>
       <c r="D21" t="n">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="E21" t="n">
-        <v>1.776730774181921</v>
+        <v>0.7834890965732088</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.42</v>
+        <v>3.3</v>
       </c>
       <c r="B22" t="n">
-        <v>141.24</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>26.65</v>
+        <v>11.61</v>
       </c>
       <c r="D22" t="n">
-        <v>1.07</v>
+        <v>2.27</v>
       </c>
       <c r="E22" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5420560747663551</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4.61</v>
+        <v>2.85</v>
       </c>
       <c r="B23" t="n">
-        <v>316.42</v>
+        <v>925.5599999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>2.59</v>
+        <v>-5.41</v>
       </c>
       <c r="D23" t="n">
-        <v>0.78</v>
+        <v>1.29</v>
       </c>
       <c r="E23" t="n">
-        <v>2.052727787647074</v>
+        <v>0.8177570093457944</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.38</v>
+        <v>3.44</v>
       </c>
       <c r="B24" t="n">
-        <v>176.72</v>
+        <v>499.79</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.67</v>
+        <v>-2.85</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4</v>
+        <v>-0.24</v>
       </c>
       <c r="E24" t="n">
-        <v>1.901791920908319</v>
+        <v>0.5560747663551402</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.8</v>
+        <v>3.15</v>
       </c>
       <c r="B25" t="n">
-        <v>200.44</v>
+        <v>146.17</v>
       </c>
       <c r="C25" t="n">
-        <v>-12.34</v>
+        <v>15.19</v>
       </c>
       <c r="D25" t="n">
-        <v>4.41</v>
+        <v>0.85</v>
       </c>
       <c r="E25" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6090342679127726</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.3</v>
+        <v>1.89</v>
       </c>
       <c r="B26" t="n">
-        <v>146.78</v>
+        <v>212.55</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01</v>
+        <v>10.67</v>
       </c>
       <c r="D26" t="n">
-        <v>1.52</v>
+        <v>3.01</v>
       </c>
       <c r="E26" t="n">
-        <v>1.893167014237533</v>
+        <v>0.8909657320872274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4.05</v>
+        <v>2.19</v>
       </c>
       <c r="B27" t="n">
-        <v>156.96</v>
+        <v>481.75</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.44</v>
+        <v>-0.17</v>
       </c>
       <c r="D27" t="n">
-        <v>3.17</v>
+        <v>-0.95</v>
       </c>
       <c r="E27" t="n">
-        <v>1.707731520815633</v>
+        <v>0.9174454828660437</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.79</v>
+        <v>1.97</v>
       </c>
       <c r="B28" t="n">
-        <v>199.4</v>
+        <v>88.73</v>
       </c>
       <c r="C28" t="n">
-        <v>-7</v>
+        <v>-4.53</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.79</v>
+        <v>-0.35</v>
       </c>
       <c r="E28" t="n">
-        <v>1.440359414021266</v>
+        <v>0.9532710280373832</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.54</v>
+        <v>1.87</v>
       </c>
       <c r="B29" t="n">
-        <v>124.31</v>
+        <v>267.43</v>
       </c>
       <c r="C29" t="n">
-        <v>6.5</v>
+        <v>3.06</v>
       </c>
       <c r="D29" t="n">
-        <v>1.65</v>
+        <v>2.62</v>
       </c>
       <c r="E29" t="n">
-        <v>2.445161041167838</v>
+        <v>0.8956386292834891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5.61</v>
+        <v>3.39</v>
       </c>
       <c r="B30" t="n">
-        <v>142.01</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>30.89</v>
+        <v>-0.4</v>
       </c>
       <c r="D30" t="n">
-        <v>1.63</v>
+        <v>0.52</v>
       </c>
       <c r="E30" t="n">
-        <v>2.436536134497052</v>
+        <v>0.5404984423676013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.93</v>
+        <v>3.18</v>
       </c>
       <c r="B31" t="n">
-        <v>489.92</v>
+        <v>218.86</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.41</v>
+        <v>-2.84</v>
       </c>
       <c r="D31" t="n">
-        <v>4.74</v>
+        <v>2.11</v>
       </c>
       <c r="E31" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5887850467289719</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4.62</v>
+        <v>1.93</v>
       </c>
       <c r="B32" t="n">
-        <v>158.28</v>
+        <v>221.31</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.86</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.53</v>
+        <v>2.69</v>
       </c>
       <c r="E32" t="n">
-        <v>2.031165520970109</v>
+        <v>0.9143302180685359</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.76</v>
+        <v>3.12</v>
       </c>
       <c r="B33" t="n">
-        <v>216.28</v>
+        <v>292.86</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.22</v>
+        <v>-4.07</v>
       </c>
       <c r="D33" t="n">
-        <v>2.97</v>
+        <v>4.61</v>
       </c>
       <c r="E33" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6059190031152648</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.66</v>
+        <v>3.48</v>
       </c>
       <c r="B34" t="n">
-        <v>124.23</v>
+        <v>141.33</v>
       </c>
       <c r="C34" t="n">
-        <v>11.26</v>
+        <v>20</v>
       </c>
       <c r="D34" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="E34" t="n">
-        <v>1.483483947375196</v>
+        <v>0.514018691588785</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.68</v>
+        <v>3.1</v>
       </c>
       <c r="B35" t="n">
-        <v>173.4</v>
+        <v>210.61</v>
       </c>
       <c r="C35" t="n">
-        <v>70.2</v>
+        <v>23.03</v>
       </c>
       <c r="D35" t="n">
-        <v>2.92</v>
+        <v>1.67</v>
       </c>
       <c r="E35" t="n">
-        <v>1.505046214052161</v>
+        <v>0.6214953271028038</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4.1</v>
+        <v>1.78</v>
       </c>
       <c r="B36" t="n">
-        <v>521.41</v>
+        <v>161.25</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>10.63</v>
       </c>
       <c r="D36" t="n">
-        <v>3.31</v>
+        <v>1.2</v>
       </c>
       <c r="E36" t="n">
-        <v>1.755168507504956</v>
+        <v>0.9392523364485982</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.67</v>
+        <v>2.42</v>
       </c>
       <c r="B37" t="n">
-        <v>250.35</v>
+        <v>158.22</v>
       </c>
       <c r="C37" t="n">
-        <v>20.15</v>
+        <v>8.42</v>
       </c>
       <c r="D37" t="n">
-        <v>0.19</v>
+        <v>3.34</v>
       </c>
       <c r="E37" t="n">
-        <v>1.401547334002729</v>
+        <v>0.7912772585669782</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.1</v>
+        <v>2.89</v>
       </c>
       <c r="B38" t="n">
-        <v>502.55</v>
+        <v>451.62</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.91</v>
+        <v>-2.84</v>
       </c>
       <c r="D38" t="n">
-        <v>0.36</v>
+        <v>3.2</v>
       </c>
       <c r="E38" t="n">
-        <v>2.23385082773358</v>
+        <v>0.6635514018691588</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.71</v>
+        <v>1.84</v>
       </c>
       <c r="B39" t="n">
-        <v>343.5</v>
+        <v>1631.26</v>
       </c>
       <c r="C39" t="n">
-        <v>5.89</v>
+        <v>1.4</v>
       </c>
       <c r="D39" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="E39" t="n">
-        <v>1.509358667387554</v>
+        <v>0.9953271028037384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4.94</v>
+        <v>2.48</v>
       </c>
       <c r="B40" t="n">
-        <v>363.28</v>
+        <v>167.19</v>
       </c>
       <c r="C40" t="n">
-        <v>1.53</v>
+        <v>-5.07</v>
       </c>
       <c r="D40" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="E40" t="n">
-        <v>2.216601014392008</v>
+        <v>0.7959501557632399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.79</v>
+        <v>2.95</v>
       </c>
       <c r="B41" t="n">
-        <v>143.24</v>
+        <v>497.51</v>
       </c>
       <c r="C41" t="n">
-        <v>-4.42</v>
+        <v>-3.05</v>
       </c>
       <c r="D41" t="n">
-        <v>1.64</v>
+        <v>0.91</v>
       </c>
       <c r="E41" t="n">
-        <v>1.530920934064519</v>
+        <v>0.6728971962616822</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>9.81</v>
+        <v>1.83</v>
       </c>
       <c r="B42" t="n">
-        <v>795.76</v>
+        <v>111.01</v>
       </c>
       <c r="C42" t="n">
-        <v>20.48</v>
+        <v>2.77</v>
       </c>
       <c r="D42" t="n">
-        <v>7.08</v>
+        <v>1.82</v>
       </c>
       <c r="E42" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9190031152647975</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4.65</v>
+        <v>3.05</v>
       </c>
       <c r="B43" t="n">
-        <v>263.63</v>
+        <v>151.49</v>
       </c>
       <c r="C43" t="n">
-        <v>-6.61</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>2.97</v>
+        <v>1.06</v>
       </c>
       <c r="E43" t="n">
-        <v>2.095852321001004</v>
+        <v>0.6230529595015576</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.59</v>
+        <v>3.22</v>
       </c>
       <c r="B44" t="n">
-        <v>113.83</v>
+        <v>170.02</v>
       </c>
       <c r="C44" t="n">
-        <v>17.29</v>
+        <v>-3.27</v>
       </c>
       <c r="D44" t="n">
-        <v>2.4</v>
+        <v>1.21</v>
       </c>
       <c r="E44" t="n">
-        <v>1.423109600679694</v>
+        <v>0.5903426791277259</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4.31</v>
+        <v>3.28</v>
       </c>
       <c r="B45" t="n">
-        <v>163.17</v>
+        <v>239.98</v>
       </c>
       <c r="C45" t="n">
-        <v>6.47</v>
+        <v>1.94</v>
       </c>
       <c r="D45" t="n">
-        <v>0.67</v>
+        <v>2.87</v>
       </c>
       <c r="E45" t="n">
-        <v>1.880229654231353</v>
+        <v>0.5389408099688473</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.08</v>
+        <v>3.43</v>
       </c>
       <c r="B46" t="n">
-        <v>141.92</v>
+        <v>164.75</v>
       </c>
       <c r="C46" t="n">
-        <v>3.33</v>
+        <v>3.09</v>
       </c>
       <c r="D46" t="n">
-        <v>2.87</v>
+        <v>2.09</v>
       </c>
       <c r="E46" t="n">
-        <v>2.255413094410545</v>
+        <v>0.5155763239875389</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.98</v>
+        <v>1.74</v>
       </c>
       <c r="B47" t="n">
-        <v>269.5</v>
+        <v>516.1799999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>2.78</v>
+        <v>7.88</v>
       </c>
       <c r="D47" t="n">
-        <v>4.4</v>
+        <v>2.94</v>
       </c>
       <c r="E47" t="n">
-        <v>1.712043974151026</v>
+        <v>0.9454828660436138</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7.78</v>
+        <v>1.94</v>
       </c>
       <c r="B48" t="n">
-        <v>268.17</v>
+        <v>2364.47</v>
       </c>
       <c r="C48" t="n">
-        <v>5.77</v>
+        <v>-3.3</v>
       </c>
       <c r="D48" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="E48" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9968847352024922</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.35</v>
+        <v>2.1</v>
       </c>
       <c r="B49" t="n">
-        <v>182.72</v>
+        <v>182.73</v>
       </c>
       <c r="C49" t="n">
-        <v>3.41</v>
+        <v>-0.47</v>
       </c>
       <c r="D49" t="n">
-        <v>2.64</v>
+        <v>1.83</v>
       </c>
       <c r="E49" t="n">
-        <v>1.927666640920677</v>
+        <v>0.8691588785046729</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.8</v>
+        <v>3.23</v>
       </c>
       <c r="B50" t="n">
-        <v>220.12</v>
+        <v>263.92</v>
       </c>
       <c r="C50" t="n">
-        <v>20.46</v>
+        <v>2.13</v>
       </c>
       <c r="D50" t="n">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="E50" t="n">
-        <v>1.535233387399912</v>
+        <v>0.5623052959501558</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.94</v>
+        <v>3.16</v>
       </c>
       <c r="B51" t="n">
-        <v>73.98999999999999</v>
+        <v>196.99</v>
       </c>
       <c r="C51" t="n">
-        <v>14.24</v>
+        <v>23.42</v>
       </c>
       <c r="D51" t="n">
-        <v>2.55</v>
+        <v>0.04</v>
       </c>
       <c r="E51" t="n">
-        <v>2.207976107721222</v>
+        <v>0.6370716510903427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3.65</v>
+        <v>2.11</v>
       </c>
       <c r="B52" t="n">
-        <v>128.56</v>
+        <v>182.7</v>
       </c>
       <c r="C52" t="n">
-        <v>19.13</v>
+        <v>2.85</v>
       </c>
       <c r="D52" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="E52" t="n">
-        <v>1.453296774027445</v>
+        <v>0.8644859813084113</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="B53" t="n">
-        <v>102.88</v>
+        <v>236.58</v>
       </c>
       <c r="C53" t="n">
-        <v>6.94</v>
+        <v>3.71</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="E53" t="n">
-        <v>1.772418320846528</v>
+        <v>0.7632398753894081</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5.18</v>
+        <v>2.88</v>
       </c>
       <c r="B54" t="n">
-        <v>255.59</v>
+        <v>409.26</v>
       </c>
       <c r="C54" t="n">
-        <v>-7.67</v>
+        <v>0.74</v>
       </c>
       <c r="D54" t="n">
-        <v>1.56</v>
+        <v>0.86</v>
       </c>
       <c r="E54" t="n">
-        <v>2.285600267758296</v>
+        <v>0.6791277258566978</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.96</v>
+        <v>3.59</v>
       </c>
       <c r="B55" t="n">
-        <v>186.99</v>
+        <v>158.85</v>
       </c>
       <c r="C55" t="n">
-        <v>6.79</v>
+        <v>8.44</v>
       </c>
       <c r="D55" t="n">
-        <v>4.12</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>1.70341906748024</v>
+        <v>0.5482866043613707</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5.15</v>
+        <v>1.96</v>
       </c>
       <c r="B56" t="n">
-        <v>153.04</v>
+        <v>185.64</v>
       </c>
       <c r="C56" t="n">
-        <v>1.15</v>
+        <v>8.81</v>
       </c>
       <c r="D56" t="n">
-        <v>3.4</v>
+        <v>2.91</v>
       </c>
       <c r="E56" t="n">
-        <v>2.302850081099868</v>
+        <v>0.8785046728971962</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>4.88</v>
+        <v>2.66</v>
       </c>
       <c r="B57" t="n">
-        <v>286.01</v>
+        <v>404.29</v>
       </c>
       <c r="C57" t="n">
-        <v>0.61</v>
+        <v>-3.87</v>
       </c>
       <c r="D57" t="n">
-        <v>3.67</v>
+        <v>5.29</v>
       </c>
       <c r="E57" t="n">
-        <v>2.19072629437965</v>
+        <v>0.7663551401869159</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.19</v>
+        <v>3.31</v>
       </c>
       <c r="B58" t="n">
-        <v>442.84</v>
+        <v>130.88</v>
       </c>
       <c r="C58" t="n">
-        <v>4.93</v>
+        <v>-1.08</v>
       </c>
       <c r="D58" t="n">
-        <v>4.14</v>
+        <v>1.43</v>
       </c>
       <c r="E58" t="n">
-        <v>2.315787441106048</v>
+        <v>0.5514018691588785</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.37</v>
+        <v>2.74</v>
       </c>
       <c r="B59" t="n">
-        <v>116.84</v>
+        <v>170.26</v>
       </c>
       <c r="C59" t="n">
-        <v>58.81</v>
+        <v>6.02</v>
       </c>
       <c r="D59" t="n">
-        <v>1.18</v>
+        <v>2.65</v>
       </c>
       <c r="E59" t="n">
-        <v>2.143289307690327</v>
+        <v>0.6962616822429907</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.71</v>
+        <v>1.77</v>
       </c>
       <c r="B60" t="n">
-        <v>207.02</v>
+        <v>181.14</v>
       </c>
       <c r="C60" t="n">
-        <v>1.4</v>
+        <v>2.11</v>
       </c>
       <c r="D60" t="n">
-        <v>3.63</v>
+        <v>-0.51</v>
       </c>
       <c r="E60" t="n">
-        <v>1.522296027393733</v>
+        <v>0.9688473520249221</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7</v>
+        <v>3.13</v>
       </c>
       <c r="B61" t="n">
-        <v>153.26</v>
+        <v>173.38</v>
       </c>
       <c r="C61" t="n">
-        <v>-3.75</v>
+        <v>14.17</v>
       </c>
       <c r="D61" t="n">
-        <v>4.03</v>
+        <v>1.64</v>
       </c>
       <c r="E61" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5981308411214953</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3.94</v>
+        <v>2.57</v>
       </c>
       <c r="B62" t="n">
-        <v>226</v>
+        <v>218.55</v>
       </c>
       <c r="C62" t="n">
-        <v>4.28</v>
+        <v>10.54</v>
       </c>
       <c r="D62" t="n">
-        <v>3.61</v>
+        <v>1.52</v>
       </c>
       <c r="E62" t="n">
-        <v>1.690481707474061</v>
+        <v>0.7679127725856698</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>4.28</v>
+        <v>2.84</v>
       </c>
       <c r="B63" t="n">
-        <v>166.83</v>
+        <v>82.22</v>
       </c>
       <c r="C63" t="n">
-        <v>5.85</v>
+        <v>7.35</v>
       </c>
       <c r="D63" t="n">
-        <v>3.37</v>
+        <v>0.65</v>
       </c>
       <c r="E63" t="n">
-        <v>1.906104374243711</v>
+        <v>0.7009345794392523</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.61</v>
+        <v>1.9</v>
       </c>
       <c r="B64" t="n">
-        <v>185.67</v>
+        <v>805.42</v>
       </c>
       <c r="C64" t="n">
-        <v>5.35</v>
+        <v>2.92</v>
       </c>
       <c r="D64" t="n">
-        <v>3.46</v>
+        <v>2.07</v>
       </c>
       <c r="E64" t="n">
-        <v>2.496910481192554</v>
+        <v>0.9641744548286605</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.57</v>
+        <v>2.69</v>
       </c>
       <c r="B65" t="n">
-        <v>258.39</v>
+        <v>122.99</v>
       </c>
       <c r="C65" t="n">
-        <v>6.46</v>
+        <v>-4.3</v>
       </c>
       <c r="D65" t="n">
-        <v>2.63</v>
+        <v>1.03</v>
       </c>
       <c r="E65" t="n">
-        <v>2.496910481192554</v>
+        <v>0.7554517133956387</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4.33</v>
+        <v>1.86</v>
       </c>
       <c r="B66" t="n">
-        <v>276.49</v>
+        <v>173.07</v>
       </c>
       <c r="C66" t="n">
-        <v>13.8</v>
+        <v>6.8</v>
       </c>
       <c r="D66" t="n">
-        <v>2.63</v>
+        <v>-0.83</v>
       </c>
       <c r="E66" t="n">
-        <v>1.919041734249891</v>
+        <v>0.9610591900311527</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4.78</v>
+        <v>2.55</v>
       </c>
       <c r="B67" t="n">
-        <v>171.87</v>
+        <v>316.19</v>
       </c>
       <c r="C67" t="n">
-        <v>16.27</v>
+        <v>5.98</v>
       </c>
       <c r="D67" t="n">
-        <v>4.3</v>
+        <v>2.35</v>
       </c>
       <c r="E67" t="n">
-        <v>2.134664401019541</v>
+        <v>0.7616822429906542</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>3.68</v>
+        <v>1.96</v>
       </c>
       <c r="B68" t="n">
-        <v>247.79</v>
+        <v>169.17</v>
       </c>
       <c r="C68" t="n">
-        <v>1.2</v>
+        <v>20.61</v>
       </c>
       <c r="D68" t="n">
-        <v>4.02</v>
+        <v>3.42</v>
       </c>
       <c r="E68" t="n">
-        <v>1.500733760716768</v>
+        <v>0.897196261682243</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.53</v>
+        <v>2.69</v>
       </c>
       <c r="B69" t="n">
-        <v>157.62</v>
+        <v>212.96</v>
       </c>
       <c r="C69" t="n">
-        <v>9.25</v>
+        <v>0.8</v>
       </c>
       <c r="D69" t="n">
-        <v>3.07</v>
+        <v>0.57</v>
       </c>
       <c r="E69" t="n">
-        <v>2.039790427640895</v>
+        <v>0.7507788161993769</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.85</v>
+        <v>1.86</v>
       </c>
       <c r="B70" t="n">
-        <v>311.96</v>
+        <v>121.15</v>
       </c>
       <c r="C70" t="n">
-        <v>5.88</v>
+        <v>34.42</v>
       </c>
       <c r="D70" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="E70" t="n">
-        <v>1.625794907443166</v>
+        <v>0.9719626168224299</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>4.36</v>
+        <v>3.23</v>
       </c>
       <c r="B71" t="n">
-        <v>224.83</v>
+        <v>336.12</v>
       </c>
       <c r="C71" t="n">
-        <v>5.93</v>
+        <v>-4.88</v>
       </c>
       <c r="D71" t="n">
-        <v>3.74</v>
+        <v>1.57</v>
       </c>
       <c r="E71" t="n">
-        <v>1.949228907597641</v>
+        <v>0.5825545171339563</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5.67</v>
+        <v>3.4</v>
       </c>
       <c r="B72" t="n">
-        <v>91.65000000000001</v>
+        <v>343.01</v>
       </c>
       <c r="C72" t="n">
-        <v>38.82</v>
+        <v>1.44</v>
       </c>
       <c r="D72" t="n">
-        <v>0.48</v>
+        <v>3.43</v>
       </c>
       <c r="E72" t="n">
-        <v>2.414973867820087</v>
+        <v>0.5202492211838006</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>4.74</v>
+        <v>2.16</v>
       </c>
       <c r="B73" t="n">
-        <v>236.59</v>
+        <v>171.64</v>
       </c>
       <c r="C73" t="n">
-        <v>0.65</v>
+        <v>41.32</v>
       </c>
       <c r="D73" t="n">
-        <v>2.82</v>
+        <v>8.43</v>
       </c>
       <c r="E73" t="n">
-        <v>2.130351947684148</v>
+        <v>0.9844236760124611</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4.13</v>
+        <v>2.7</v>
       </c>
       <c r="B74" t="n">
-        <v>368.74</v>
+        <v>378.63</v>
       </c>
       <c r="C74" t="n">
-        <v>1.43</v>
+        <v>-9.52</v>
       </c>
       <c r="D74" t="n">
-        <v>1.08</v>
+        <v>2.52</v>
       </c>
       <c r="E74" t="n">
-        <v>1.768105867511135</v>
+        <v>0.7476635514018691</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5.25</v>
+        <v>2.89</v>
       </c>
       <c r="B75" t="n">
-        <v>257.73</v>
+        <v>212.52</v>
       </c>
       <c r="C75" t="n">
-        <v>14.85</v>
+        <v>2.56</v>
       </c>
       <c r="D75" t="n">
-        <v>2.18</v>
+        <v>4.12</v>
       </c>
       <c r="E75" t="n">
-        <v>2.33303725444762</v>
+        <v>0.6604361370716511</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>4.5</v>
+        <v>2.71</v>
       </c>
       <c r="B76" t="n">
-        <v>467.8</v>
+        <v>316.59</v>
       </c>
       <c r="C76" t="n">
-        <v>-19.94</v>
+        <v>-3.53</v>
       </c>
       <c r="D76" t="n">
-        <v>3.29</v>
+        <v>2.23</v>
       </c>
       <c r="E76" t="n">
-        <v>1.914729280914497</v>
+        <v>0.7274143302180686</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>6.22</v>
+        <v>2.59</v>
       </c>
       <c r="B77" t="n">
-        <v>178.82</v>
+        <v>653.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.78</v>
+        <v>-7.93</v>
       </c>
       <c r="D77" t="n">
-        <v>0.19</v>
+        <v>1.22</v>
       </c>
       <c r="E77" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8224299065420561</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>6.67</v>
+        <v>3.11</v>
       </c>
       <c r="B78" t="n">
-        <v>279.89</v>
+        <v>238.9</v>
       </c>
       <c r="C78" t="n">
-        <v>-26.37</v>
+        <v>8.42</v>
       </c>
       <c r="D78" t="n">
-        <v>-1.83</v>
+        <v>1.97</v>
       </c>
       <c r="E78" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5950155763239875</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.96</v>
+        <v>2.16</v>
       </c>
       <c r="B79" t="n">
-        <v>209.79</v>
+        <v>102.39</v>
       </c>
       <c r="C79" t="n">
-        <v>9.74</v>
+        <v>17.49</v>
       </c>
       <c r="D79" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="E79" t="n">
-        <v>1.699106614144847</v>
+        <v>0.8613707165109035</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3.94</v>
+        <v>2.74</v>
       </c>
       <c r="B80" t="n">
-        <v>417.98</v>
+        <v>144.76</v>
       </c>
       <c r="C80" t="n">
-        <v>-7.81</v>
+        <v>10.14</v>
       </c>
       <c r="D80" t="n">
-        <v>3.53</v>
+        <v>2.39</v>
       </c>
       <c r="E80" t="n">
-        <v>1.643044720784738</v>
+        <v>0.7024922118380063</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4.13</v>
+        <v>2.98</v>
       </c>
       <c r="B81" t="n">
-        <v>125.34</v>
+        <v>245.29</v>
       </c>
       <c r="C81" t="n">
-        <v>7.46</v>
+        <v>7.6</v>
       </c>
       <c r="D81" t="n">
-        <v>3.07</v>
+        <v>1.4</v>
       </c>
       <c r="E81" t="n">
-        <v>1.793980587523493</v>
+        <v>0.6339563862928349</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5.99</v>
+        <v>2.91</v>
       </c>
       <c r="B82" t="n">
-        <v>180.71</v>
+        <v>785.55</v>
       </c>
       <c r="C82" t="n">
-        <v>8.630000000000001</v>
+        <v>11.17</v>
       </c>
       <c r="D82" t="n">
-        <v>2.57</v>
+        <v>3.48</v>
       </c>
       <c r="E82" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7258566978193146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.92</v>
+        <v>2.85</v>
       </c>
       <c r="B83" t="n">
-        <v>152.51</v>
+        <v>299.59</v>
       </c>
       <c r="C83" t="n">
-        <v>-16.91</v>
+        <v>0.25</v>
       </c>
       <c r="D83" t="n">
-        <v>2.08</v>
+        <v>5.42</v>
       </c>
       <c r="E83" t="n">
-        <v>1.548170747406092</v>
+        <v>0.6806853582554517</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4.65</v>
+        <v>2.14</v>
       </c>
       <c r="B84" t="n">
-        <v>198.46</v>
+        <v>207.02</v>
       </c>
       <c r="C84" t="n">
-        <v>4.14</v>
+        <v>6.25</v>
       </c>
       <c r="D84" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="E84" t="n">
-        <v>2.10447722767179</v>
+        <v>0.8520249221183801</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>6.54</v>
+        <v>3.32</v>
       </c>
       <c r="B85" t="n">
-        <v>185.61</v>
+        <v>254.08</v>
       </c>
       <c r="C85" t="n">
-        <v>1.63</v>
+        <v>-2.47</v>
       </c>
       <c r="D85" t="n">
-        <v>3.39</v>
+        <v>1.52</v>
       </c>
       <c r="E85" t="n">
-        <v>2.768595041322314</v>
+        <v>0.543613707165109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>6.26</v>
+        <v>2.01</v>
       </c>
       <c r="B86" t="n">
-        <v>160.9</v>
+        <v>145.58</v>
       </c>
       <c r="C86" t="n">
-        <v>8.92</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>3.83</v>
+        <v>6.11</v>
       </c>
       <c r="E86" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9049844236760125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5.54</v>
+        <v>2.95</v>
       </c>
       <c r="B87" t="n">
-        <v>146.2</v>
+        <v>1820.24</v>
       </c>
       <c r="C87" t="n">
-        <v>5.25</v>
+        <v>7.99</v>
       </c>
       <c r="D87" t="n">
-        <v>2.29</v>
+        <v>2.04</v>
       </c>
       <c r="E87" t="n">
-        <v>2.466723307844803</v>
+        <v>0.9906542056074766</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.42</v>
+        <v>2.14</v>
       </c>
       <c r="B88" t="n">
-        <v>250.48</v>
+        <v>61.51</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04</v>
+        <v>15.51</v>
       </c>
       <c r="D88" t="n">
-        <v>4.28</v>
+        <v>2.79</v>
       </c>
       <c r="E88" t="n">
-        <v>1.979416080945393</v>
+        <v>0.8582554517133957</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>4.8</v>
+        <v>2.36</v>
       </c>
       <c r="B89" t="n">
-        <v>742.53</v>
+        <v>174.63</v>
       </c>
       <c r="C89" t="n">
-        <v>0.36</v>
+        <v>7.73</v>
       </c>
       <c r="D89" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="E89" t="n">
-        <v>2.108789681007183</v>
+        <v>0.8037383177570093</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>4.41</v>
+        <v>1.94</v>
       </c>
       <c r="B90" t="n">
-        <v>176.61</v>
+        <v>254.08</v>
       </c>
       <c r="C90" t="n">
-        <v>0.86</v>
+        <v>-0.08</v>
       </c>
       <c r="D90" t="n">
-        <v>2.73</v>
+        <v>-0.78</v>
       </c>
       <c r="E90" t="n">
-        <v>1.97510362761</v>
+        <v>0.956386292834891</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6.85</v>
+        <v>2.54</v>
       </c>
       <c r="B91" t="n">
-        <v>182.77</v>
+        <v>88.05</v>
       </c>
       <c r="C91" t="n">
-        <v>5.19</v>
+        <v>4.62</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.17</v>
+        <v>-0.13</v>
       </c>
       <c r="E91" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8084112149532711</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>4.4</v>
+        <v>2.25</v>
       </c>
       <c r="B92" t="n">
-        <v>110.97</v>
+        <v>224.27</v>
       </c>
       <c r="C92" t="n">
-        <v>1.64</v>
+        <v>18.59</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.64</v>
+        <v>4.39</v>
       </c>
       <c r="E92" t="n">
-        <v>1.884542107566747</v>
+        <v>0.8426791277258567</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>4.82</v>
+        <v>3.18</v>
       </c>
       <c r="B93" t="n">
-        <v>183.92</v>
+        <v>22.46</v>
       </c>
       <c r="C93" t="n">
-        <v>4.71</v>
+        <v>-11.2</v>
       </c>
       <c r="D93" t="n">
-        <v>3.75</v>
+        <v>1.56</v>
       </c>
       <c r="E93" t="n">
-        <v>2.160539121031899</v>
+        <v>0.618380062305296</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>4.77</v>
+        <v>2.27</v>
       </c>
       <c r="B94" t="n">
-        <v>139.87</v>
+        <v>737.62</v>
       </c>
       <c r="C94" t="n">
-        <v>-8.25</v>
+        <v>0.78</v>
       </c>
       <c r="D94" t="n">
-        <v>2.83</v>
+        <v>1.98</v>
       </c>
       <c r="E94" t="n">
-        <v>2.121727041013362</v>
+        <v>0.8769470404984424</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>4.88</v>
+        <v>2.69</v>
       </c>
       <c r="B95" t="n">
-        <v>163.04</v>
+        <v>173.51</v>
       </c>
       <c r="C95" t="n">
-        <v>15.91</v>
+        <v>4.72</v>
       </c>
       <c r="D95" t="n">
-        <v>5.28</v>
+        <v>3.98</v>
       </c>
       <c r="E95" t="n">
-        <v>2.169164027702685</v>
+        <v>0.7227414330218068</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>4.05</v>
+        <v>2.61</v>
       </c>
       <c r="B96" t="n">
-        <v>405.59</v>
+        <v>205.72</v>
       </c>
       <c r="C96" t="n">
-        <v>2.93</v>
+        <v>2.29</v>
       </c>
       <c r="D96" t="n">
-        <v>4.89</v>
+        <v>0.38</v>
       </c>
       <c r="E96" t="n">
-        <v>1.742231147498777</v>
+        <v>0.7772585669781932</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.34</v>
+        <v>3.33</v>
       </c>
       <c r="B97" t="n">
-        <v>194.37</v>
+        <v>236.13</v>
       </c>
       <c r="C97" t="n">
-        <v>0.68</v>
+        <v>3.04</v>
       </c>
       <c r="D97" t="n">
-        <v>2.46</v>
+        <v>0.11</v>
       </c>
       <c r="E97" t="n">
-        <v>2.37616178780155</v>
+        <v>0.559190031152648</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4.04</v>
+        <v>1.92</v>
       </c>
       <c r="B98" t="n">
-        <v>124.91</v>
+        <v>176.94</v>
       </c>
       <c r="C98" t="n">
-        <v>3.21</v>
+        <v>6.49</v>
       </c>
       <c r="D98" t="n">
-        <v>1.43</v>
+        <v>-0.21</v>
       </c>
       <c r="E98" t="n">
-        <v>1.733606240827991</v>
+        <v>0.940809968847352</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.38</v>
+        <v>3.39</v>
       </c>
       <c r="B99" t="n">
-        <v>582.2</v>
+        <v>59.43</v>
       </c>
       <c r="C99" t="n">
-        <v>8.15</v>
+        <v>24.84</v>
       </c>
       <c r="D99" t="n">
-        <v>3.81</v>
+        <v>1.49</v>
       </c>
       <c r="E99" t="n">
-        <v>2.380474241136943</v>
+        <v>0.5545171339563862</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5.48</v>
+        <v>2.51</v>
       </c>
       <c r="B100" t="n">
-        <v>172.38</v>
+        <v>247.95</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="D100" t="n">
-        <v>1.17</v>
+        <v>2.61</v>
       </c>
       <c r="E100" t="n">
-        <v>2.41928632115548</v>
+        <v>0.7757009345794392</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11.44</v>
+        <v>2.36</v>
       </c>
       <c r="B101" t="n">
-        <v>986.5700000000001</v>
+        <v>164.08</v>
       </c>
       <c r="C101" t="n">
-        <v>41.69</v>
+        <v>-0.46</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.54</v>
+        <v>2.73</v>
       </c>
       <c r="E101" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8115264797507789</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.89</v>
+        <v>2.76</v>
       </c>
       <c r="B102" t="n">
-        <v>215.88</v>
+        <v>211.34</v>
       </c>
       <c r="C102" t="n">
-        <v>12.45</v>
+        <v>13.13</v>
       </c>
       <c r="D102" t="n">
-        <v>5.52</v>
+        <v>1.97</v>
       </c>
       <c r="E102" t="n">
-        <v>1.621482454107773</v>
+        <v>0.6993769470404985</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>4.87</v>
+        <v>3.54</v>
       </c>
       <c r="B103" t="n">
-        <v>172.6</v>
+        <v>80.44</v>
       </c>
       <c r="C103" t="n">
-        <v>4.63</v>
+        <v>1.6</v>
       </c>
       <c r="D103" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="E103" t="n">
-        <v>2.164851574367292</v>
+        <v>0.5031152647975078</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4.56</v>
+        <v>2.13</v>
       </c>
       <c r="B104" t="n">
-        <v>380.8</v>
+        <v>451.62</v>
       </c>
       <c r="C104" t="n">
-        <v>15.54</v>
+        <v>4.54</v>
       </c>
       <c r="D104" t="n">
-        <v>4.39</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>2.044102880976288</v>
+        <v>0.8629283489096573</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>4.25</v>
+        <v>2.12</v>
       </c>
       <c r="B105" t="n">
-        <v>119.74</v>
+        <v>165.03</v>
       </c>
       <c r="C105" t="n">
-        <v>-6.49</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>1.12</v>
+        <v>2.34</v>
       </c>
       <c r="E105" t="n">
-        <v>1.811230400865065</v>
+        <v>0.9890965732087228</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5.84</v>
+        <v>3.26</v>
       </c>
       <c r="B106" t="n">
-        <v>498.92</v>
+        <v>312.05</v>
       </c>
       <c r="C106" t="n">
-        <v>14.18</v>
+        <v>-3.59</v>
       </c>
       <c r="D106" t="n">
-        <v>3.21</v>
+        <v>1.31</v>
       </c>
       <c r="E106" t="n">
-        <v>2.768595041322314</v>
+        <v>0.573208722741433</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3.88</v>
+        <v>2.34</v>
       </c>
       <c r="B107" t="n">
-        <v>161.9</v>
+        <v>168.77</v>
       </c>
       <c r="C107" t="n">
-        <v>13.13</v>
+        <v>7.16</v>
       </c>
       <c r="D107" t="n">
-        <v>2.54</v>
+        <v>0.4</v>
       </c>
       <c r="E107" t="n">
-        <v>1.630107360778559</v>
+        <v>0.8348909657320872</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>4.04</v>
+        <v>1.96</v>
       </c>
       <c r="B108" t="n">
-        <v>144.1</v>
+        <v>304.31</v>
       </c>
       <c r="C108" t="n">
-        <v>13.76</v>
+        <v>5.09</v>
       </c>
       <c r="D108" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="E108" t="n">
-        <v>1.74654360083417</v>
+        <v>0.8800623052959502</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.93</v>
+        <v>3.36</v>
       </c>
       <c r="B109" t="n">
-        <v>397.26</v>
+        <v>671.9299999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>30.84</v>
+        <v>-0.2</v>
       </c>
       <c r="D109" t="n">
-        <v>3.78</v>
+        <v>-1.18</v>
       </c>
       <c r="E109" t="n">
-        <v>1.57404546741845</v>
+        <v>0.6277258566978193</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.1</v>
+        <v>2.96</v>
       </c>
       <c r="B110" t="n">
-        <v>181.09</v>
+        <v>251.89</v>
       </c>
       <c r="C110" t="n">
-        <v>4.82</v>
+        <v>7.52</v>
       </c>
       <c r="D110" t="n">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="E110" t="n">
-        <v>2.259725547745938</v>
+        <v>0.632398753894081</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>6.9</v>
+        <v>3.35</v>
       </c>
       <c r="B111" t="n">
-        <v>1032.98</v>
+        <v>104.46</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.36</v>
+        <v>19.4</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.27</v>
+        <v>0.32</v>
       </c>
       <c r="E111" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5716510903426791</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.27</v>
+        <v>3.66</v>
       </c>
       <c r="B112" t="n">
-        <v>153.84</v>
+        <v>210.32</v>
       </c>
       <c r="C112" t="n">
-        <v>3.96</v>
+        <v>17.53</v>
       </c>
       <c r="D112" t="n">
-        <v>0.35</v>
+        <v>11.41</v>
       </c>
       <c r="E112" t="n">
-        <v>1.828480214206637</v>
+        <v>0.6900311526479751</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.6</v>
+        <v>3.01</v>
       </c>
       <c r="B113" t="n">
-        <v>354.55</v>
+        <v>150.33</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.32</v>
+        <v>3.71</v>
       </c>
       <c r="D113" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="E113" t="n">
-        <v>1.405859787338122</v>
+        <v>0.6246105919003115</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5.61</v>
+        <v>3.26</v>
       </c>
       <c r="B114" t="n">
-        <v>344.14</v>
+        <v>168.65</v>
       </c>
       <c r="C114" t="n">
-        <v>5.97</v>
+        <v>20.72</v>
       </c>
       <c r="D114" t="n">
-        <v>4.1</v>
+        <v>2.37</v>
       </c>
       <c r="E114" t="n">
-        <v>2.496910481192554</v>
+        <v>0.5685358255451713</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5.15</v>
+        <v>3.02</v>
       </c>
       <c r="B115" t="n">
-        <v>128.58</v>
+        <v>827.49</v>
       </c>
       <c r="C115" t="n">
-        <v>6.5</v>
+        <v>1.42</v>
       </c>
       <c r="D115" t="n">
-        <v>1.11</v>
+        <v>2.78</v>
       </c>
       <c r="E115" t="n">
-        <v>2.281287814422904</v>
+        <v>0.6978193146417445</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5.6</v>
+        <v>3.21</v>
       </c>
       <c r="B116" t="n">
-        <v>411.11</v>
+        <v>152.99</v>
       </c>
       <c r="C116" t="n">
-        <v>6.92</v>
+        <v>54.74</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.48</v>
+        <v>2.4</v>
       </c>
       <c r="E116" t="n">
-        <v>2.436536134497052</v>
+        <v>0.7975077881619937</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5.26</v>
+        <v>2.88</v>
       </c>
       <c r="B117" t="n">
-        <v>117.5</v>
+        <v>252.88</v>
       </c>
       <c r="C117" t="n">
-        <v>42.94</v>
+        <v>2.01</v>
       </c>
       <c r="D117" t="n">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="E117" t="n">
-        <v>2.242475734404366</v>
+        <v>0.6588785046728972</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4.68</v>
+        <v>2.26</v>
       </c>
       <c r="B118" t="n">
-        <v>256.97</v>
+        <v>213.11</v>
       </c>
       <c r="C118" t="n">
-        <v>-5.2</v>
+        <v>7.11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.74</v>
+        <v>1.09</v>
       </c>
       <c r="E118" t="n">
-        <v>2.082914960994825</v>
+        <v>0.838006230529595</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>6.44</v>
+        <v>2.63</v>
       </c>
       <c r="B119" t="n">
-        <v>262.66</v>
+        <v>166.42</v>
       </c>
       <c r="C119" t="n">
-        <v>2.77</v>
+        <v>8.33</v>
       </c>
       <c r="D119" t="n">
-        <v>4.14</v>
+        <v>2.44</v>
       </c>
       <c r="E119" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7398753894080997</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>4.24</v>
+        <v>2.16</v>
       </c>
       <c r="B120" t="n">
-        <v>85.20999999999999</v>
+        <v>239.95</v>
       </c>
       <c r="C120" t="n">
-        <v>10.94</v>
+        <v>4.77</v>
       </c>
       <c r="D120" t="n">
-        <v>0.74</v>
+        <v>1.93</v>
       </c>
       <c r="E120" t="n">
-        <v>1.819855307535851</v>
+        <v>0.8504672897196262</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>3.81</v>
+        <v>2.69</v>
       </c>
       <c r="B121" t="n">
-        <v>95.95999999999999</v>
+        <v>153.72</v>
       </c>
       <c r="C121" t="n">
-        <v>8.02</v>
+        <v>24.16</v>
       </c>
       <c r="D121" t="n">
-        <v>2.71</v>
+        <v>2.21</v>
       </c>
       <c r="E121" t="n">
-        <v>1.582670374089236</v>
+        <v>0.7570093457943925</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>4.31</v>
+        <v>3.52</v>
       </c>
       <c r="B122" t="n">
-        <v>162.16</v>
+        <v>243.53</v>
       </c>
       <c r="C122" t="n">
-        <v>19.09</v>
+        <v>3.92</v>
       </c>
       <c r="D122" t="n">
-        <v>1.21</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>1.858667387554388</v>
+        <v>0.5046728971962616</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5.8</v>
+        <v>3.25</v>
       </c>
       <c r="B123" t="n">
-        <v>131.41</v>
+        <v>165.28</v>
       </c>
       <c r="C123" t="n">
-        <v>-29.24</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="E123" t="n">
-        <v>2.436536134497052</v>
+        <v>0.557632398753894</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5.91</v>
+        <v>2.61</v>
       </c>
       <c r="B124" t="n">
-        <v>85.06</v>
+        <v>229.77</v>
       </c>
       <c r="C124" t="n">
-        <v>2.17</v>
+        <v>12.3</v>
       </c>
       <c r="D124" t="n">
-        <v>0.35</v>
+        <v>4.3</v>
       </c>
       <c r="E124" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7492211838006231</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5.75</v>
+        <v>2.35</v>
       </c>
       <c r="B125" t="n">
-        <v>232.08</v>
+        <v>199.68</v>
       </c>
       <c r="C125" t="n">
-        <v>3.17</v>
+        <v>1.17</v>
       </c>
       <c r="D125" t="n">
-        <v>3.26</v>
+        <v>2.27</v>
       </c>
       <c r="E125" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8146417445482866</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>4.21</v>
+        <v>3.04</v>
       </c>
       <c r="B126" t="n">
-        <v>225.75</v>
+        <v>206.6</v>
       </c>
       <c r="C126" t="n">
-        <v>4.74</v>
+        <v>6.72</v>
       </c>
       <c r="D126" t="n">
-        <v>6.24</v>
+        <v>4.42</v>
       </c>
       <c r="E126" t="n">
-        <v>1.806917947529672</v>
+        <v>0.6152647975077882</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>4.19</v>
+        <v>3.71</v>
       </c>
       <c r="B127" t="n">
-        <v>295.35</v>
+        <v>126.21</v>
       </c>
       <c r="C127" t="n">
-        <v>19.35</v>
+        <v>41.36</v>
       </c>
       <c r="D127" t="n">
-        <v>3.38</v>
+        <v>3.94</v>
       </c>
       <c r="E127" t="n">
-        <v>1.815542854200458</v>
+        <v>0.5295950155763239</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5.58</v>
+        <v>2.26</v>
       </c>
       <c r="B128" t="n">
-        <v>176.48</v>
+        <v>1027.31</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.69</v>
+        <v>4.33</v>
       </c>
       <c r="D128" t="n">
-        <v>1.79</v>
+        <v>0.53</v>
       </c>
       <c r="E128" t="n">
-        <v>2.466723307844803</v>
+        <v>0.9735202492211839</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>6.12</v>
+        <v>3.06</v>
       </c>
       <c r="B129" t="n">
-        <v>166.07</v>
+        <v>130.28</v>
       </c>
       <c r="C129" t="n">
-        <v>2.35</v>
+        <v>-0.02</v>
       </c>
       <c r="D129" t="n">
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="E129" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6261682242990654</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>4.07</v>
+        <v>2.93</v>
       </c>
       <c r="B130" t="n">
-        <v>190.87</v>
+        <v>445.27</v>
       </c>
       <c r="C130" t="n">
-        <v>5.2</v>
+        <v>3.07</v>
       </c>
       <c r="D130" t="n">
-        <v>4.41</v>
+        <v>2.17</v>
       </c>
       <c r="E130" t="n">
-        <v>1.759480960840349</v>
+        <v>0.6557632398753894</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>4.88</v>
+        <v>2.38</v>
       </c>
       <c r="B131" t="n">
-        <v>152.78</v>
+        <v>280.04</v>
       </c>
       <c r="C131" t="n">
-        <v>5.03</v>
+        <v>-5.91</v>
       </c>
       <c r="D131" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="E131" t="n">
-        <v>2.177788934373472</v>
+        <v>0.82398753894081</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>4.93</v>
+        <v>2.5</v>
       </c>
       <c r="B132" t="n">
-        <v>100.79</v>
+        <v>141.42</v>
       </c>
       <c r="C132" t="n">
-        <v>-5.33</v>
+        <v>3.07</v>
       </c>
       <c r="D132" t="n">
-        <v>2.24</v>
+        <v>0.5</v>
       </c>
       <c r="E132" t="n">
-        <v>2.203663654385829</v>
+        <v>0.8006230529595015</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4.25</v>
+        <v>1.87</v>
       </c>
       <c r="B133" t="n">
-        <v>345.96</v>
+        <v>297.08</v>
       </c>
       <c r="C133" t="n">
-        <v>9.279999999999999</v>
+        <v>-4.73</v>
       </c>
       <c r="D133" t="n">
-        <v>3.74</v>
+        <v>-0.67</v>
       </c>
       <c r="E133" t="n">
-        <v>1.888854560902139</v>
+        <v>0.9626168224299065</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3.77</v>
+        <v>2.25</v>
       </c>
       <c r="B134" t="n">
-        <v>97</v>
+        <v>931.16</v>
       </c>
       <c r="C134" t="n">
-        <v>5.92</v>
+        <v>0.36</v>
       </c>
       <c r="D134" t="n">
-        <v>2.85</v>
+        <v>2.21</v>
       </c>
       <c r="E134" t="n">
-        <v>1.565420560747663</v>
+        <v>0.942367601246106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>4.47</v>
+        <v>1.82</v>
       </c>
       <c r="B135" t="n">
-        <v>174.22</v>
+        <v>916.3200000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>8.23</v>
+        <v>-4.31</v>
       </c>
       <c r="D135" t="n">
-        <v>1.92</v>
+        <v>0.54</v>
       </c>
       <c r="E135" t="n">
-        <v>2.005290800957751</v>
+        <v>0.9813084112149533</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>4.12</v>
+        <v>2.44</v>
       </c>
       <c r="B136" t="n">
-        <v>234.22</v>
+        <v>257.94</v>
       </c>
       <c r="C136" t="n">
-        <v>2.93</v>
+        <v>-6.44</v>
       </c>
       <c r="D136" t="n">
-        <v>3.92</v>
+        <v>1.69</v>
       </c>
       <c r="E136" t="n">
-        <v>1.7896681341881</v>
+        <v>0.8099688473520249</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3.94</v>
+        <v>2.58</v>
       </c>
       <c r="B137" t="n">
-        <v>326.5</v>
+        <v>147.93</v>
       </c>
       <c r="C137" t="n">
-        <v>0.86</v>
+        <v>1.86</v>
       </c>
       <c r="D137" t="n">
-        <v>2.14</v>
+        <v>1.4</v>
       </c>
       <c r="E137" t="n">
-        <v>1.673231894132489</v>
+        <v>0.7694704049844237</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>4.41</v>
+        <v>3</v>
       </c>
       <c r="B138" t="n">
-        <v>158.56</v>
+        <v>116.2</v>
       </c>
       <c r="C138" t="n">
-        <v>1.54</v>
+        <v>14.34</v>
       </c>
       <c r="D138" t="n">
-        <v>5.22</v>
+        <v>2.26</v>
       </c>
       <c r="E138" t="n">
-        <v>1.962166267603821</v>
+        <v>0.6292834890965732</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4.71</v>
+        <v>2.78</v>
       </c>
       <c r="B139" t="n">
-        <v>769.8200000000001</v>
+        <v>195.2</v>
       </c>
       <c r="C139" t="n">
-        <v>6.64</v>
+        <v>-1.53</v>
       </c>
       <c r="D139" t="n">
-        <v>3.51</v>
+        <v>0.82</v>
       </c>
       <c r="E139" t="n">
-        <v>2.069977600988646</v>
+        <v>0.7242990654205608</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.85</v>
+        <v>2.8</v>
       </c>
       <c r="B140" t="n">
-        <v>155.96</v>
+        <v>290.13</v>
       </c>
       <c r="C140" t="n">
-        <v>8.66</v>
+        <v>-3.28</v>
       </c>
       <c r="D140" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="E140" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6838006230529595</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>4.21</v>
+        <v>1.76</v>
       </c>
       <c r="B141" t="n">
-        <v>180.59</v>
+        <v>453.56</v>
       </c>
       <c r="C141" t="n">
-        <v>8.609999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="D141" t="n">
-        <v>2.71</v>
+        <v>2.46</v>
       </c>
       <c r="E141" t="n">
-        <v>1.837105120877423</v>
+        <v>0.9314641744548287</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>4.08</v>
+        <v>3.48</v>
       </c>
       <c r="B142" t="n">
-        <v>221.34</v>
+        <v>182.76</v>
       </c>
       <c r="C142" t="n">
-        <v>-9.859999999999999</v>
+        <v>-13</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.55</v>
+        <v>3.82</v>
       </c>
       <c r="E142" t="n">
-        <v>1.634419814113952</v>
+        <v>0.5264797507788161</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="B143" t="n">
-        <v>165.78</v>
+        <v>3939.19</v>
       </c>
       <c r="C143" t="n">
-        <v>3.12</v>
+        <v>-0.37</v>
       </c>
       <c r="D143" t="n">
-        <v>2.01</v>
+        <v>0.68</v>
       </c>
       <c r="E143" t="n">
-        <v>1.448984320692052</v>
+        <v>0.9984423676012462</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5.01</v>
+        <v>3</v>
       </c>
       <c r="B144" t="n">
-        <v>155.95</v>
+        <v>81.53</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.37</v>
+        <v>31.13</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.54</v>
+        <v>0.77</v>
       </c>
       <c r="E144" t="n">
-        <v>2.195038747715043</v>
+        <v>0.7180685358255452</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>4.37</v>
+        <v>2.61</v>
       </c>
       <c r="B145" t="n">
-        <v>236.17</v>
+        <v>112.79</v>
       </c>
       <c r="C145" t="n">
-        <v>-3.54</v>
+        <v>9.4</v>
       </c>
       <c r="D145" t="n">
-        <v>2.98</v>
+        <v>0.47</v>
       </c>
       <c r="E145" t="n">
-        <v>1.936291547591463</v>
+        <v>0.778816199376947</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.83</v>
+        <v>3.14</v>
       </c>
       <c r="B146" t="n">
-        <v>279.49</v>
+        <v>138.41</v>
       </c>
       <c r="C146" t="n">
-        <v>-1.54</v>
+        <v>8.59</v>
       </c>
       <c r="D146" t="n">
-        <v>2.72</v>
+        <v>1.94</v>
       </c>
       <c r="E146" t="n">
-        <v>1.595607734095414</v>
+        <v>0.5919003115264797</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4.82</v>
+        <v>3.03</v>
       </c>
       <c r="B147" t="n">
-        <v>250.6</v>
+        <v>293.76</v>
       </c>
       <c r="C147" t="n">
-        <v>12.35</v>
+        <v>4.91</v>
       </c>
       <c r="D147" t="n">
-        <v>3.73</v>
+        <v>2.77</v>
       </c>
       <c r="E147" t="n">
-        <v>2.156226667696506</v>
+        <v>0.6137071651090342</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>6.95</v>
+        <v>2.68</v>
       </c>
       <c r="B148" t="n">
-        <v>109.09</v>
+        <v>157.9</v>
       </c>
       <c r="C148" t="n">
-        <v>42.86</v>
+        <v>3.93</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5600000000000001</v>
+        <v>4.66</v>
       </c>
       <c r="E148" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7336448598130841</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>4.13</v>
+        <v>2.9</v>
       </c>
       <c r="B149" t="n">
-        <v>249.01</v>
+        <v>178.65</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.22</v>
+        <v>15.75</v>
       </c>
       <c r="D149" t="n">
-        <v>2.33</v>
+        <v>1.27</v>
       </c>
       <c r="E149" t="n">
-        <v>1.785355680852707</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>6.23</v>
+        <v>3</v>
       </c>
       <c r="B150" t="n">
-        <v>111.19</v>
+        <v>119</v>
       </c>
       <c r="C150" t="n">
-        <v>9.93</v>
+        <v>6.81</v>
       </c>
       <c r="D150" t="n">
-        <v>2.97</v>
+        <v>3.36</v>
       </c>
       <c r="E150" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6199376947040498</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>3.67</v>
+        <v>1.95</v>
       </c>
       <c r="B151" t="n">
-        <v>137.57</v>
+        <v>190.5</v>
       </c>
       <c r="C151" t="n">
-        <v>16.91</v>
+        <v>13.31</v>
       </c>
       <c r="D151" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="E151" t="n">
-        <v>1.47485904070441</v>
+        <v>0.8925233644859814</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>3.92</v>
+        <v>2.9</v>
       </c>
       <c r="B152" t="n">
-        <v>170.19</v>
+        <v>198.41</v>
       </c>
       <c r="C152" t="n">
-        <v>15.63</v>
+        <v>7.71</v>
       </c>
       <c r="D152" t="n">
-        <v>4.85</v>
+        <v>2.38</v>
       </c>
       <c r="E152" t="n">
-        <v>1.647357174120131</v>
+        <v>0.6510903426791277</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>4.5</v>
+        <v>2.82</v>
       </c>
       <c r="B153" t="n">
-        <v>321.16</v>
+        <v>170.46</v>
       </c>
       <c r="C153" t="n">
-        <v>10.37</v>
+        <v>-6.32</v>
       </c>
       <c r="D153" t="n">
-        <v>2.14</v>
+        <v>1.27</v>
       </c>
       <c r="E153" t="n">
-        <v>2.022540614299323</v>
+        <v>0.7087227414330218</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>3.59</v>
+        <v>1.9</v>
       </c>
       <c r="B154" t="n">
-        <v>159.51</v>
+        <v>136.59</v>
       </c>
       <c r="C154" t="n">
-        <v>-2.55</v>
+        <v>5.7</v>
       </c>
       <c r="D154" t="n">
-        <v>1.76</v>
+        <v>2.38</v>
       </c>
       <c r="E154" t="n">
-        <v>1.418797147344301</v>
+        <v>0.8940809968847352</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>5.41</v>
+        <v>2.76</v>
       </c>
       <c r="B155" t="n">
-        <v>52.12</v>
+        <v>374.06</v>
       </c>
       <c r="C155" t="n">
-        <v>17.73</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>0.68</v>
+        <v>3.95</v>
       </c>
       <c r="E155" t="n">
-        <v>2.371849334466157</v>
+        <v>0.6931464174454829</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>6.17</v>
+        <v>1.75</v>
       </c>
       <c r="B156" t="n">
-        <v>143.56</v>
+        <v>175.8</v>
       </c>
       <c r="C156" t="n">
-        <v>27.88</v>
+        <v>-3.24</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.23</v>
+        <v>0.98</v>
       </c>
       <c r="E156" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9548286604361371</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>3.98</v>
+        <v>2.48</v>
       </c>
       <c r="B157" t="n">
-        <v>202.49</v>
+        <v>165.58</v>
       </c>
       <c r="C157" t="n">
-        <v>-8.859999999999999</v>
+        <v>-3.68</v>
       </c>
       <c r="D157" t="n">
-        <v>6.47</v>
+        <v>1.02</v>
       </c>
       <c r="E157" t="n">
-        <v>1.612857547436987</v>
+        <v>0.8021806853582555</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>4.71</v>
+        <v>2.27</v>
       </c>
       <c r="B158" t="n">
-        <v>75.91</v>
+        <v>119.88</v>
       </c>
       <c r="C158" t="n">
-        <v>0.71</v>
+        <v>8.76</v>
       </c>
       <c r="D158" t="n">
-        <v>3.8</v>
+        <v>2.81</v>
       </c>
       <c r="E158" t="n">
-        <v>2.117414587677969</v>
+        <v>0.8271028037383178</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="B159" t="n">
-        <v>360.35</v>
+        <v>135.87</v>
       </c>
       <c r="C159" t="n">
-        <v>4.09</v>
+        <v>-6.78</v>
       </c>
       <c r="D159" t="n">
-        <v>2.61</v>
+        <v>0.9</v>
       </c>
       <c r="E159" t="n">
-        <v>2.341662161118406</v>
+        <v>0.9236760124610592</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>4.57</v>
+        <v>2.18</v>
       </c>
       <c r="B160" t="n">
-        <v>131.45</v>
+        <v>233.57</v>
       </c>
       <c r="C160" t="n">
-        <v>14.01</v>
+        <v>-3.9</v>
       </c>
       <c r="D160" t="n">
-        <v>3.24</v>
+        <v>-0.19</v>
       </c>
       <c r="E160" t="n">
-        <v>2.057040240982467</v>
+        <v>0.8862928348909658</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>4.62</v>
+        <v>2.95</v>
       </c>
       <c r="B161" t="n">
-        <v>146.24</v>
+        <v>273.74</v>
       </c>
       <c r="C161" t="n">
-        <v>14.35</v>
+        <v>1.61</v>
       </c>
       <c r="D161" t="n">
-        <v>4.83</v>
+        <v>1.38</v>
       </c>
       <c r="E161" t="n">
-        <v>2.078602507659432</v>
+        <v>0.6479750778816199</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.97</v>
+        <v>2.35</v>
       </c>
       <c r="B162" t="n">
-        <v>269.57</v>
+        <v>121.28</v>
       </c>
       <c r="C162" t="n">
-        <v>6.76</v>
+        <v>15.2</v>
       </c>
       <c r="D162" t="n">
-        <v>3.47</v>
+        <v>-2.33</v>
       </c>
       <c r="E162" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9252336448598131</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3.57</v>
+        <v>3.2</v>
       </c>
       <c r="B163" t="n">
-        <v>418.98</v>
+        <v>123.42</v>
       </c>
       <c r="C163" t="n">
-        <v>3.82</v>
+        <v>5.19</v>
       </c>
       <c r="D163" t="n">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="E163" t="n">
-        <v>1.414484694008908</v>
+        <v>0.5794392523364486</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>6.13</v>
+        <v>2.7</v>
       </c>
       <c r="B164" t="n">
-        <v>398.15</v>
+        <v>148.38</v>
       </c>
       <c r="C164" t="n">
-        <v>13.74</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>2.9</v>
+        <v>1.96</v>
       </c>
       <c r="E164" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7305295950155763</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>4.78</v>
+        <v>2.77</v>
       </c>
       <c r="B165" t="n">
-        <v>142.73</v>
+        <v>159.62</v>
       </c>
       <c r="C165" t="n">
-        <v>5.81</v>
+        <v>-7.09</v>
       </c>
       <c r="D165" t="n">
-        <v>2.52</v>
+        <v>5.52</v>
       </c>
       <c r="E165" t="n">
-        <v>2.14760176102572</v>
+        <v>0.7429906542056075</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4.7</v>
+        <v>2.32</v>
       </c>
       <c r="B166" t="n">
-        <v>150.2</v>
+        <v>239.99</v>
       </c>
       <c r="C166" t="n">
-        <v>42.51</v>
+        <v>-3.3</v>
       </c>
       <c r="D166" t="n">
-        <v>0.76</v>
+        <v>1.44</v>
       </c>
       <c r="E166" t="n">
-        <v>1.93197909425607</v>
+        <v>0.8317757009345794</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>3.99</v>
+        <v>2.62</v>
       </c>
       <c r="B167" t="n">
-        <v>60.86</v>
+        <v>486.07</v>
       </c>
       <c r="C167" t="n">
-        <v>14.33</v>
+        <v>6.92</v>
       </c>
       <c r="D167" t="n">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="E167" t="n">
-        <v>1.681856800803275</v>
+        <v>0.7601246105919003</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>4.33</v>
+        <v>2.9</v>
       </c>
       <c r="B168" t="n">
-        <v>110.69</v>
+        <v>305.87</v>
       </c>
       <c r="C168" t="n">
-        <v>16.65</v>
+        <v>-5.74</v>
       </c>
       <c r="D168" t="n">
-        <v>0.74</v>
+        <v>1.75</v>
       </c>
       <c r="E168" t="n">
-        <v>1.862979840889781</v>
+        <v>0.6682242990654206</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>5.02</v>
+        <v>2.12</v>
       </c>
       <c r="B169" t="n">
-        <v>386.87</v>
+        <v>161.18</v>
       </c>
       <c r="C169" t="n">
-        <v>8.44</v>
+        <v>5.78</v>
       </c>
       <c r="D169" t="n">
-        <v>5.5</v>
+        <v>1.32</v>
       </c>
       <c r="E169" t="n">
-        <v>2.238163281068974</v>
+        <v>0.8660436137071651</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>5.58</v>
+        <v>2.35</v>
       </c>
       <c r="B170" t="n">
-        <v>387.1</v>
+        <v>182.98</v>
       </c>
       <c r="C170" t="n">
-        <v>23.12</v>
+        <v>2.11</v>
       </c>
       <c r="D170" t="n">
-        <v>9.539999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="E170" t="n">
-        <v>2.345974614453799</v>
+        <v>0.8068535825545171</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4.15</v>
+        <v>2.7</v>
       </c>
       <c r="B171" t="n">
-        <v>314.44</v>
+        <v>196.26</v>
       </c>
       <c r="C171" t="n">
-        <v>8.25</v>
+        <v>5.27</v>
       </c>
       <c r="D171" t="n">
-        <v>4.99</v>
+        <v>2.42</v>
       </c>
       <c r="E171" t="n">
-        <v>1.798293040858886</v>
+        <v>0.7149532710280374</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>4.75</v>
+        <v>3.11</v>
       </c>
       <c r="B172" t="n">
-        <v>164.13</v>
+        <v>439.65</v>
       </c>
       <c r="C172" t="n">
-        <v>0.44</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D172" t="n">
-        <v>1.83</v>
+        <v>4.45</v>
       </c>
       <c r="E172" t="n">
-        <v>2.126039494348755</v>
+        <v>0.602803738317757</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>5.64</v>
+        <v>1.83</v>
       </c>
       <c r="B173" t="n">
-        <v>129.56</v>
+        <v>160.47</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.17</v>
+        <v>18.95</v>
       </c>
       <c r="D173" t="n">
-        <v>1.18</v>
+        <v>3.61</v>
       </c>
       <c r="E173" t="n">
-        <v>2.496910481192554</v>
+        <v>0.9205607476635514</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3.98</v>
+        <v>2.93</v>
       </c>
       <c r="B174" t="n">
-        <v>106.07</v>
+        <v>318.78</v>
       </c>
       <c r="C174" t="n">
-        <v>-7.56</v>
+        <v>-0.66</v>
       </c>
       <c r="D174" t="n">
-        <v>3.08</v>
+        <v>-0.67</v>
       </c>
       <c r="E174" t="n">
-        <v>1.677544347467882</v>
+        <v>0.7118380062305296</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>4</v>
+        <v>2.97</v>
       </c>
       <c r="B175" t="n">
-        <v>223.19</v>
+        <v>337.97</v>
       </c>
       <c r="C175" t="n">
-        <v>-2.07</v>
+        <v>1.08</v>
       </c>
       <c r="D175" t="n">
-        <v>2.39</v>
+        <v>0.98</v>
       </c>
       <c r="E175" t="n">
-        <v>1.716356427486419</v>
+        <v>0.6526479750778816</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>3.89</v>
+        <v>1.73</v>
       </c>
       <c r="B176" t="n">
-        <v>82.92</v>
+        <v>100.34</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.56</v>
+        <v>5.55</v>
       </c>
       <c r="D176" t="n">
-        <v>1.1</v>
+        <v>2.88</v>
       </c>
       <c r="E176" t="n">
-        <v>1.591295280760022</v>
+        <v>0.9283489096573209</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>5.7</v>
+        <v>3.48</v>
       </c>
       <c r="B177" t="n">
-        <v>221.8</v>
+        <v>413.51</v>
       </c>
       <c r="C177" t="n">
-        <v>2.31</v>
+        <v>-17.99</v>
       </c>
       <c r="D177" t="n">
-        <v>4.02</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6308411214953271</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>4.85</v>
+        <v>3.23</v>
       </c>
       <c r="B178" t="n">
-        <v>97.98999999999999</v>
+        <v>311.28</v>
       </c>
       <c r="C178" t="n">
-        <v>5.24</v>
+        <v>-2.24</v>
       </c>
       <c r="D178" t="n">
-        <v>2.79</v>
+        <v>2.22</v>
       </c>
       <c r="E178" t="n">
-        <v>2.173476481038078</v>
+        <v>0.5669781931464174</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>4.35</v>
+        <v>2.69</v>
       </c>
       <c r="B179" t="n">
-        <v>364.69</v>
+        <v>99.14</v>
       </c>
       <c r="C179" t="n">
-        <v>-7.17</v>
+        <v>-1.94</v>
       </c>
       <c r="D179" t="n">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="E179" t="n">
-        <v>1.83279266754203</v>
+        <v>0.7725856697819314</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>4.91</v>
+        <v>2.26</v>
       </c>
       <c r="B180" t="n">
-        <v>99.23</v>
+        <v>172.09</v>
       </c>
       <c r="C180" t="n">
-        <v>7.75</v>
+        <v>-1.58</v>
       </c>
       <c r="D180" t="n">
-        <v>0.75</v>
+        <v>-1.48</v>
       </c>
       <c r="E180" t="n">
-        <v>2.182101387708864</v>
+        <v>0.9112149532710281</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>5.3</v>
+        <v>2.62</v>
       </c>
       <c r="B181" t="n">
-        <v>461.55</v>
+        <v>181.61</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.5600000000000001</v>
+        <v>5.13</v>
       </c>
       <c r="D181" t="n">
-        <v>3.8</v>
+        <v>2.64</v>
       </c>
       <c r="E181" t="n">
-        <v>2.350287067789192</v>
+        <v>0.7414330218068536</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>5.58</v>
+        <v>3.52</v>
       </c>
       <c r="B182" t="n">
-        <v>129.87</v>
+        <v>242.06</v>
       </c>
       <c r="C182" t="n">
-        <v>3.13</v>
+        <v>24.71</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.21</v>
+        <v>3.48</v>
       </c>
       <c r="E182" t="n">
-        <v>2.436536134497052</v>
+        <v>0.5109034267912772</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3.85</v>
+        <v>2.87</v>
       </c>
       <c r="B183" t="n">
-        <v>192.39</v>
+        <v>154.13</v>
       </c>
       <c r="C183" t="n">
-        <v>14.37</v>
+        <v>11.78</v>
       </c>
       <c r="D183" t="n">
-        <v>3.55</v>
+        <v>-0.21</v>
       </c>
       <c r="E183" t="n">
-        <v>1.61717000077238</v>
+        <v>0.7165109034267912</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>6.15</v>
+        <v>3.02</v>
       </c>
       <c r="B184" t="n">
-        <v>164.54</v>
+        <v>188.59</v>
       </c>
       <c r="C184" t="n">
-        <v>-4.58</v>
+        <v>26.51</v>
       </c>
       <c r="D184" t="n">
-        <v>1.22</v>
+        <v>6.76</v>
       </c>
       <c r="E184" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7102803738317757</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>5.61</v>
+        <v>3.13</v>
       </c>
       <c r="B185" t="n">
-        <v>345.8</v>
+        <v>250.91</v>
       </c>
       <c r="C185" t="n">
-        <v>0.26</v>
+        <v>-8.99</v>
       </c>
       <c r="D185" t="n">
-        <v>3.89</v>
+        <v>1.85</v>
       </c>
       <c r="E185" t="n">
-        <v>2.496910481192554</v>
+        <v>0.6121495327102804</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>5.22</v>
+        <v>1.89</v>
       </c>
       <c r="B186" t="n">
-        <v>278.96</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="C186" t="n">
-        <v>16.96</v>
+        <v>10.47</v>
       </c>
       <c r="D186" t="n">
-        <v>2.96</v>
+        <v>0.48</v>
       </c>
       <c r="E186" t="n">
-        <v>2.320099894441441</v>
+        <v>0.9345794392523364</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>5.12</v>
+        <v>2.35</v>
       </c>
       <c r="B187" t="n">
-        <v>294.35</v>
+        <v>281.55</v>
       </c>
       <c r="C187" t="n">
-        <v>45.62</v>
+        <v>-11.04</v>
       </c>
       <c r="D187" t="n">
-        <v>10.9</v>
+        <v>-1.33</v>
       </c>
       <c r="E187" t="n">
-        <v>1.944916454262249</v>
+        <v>0.9080996884735203</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>4.47</v>
+        <v>3.36</v>
       </c>
       <c r="B188" t="n">
-        <v>145.93</v>
+        <v>248.58</v>
       </c>
       <c r="C188" t="n">
-        <v>10.09</v>
+        <v>4.75</v>
       </c>
       <c r="D188" t="n">
-        <v>1.81</v>
+        <v>2.47</v>
       </c>
       <c r="E188" t="n">
-        <v>2.000978347622357</v>
+        <v>0.5280373831775701</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>5.55</v>
+        <v>3.09</v>
       </c>
       <c r="B189" t="n">
-        <v>147.28</v>
+        <v>200.75</v>
       </c>
       <c r="C189" t="n">
-        <v>53.95</v>
+        <v>-8.1</v>
       </c>
       <c r="D189" t="n">
-        <v>1.75</v>
+        <v>-1.9</v>
       </c>
       <c r="E189" t="n">
-        <v>2.272662907752117</v>
+        <v>0.7320872274143302</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>4.91</v>
+        <v>3.54</v>
       </c>
       <c r="B190" t="n">
-        <v>129.11</v>
+        <v>306.58</v>
       </c>
       <c r="C190" t="n">
-        <v>10.55</v>
+        <v>0.24</v>
       </c>
       <c r="D190" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="E190" t="n">
-        <v>2.186413841044257</v>
+        <v>0.5015576323987538</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5.33</v>
+        <v>1.85</v>
       </c>
       <c r="B191" t="n">
-        <v>275.51</v>
+        <v>406.31</v>
       </c>
       <c r="C191" t="n">
-        <v>-3.85</v>
+        <v>12.82</v>
       </c>
       <c r="D191" t="n">
-        <v>5.6</v>
+        <v>6.65</v>
       </c>
       <c r="E191" t="n">
-        <v>2.358911974459978</v>
+        <v>0.9579439252336449</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>5.28</v>
+        <v>1.79</v>
       </c>
       <c r="B192" t="n">
-        <v>207.97</v>
+        <v>472.99</v>
       </c>
       <c r="C192" t="n">
-        <v>-5.75</v>
+        <v>17.49</v>
       </c>
       <c r="D192" t="n">
-        <v>1.63</v>
+        <v>2.38</v>
       </c>
       <c r="E192" t="n">
-        <v>2.328724801112227</v>
+        <v>0.9439252336448598</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="B193" t="n">
-        <v>165.03</v>
+        <v>128.58</v>
       </c>
       <c r="C193" t="n">
-        <v>8.91</v>
+        <v>28.21</v>
       </c>
       <c r="D193" t="n">
-        <v>0.68</v>
+        <v>4.21</v>
       </c>
       <c r="E193" t="n">
-        <v>1.599920187430808</v>
+        <v>0.8255451713395638</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>4.5</v>
+        <v>2.07</v>
       </c>
       <c r="B194" t="n">
-        <v>690.1900000000001</v>
+        <v>148.93</v>
       </c>
       <c r="C194" t="n">
-        <v>5.23</v>
+        <v>-4.97</v>
       </c>
       <c r="D194" t="n">
-        <v>2.54</v>
+        <v>6.42</v>
       </c>
       <c r="E194" t="n">
-        <v>1.966478720939214</v>
+        <v>0.9158878504672897</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>5.13</v>
+        <v>2.77</v>
       </c>
       <c r="B195" t="n">
-        <v>277.46</v>
+        <v>351.51</v>
       </c>
       <c r="C195" t="n">
-        <v>8.720000000000001</v>
+        <v>-0.89</v>
       </c>
       <c r="D195" t="n">
-        <v>3.56</v>
+        <v>2.74</v>
       </c>
       <c r="E195" t="n">
-        <v>2.294225174429083</v>
+        <v>0.6915887850467289</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>5.09</v>
+        <v>3.04</v>
       </c>
       <c r="B196" t="n">
-        <v>332.37</v>
+        <v>52.85</v>
       </c>
       <c r="C196" t="n">
-        <v>4.29</v>
+        <v>15.5</v>
       </c>
       <c r="D196" t="n">
-        <v>4.03</v>
+        <v>0.62</v>
       </c>
       <c r="E196" t="n">
-        <v>2.264038001081332</v>
+        <v>0.6495327102803738</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>4.39</v>
+        <v>2.8</v>
       </c>
       <c r="B197" t="n">
-        <v>160.33</v>
+        <v>271.83</v>
       </c>
       <c r="C197" t="n">
-        <v>0.5600000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D197" t="n">
-        <v>2.7</v>
+        <v>3.97</v>
       </c>
       <c r="E197" t="n">
-        <v>1.957853814268428</v>
+        <v>0.6744548286604362</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="B198" t="n">
-        <v>306.58</v>
+        <v>137.1</v>
       </c>
       <c r="C198" t="n">
-        <v>0.24</v>
+        <v>16.64</v>
       </c>
       <c r="D198" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="E198" t="n">
-        <v>1.384297520661157</v>
+        <v>0.5249221183800623</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>4.47</v>
+        <v>2.64</v>
       </c>
       <c r="B199" t="n">
-        <v>387.29</v>
+        <v>555.7</v>
       </c>
       <c r="C199" t="n">
-        <v>4.28</v>
+        <v>-6.74</v>
       </c>
       <c r="D199" t="n">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="E199" t="n">
-        <v>2.013915707628537</v>
+        <v>0.780373831775701</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3.69</v>
+        <v>1.79</v>
       </c>
       <c r="B200" t="n">
-        <v>225.57</v>
+        <v>238.03</v>
       </c>
       <c r="C200" t="n">
-        <v>5.58</v>
+        <v>-0.65</v>
       </c>
       <c r="D200" t="n">
-        <v>3.1</v>
+        <v>-0.5</v>
       </c>
       <c r="E200" t="n">
-        <v>1.51798357405834</v>
+        <v>0.9657320872274143</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3.98</v>
+        <v>2.8</v>
       </c>
       <c r="B201" t="n">
-        <v>128.58</v>
+        <v>229.88</v>
       </c>
       <c r="C201" t="n">
-        <v>16.12</v>
+        <v>4.58</v>
       </c>
       <c r="D201" t="n">
-        <v>1.94</v>
+        <v>3.05</v>
       </c>
       <c r="E201" t="n">
-        <v>1.686169254138668</v>
+        <v>0.6713395638629284</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5.39</v>
+        <v>2.06</v>
       </c>
       <c r="B202" t="n">
-        <v>200.16</v>
+        <v>104.96</v>
       </c>
       <c r="C202" t="n">
-        <v>-4.11</v>
+        <v>5.6</v>
       </c>
       <c r="D202" t="n">
-        <v>2.54</v>
+        <v>0.75</v>
       </c>
       <c r="E202" t="n">
-        <v>2.389099147807729</v>
+        <v>0.8847352024922118</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>5.17</v>
+        <v>2.77</v>
       </c>
       <c r="B203" t="n">
-        <v>176.83</v>
+        <v>125.97</v>
       </c>
       <c r="C203" t="n">
-        <v>-8.289999999999999</v>
+        <v>-8.630000000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>4.1</v>
+        <v>-1.54</v>
       </c>
       <c r="E203" t="n">
-        <v>2.28991272109369</v>
+        <v>0.8193146417445483</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>6.36</v>
+        <v>3.52</v>
       </c>
       <c r="B204" t="n">
-        <v>74.84</v>
+        <v>144.69</v>
       </c>
       <c r="C204" t="n">
-        <v>4.47</v>
+        <v>-9.18</v>
       </c>
       <c r="D204" t="n">
-        <v>2.11</v>
+        <v>2.53</v>
       </c>
       <c r="E204" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5093457943925234</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>4.93</v>
+        <v>3.48</v>
       </c>
       <c r="B205" t="n">
-        <v>103.14</v>
+        <v>1733.22</v>
       </c>
       <c r="C205" t="n">
-        <v>0.33</v>
+        <v>1.49</v>
       </c>
       <c r="D205" t="n">
-        <v>1.28</v>
+        <v>4.74</v>
       </c>
       <c r="E205" t="n">
-        <v>2.199351201050436</v>
+        <v>0.9766355140186916</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>6.32</v>
+        <v>1.93</v>
       </c>
       <c r="B206" t="n">
-        <v>173.47</v>
+        <v>231.36</v>
       </c>
       <c r="C206" t="n">
-        <v>11.04</v>
+        <v>-7.15</v>
       </c>
       <c r="D206" t="n">
-        <v>8.050000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E206" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9330218068535826</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>12.1</v>
+        <v>2.98</v>
       </c>
       <c r="B207" t="n">
-        <v>154.9</v>
+        <v>124.45</v>
       </c>
       <c r="C207" t="n">
-        <v>-6.15</v>
+        <v>16.71</v>
       </c>
       <c r="D207" t="n">
-        <v>0.76</v>
+        <v>0.33</v>
       </c>
       <c r="E207" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6651090342679128</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3.51</v>
+        <v>2.71</v>
       </c>
       <c r="B208" t="n">
-        <v>135.98</v>
+        <v>187.6</v>
       </c>
       <c r="C208" t="n">
-        <v>14.67</v>
+        <v>-1.52</v>
       </c>
       <c r="D208" t="n">
-        <v>3.52</v>
+        <v>0.5</v>
       </c>
       <c r="E208" t="n">
-        <v>1.392922427331943</v>
+        <v>0.7523364485981309</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>4.49</v>
+        <v>3.18</v>
       </c>
       <c r="B209" t="n">
-        <v>115.65</v>
+        <v>202.24</v>
       </c>
       <c r="C209" t="n">
-        <v>30.63</v>
+        <v>-2.48</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.17</v>
+        <v>2.62</v>
       </c>
       <c r="E209" t="n">
-        <v>1.867292294225174</v>
+        <v>0.5841121495327103</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>4.63</v>
+        <v>2.68</v>
       </c>
       <c r="B210" t="n">
-        <v>115.58</v>
+        <v>218.76</v>
       </c>
       <c r="C210" t="n">
-        <v>10.28</v>
+        <v>29.39</v>
       </c>
       <c r="D210" t="n">
-        <v>3.01</v>
+        <v>8.81</v>
       </c>
       <c r="E210" t="n">
-        <v>2.100164774336397</v>
+        <v>0.8878504672897196</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>4.35</v>
+        <v>2.82</v>
       </c>
       <c r="B211" t="n">
-        <v>137.13</v>
+        <v>225.5</v>
       </c>
       <c r="C211" t="n">
-        <v>20.85</v>
+        <v>1.64</v>
       </c>
       <c r="D211" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="E211" t="n">
-        <v>1.910416827579104</v>
+        <v>0.6697819314641744</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>4.06</v>
+        <v>2.34</v>
       </c>
       <c r="B212" t="n">
-        <v>103.74</v>
+        <v>327.04</v>
       </c>
       <c r="C212" t="n">
-        <v>0.78</v>
+        <v>-13.29</v>
       </c>
       <c r="D212" t="n">
-        <v>1.24</v>
+        <v>-2.67</v>
       </c>
       <c r="E212" t="n">
-        <v>1.737918694163384</v>
+        <v>0.9704049844236761</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>4.26</v>
+        <v>2.72</v>
       </c>
       <c r="B213" t="n">
-        <v>121.37</v>
+        <v>139.56</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.73</v>
+        <v>4.17</v>
       </c>
       <c r="D213" t="n">
-        <v>1.47</v>
+        <v>2.45</v>
       </c>
       <c r="E213" t="n">
-        <v>1.841417574212816</v>
+        <v>0.7071651090342679</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>4.6</v>
+        <v>3.09</v>
       </c>
       <c r="B214" t="n">
-        <v>114.95</v>
+        <v>104.28</v>
       </c>
       <c r="C214" t="n">
-        <v>5.71</v>
+        <v>24.49</v>
       </c>
       <c r="D214" t="n">
-        <v>7.6</v>
+        <v>7.55</v>
       </c>
       <c r="E214" t="n">
-        <v>2.009603254293144</v>
+        <v>0.7133956386292835</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>5.39</v>
+        <v>1.95</v>
       </c>
       <c r="B215" t="n">
-        <v>237.01</v>
+        <v>151.15</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.47</v>
+        <v>-15.05</v>
       </c>
       <c r="D215" t="n">
-        <v>2.89</v>
+        <v>1.69</v>
       </c>
       <c r="E215" t="n">
-        <v>2.402036507813908</v>
+        <v>0.9470404984423676</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>5.65</v>
+        <v>3.33</v>
       </c>
       <c r="B216" t="n">
-        <v>193.67</v>
+        <v>146.78</v>
       </c>
       <c r="C216" t="n">
-        <v>-2.15</v>
+        <v>17.51</v>
       </c>
       <c r="D216" t="n">
-        <v>0.61</v>
+        <v>3.12</v>
       </c>
       <c r="E216" t="n">
-        <v>2.496910481192554</v>
+        <v>0.5358255451713395</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>4.34</v>
+        <v>2.28</v>
       </c>
       <c r="B217" t="n">
-        <v>649.2</v>
+        <v>158.57</v>
       </c>
       <c r="C217" t="n">
-        <v>2.75</v>
+        <v>3.09</v>
       </c>
       <c r="D217" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="E217" t="n">
-        <v>1.845730027548209</v>
+        <v>0.8286604361370716</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3.68</v>
+        <v>1.77</v>
       </c>
       <c r="B218" t="n">
-        <v>115.52</v>
+        <v>388.87</v>
       </c>
       <c r="C218" t="n">
-        <v>19.75</v>
+        <v>-5.71</v>
       </c>
       <c r="D218" t="n">
-        <v>3.04</v>
+        <v>0.15</v>
       </c>
       <c r="E218" t="n">
-        <v>1.487796400710589</v>
+        <v>0.9672897196261683</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>4.98</v>
+        <v>2.2</v>
       </c>
       <c r="B219" t="n">
-        <v>107.07</v>
+        <v>142.24</v>
       </c>
       <c r="C219" t="n">
-        <v>26.55</v>
+        <v>21.01</v>
       </c>
       <c r="D219" t="n">
-        <v>6.76</v>
+        <v>2.3</v>
       </c>
       <c r="E219" t="n">
-        <v>2.151914214361113</v>
+        <v>0.8551401869158879</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>5.67</v>
+        <v>3.14</v>
       </c>
       <c r="B220" t="n">
-        <v>136.27</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="C220" t="n">
-        <v>-6.79</v>
+        <v>-4.72</v>
       </c>
       <c r="D220" t="n">
-        <v>0.63</v>
+        <v>-0.35</v>
       </c>
       <c r="E220" t="n">
-        <v>2.466723307844803</v>
+        <v>0.6433021806853583</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>5</v>
+        <v>2.13</v>
       </c>
       <c r="B221" t="n">
-        <v>207.5</v>
+        <v>177.23</v>
       </c>
       <c r="C221" t="n">
-        <v>11.65</v>
+        <v>-8.07</v>
       </c>
       <c r="D221" t="n">
-        <v>2.68</v>
+        <v>-0.01</v>
       </c>
       <c r="E221" t="n">
-        <v>2.24678818773976</v>
+        <v>0.9065420560747663</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>6.04</v>
+        <v>2.76</v>
       </c>
       <c r="B222" t="n">
-        <v>105.04</v>
+        <v>189.29</v>
       </c>
       <c r="C222" t="n">
-        <v>2.11</v>
+        <v>1.51</v>
       </c>
       <c r="D222" t="n">
-        <v>2.08</v>
+        <v>3.58</v>
       </c>
       <c r="E222" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6853582554517134</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3.67</v>
+        <v>3.51</v>
       </c>
       <c r="B223" t="n">
-        <v>178.86</v>
+        <v>465.02</v>
       </c>
       <c r="C223" t="n">
-        <v>6.94</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D223" t="n">
-        <v>4.1</v>
+        <v>3.69</v>
       </c>
       <c r="E223" t="n">
-        <v>1.496421307381375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>4.78</v>
+        <v>2.72</v>
       </c>
       <c r="B224" t="n">
-        <v>469.09</v>
+        <v>220.46</v>
       </c>
       <c r="C224" t="n">
-        <v>3.97</v>
+        <v>9.69</v>
       </c>
       <c r="D224" t="n">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="E224" t="n">
-        <v>2.138976854354934</v>
+        <v>0.7040498442367601</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>5.57</v>
+        <v>3.38</v>
       </c>
       <c r="B225" t="n">
-        <v>312.7</v>
+        <v>91.44</v>
       </c>
       <c r="C225" t="n">
-        <v>3.98</v>
+        <v>14.43</v>
       </c>
       <c r="D225" t="n">
-        <v>0.63</v>
+        <v>1.84</v>
       </c>
       <c r="E225" t="n">
-        <v>2.445161041167838</v>
+        <v>0.5311526479750779</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>4.2</v>
+        <v>2.35</v>
       </c>
       <c r="B226" t="n">
-        <v>306.71</v>
+        <v>1637.73</v>
       </c>
       <c r="C226" t="n">
-        <v>-2.34</v>
+        <v>4.23</v>
       </c>
       <c r="D226" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="E226" t="n">
-        <v>1.802605494194279</v>
+        <v>0.9937694704049844</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3.74</v>
+        <v>1.93</v>
       </c>
       <c r="B227" t="n">
-        <v>140.42</v>
+        <v>91.15000000000001</v>
       </c>
       <c r="C227" t="n">
-        <v>6.69</v>
+        <v>2.73</v>
       </c>
       <c r="D227" t="n">
-        <v>2.78</v>
+        <v>2.56</v>
       </c>
       <c r="E227" t="n">
-        <v>1.543858294070698</v>
+        <v>0.8894080996884736</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>4.27</v>
+        <v>1.76</v>
       </c>
       <c r="B228" t="n">
-        <v>123.98</v>
+        <v>447.24</v>
       </c>
       <c r="C228" t="n">
-        <v>11.42</v>
+        <v>-22.54</v>
       </c>
       <c r="D228" t="n">
-        <v>5.51</v>
+        <v>0.91</v>
       </c>
       <c r="E228" t="n">
-        <v>1.850042480883602</v>
+        <v>0.9797507788161994</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>5.18</v>
+        <v>2.66</v>
       </c>
       <c r="B229" t="n">
-        <v>132</v>
+        <v>89.7</v>
       </c>
       <c r="C229" t="n">
-        <v>15.16</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="E229" t="n">
-        <v>2.307162534435262</v>
+        <v>0.7383177570093458</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>6.33</v>
+        <v>2.63</v>
       </c>
       <c r="B230" t="n">
-        <v>157.64</v>
+        <v>113.54</v>
       </c>
       <c r="C230" t="n">
-        <v>1.88</v>
+        <v>13.96</v>
       </c>
       <c r="D230" t="n">
-        <v>1.16</v>
+        <v>5.23</v>
       </c>
       <c r="E230" t="n">
-        <v>2.768595041322314</v>
+        <v>0.764797507788162</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3.51</v>
+        <v>2.56</v>
       </c>
       <c r="B231" t="n">
-        <v>465.02</v>
+        <v>482.88</v>
       </c>
       <c r="C231" t="n">
-        <v>8.050000000000001</v>
+        <v>4.46</v>
       </c>
       <c r="D231" t="n">
-        <v>3.69</v>
+        <v>2.93</v>
       </c>
       <c r="E231" t="n">
-        <v>1.38860997399655</v>
+        <v>0.7741433021806854</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3.98</v>
+        <v>2.5</v>
       </c>
       <c r="B232" t="n">
-        <v>150.98</v>
+        <v>247.7</v>
       </c>
       <c r="C232" t="n">
-        <v>22.43</v>
+        <v>7.31</v>
       </c>
       <c r="D232" t="n">
-        <v>2.95</v>
+        <v>1.45</v>
       </c>
       <c r="E232" t="n">
-        <v>1.668919440797096</v>
+        <v>0.7866043613707165</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3.77</v>
+        <v>3.26</v>
       </c>
       <c r="B233" t="n">
-        <v>294.36</v>
+        <v>119.01</v>
       </c>
       <c r="C233" t="n">
-        <v>6.95</v>
+        <v>6.8</v>
       </c>
       <c r="D233" t="n">
-        <v>5.05</v>
+        <v>1.3</v>
       </c>
       <c r="E233" t="n">
-        <v>1.556795654076877</v>
+        <v>0.5607476635514018</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>4.12</v>
+        <v>3.18</v>
       </c>
       <c r="B234" t="n">
-        <v>101.01</v>
+        <v>285.03</v>
       </c>
       <c r="C234" t="n">
-        <v>5.31</v>
+        <v>-0.03</v>
       </c>
       <c r="D234" t="n">
-        <v>1.22</v>
+        <v>3.09</v>
       </c>
       <c r="E234" t="n">
-        <v>1.763793414175742</v>
+        <v>0.5763239875389408</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="B235" t="n">
-        <v>180.88</v>
+        <v>152.85</v>
       </c>
       <c r="C235" t="n">
-        <v>-9.82</v>
+        <v>-0.86</v>
       </c>
       <c r="D235" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="E235" t="n">
-        <v>1.720668880821812</v>
+        <v>0.8738317757009346</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>4.26</v>
+        <v>2.96</v>
       </c>
       <c r="B236" t="n">
-        <v>203.57</v>
+        <v>216.63</v>
       </c>
       <c r="C236" t="n">
-        <v>-2.02</v>
+        <v>3.31</v>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="E236" t="n">
-        <v>1.87591720089596</v>
+        <v>0.6355140186915887</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>3.9</v>
+        <v>1.96</v>
       </c>
       <c r="B237" t="n">
-        <v>119.84</v>
+        <v>1102.84</v>
       </c>
       <c r="C237" t="n">
-        <v>8.44</v>
+        <v>6.07</v>
       </c>
       <c r="D237" t="n">
-        <v>0.83</v>
+        <v>2.75</v>
       </c>
       <c r="E237" t="n">
-        <v>1.6042326407662</v>
+        <v>0.9828660436137072</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>5.7</v>
+        <v>2.87</v>
       </c>
       <c r="B238" t="n">
-        <v>208.31</v>
+        <v>369.17</v>
       </c>
       <c r="C238" t="n">
-        <v>8.02</v>
+        <v>-4.77</v>
       </c>
       <c r="D238" t="n">
-        <v>2.01</v>
+        <v>-2.37</v>
       </c>
       <c r="E238" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8130841121495327</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>4.46</v>
+        <v>3.21</v>
       </c>
       <c r="B239" t="n">
-        <v>158.09</v>
+        <v>134.2</v>
       </c>
       <c r="C239" t="n">
-        <v>-4.18</v>
+        <v>-20.06</v>
       </c>
       <c r="D239" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="E239" t="n">
-        <v>1.953541360933035</v>
+        <v>0.6542056074766355</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3.96</v>
+        <v>2.77</v>
       </c>
       <c r="B240" t="n">
-        <v>159.87</v>
+        <v>237.08</v>
       </c>
       <c r="C240" t="n">
-        <v>8.07</v>
+        <v>-0.85</v>
       </c>
       <c r="D240" t="n">
-        <v>4.48</v>
+        <v>1.02</v>
       </c>
       <c r="E240" t="n">
-        <v>1.694794160809454</v>
+        <v>0.721183800623053</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>5.75</v>
+        <v>2.3</v>
       </c>
       <c r="B241" t="n">
-        <v>257.54</v>
+        <v>181.7</v>
       </c>
       <c r="C241" t="n">
-        <v>-1.16</v>
+        <v>-12.65</v>
       </c>
       <c r="D241" t="n">
-        <v>2.75</v>
+        <v>1.34</v>
       </c>
       <c r="E241" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8566978193146417</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>5.63</v>
+        <v>3.29</v>
       </c>
       <c r="B242" t="n">
-        <v>98.14</v>
+        <v>98.02</v>
       </c>
       <c r="C242" t="n">
-        <v>4.72</v>
+        <v>-7.83</v>
       </c>
       <c r="D242" t="n">
-        <v>0.96</v>
+        <v>1.88</v>
       </c>
       <c r="E242" t="n">
-        <v>2.496910481192554</v>
+        <v>0.5700934579439252</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>6.18</v>
+        <v>1.79</v>
       </c>
       <c r="B243" t="n">
-        <v>268.69</v>
+        <v>175.48</v>
       </c>
       <c r="C243" t="n">
-        <v>9.890000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="E243" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9299065420560748</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>7.56</v>
+        <v>3.17</v>
       </c>
       <c r="B244" t="n">
-        <v>126.27</v>
+        <v>126.62</v>
       </c>
       <c r="C244" t="n">
-        <v>-9.4</v>
+        <v>10.18</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.48</v>
+        <v>4.37</v>
       </c>
       <c r="E244" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5872274143302181</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>4.93</v>
+        <v>3.4</v>
       </c>
       <c r="B245" t="n">
-        <v>206.5</v>
+        <v>201.33</v>
       </c>
       <c r="C245" t="n">
-        <v>2.69</v>
+        <v>8.17</v>
       </c>
       <c r="D245" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="E245" t="n">
-        <v>2.212288561056615</v>
+        <v>0.5218068535825545</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>5.3</v>
+        <v>1.93</v>
       </c>
       <c r="B246" t="n">
-        <v>358.98</v>
+        <v>420.57</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.85</v>
+        <v>15.86</v>
       </c>
       <c r="D246" t="n">
-        <v>4.6</v>
+        <v>2.65</v>
       </c>
       <c r="E246" t="n">
-        <v>2.354599521124585</v>
+        <v>0.8987538940809969</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>5.48</v>
+        <v>2.74</v>
       </c>
       <c r="B247" t="n">
-        <v>144.93</v>
+        <v>363.61</v>
       </c>
       <c r="C247" t="n">
-        <v>26.49</v>
+        <v>3.47</v>
       </c>
       <c r="D247" t="n">
-        <v>4.4</v>
+        <v>0.97</v>
       </c>
       <c r="E247" t="n">
-        <v>2.406348961149301</v>
+        <v>0.7289719626168224</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.7</v>
+        <v>3.41</v>
       </c>
       <c r="B248" t="n">
-        <v>132.23</v>
+        <v>242.52</v>
       </c>
       <c r="C248" t="n">
-        <v>6.9</v>
+        <v>9.9</v>
       </c>
       <c r="D248" t="n">
-        <v>2.83</v>
+        <v>5.93</v>
       </c>
       <c r="E248" t="n">
-        <v>1.513671120722947</v>
+        <v>0.5342679127725857</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>6.61</v>
+        <v>2.84</v>
       </c>
       <c r="B249" t="n">
-        <v>93.75</v>
+        <v>122.51</v>
       </c>
       <c r="C249" t="n">
-        <v>2.05</v>
+        <v>-2.6</v>
       </c>
       <c r="D249" t="n">
-        <v>1.15</v>
+        <v>0.67</v>
       </c>
       <c r="E249" t="n">
-        <v>2.768595041322314</v>
+        <v>0.705607476635514</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>4.05</v>
+        <v>2.24</v>
       </c>
       <c r="B250" t="n">
-        <v>312.39</v>
+        <v>280.21</v>
       </c>
       <c r="C250" t="n">
-        <v>11.58</v>
+        <v>1.54</v>
       </c>
       <c r="D250" t="n">
-        <v>4.66</v>
+        <v>2.73</v>
       </c>
       <c r="E250" t="n">
-        <v>1.750856054169563</v>
+        <v>0.8302180685358256</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3.87</v>
+        <v>2.67</v>
       </c>
       <c r="B251" t="n">
-        <v>100.04</v>
+        <v>206.67</v>
       </c>
       <c r="C251" t="n">
-        <v>23.24</v>
+        <v>16.46</v>
       </c>
       <c r="D251" t="n">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="E251" t="n">
-        <v>1.569733014083056</v>
+        <v>0.735202492211838</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>6.92</v>
+        <v>1.74</v>
       </c>
       <c r="B252" t="n">
-        <v>262.88</v>
+        <v>105.63</v>
       </c>
       <c r="C252" t="n">
-        <v>-2.3</v>
+        <v>3.03</v>
       </c>
       <c r="D252" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="E252" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9376947040498442</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3.77</v>
+        <v>1.86</v>
       </c>
       <c r="B253" t="n">
-        <v>340.68</v>
+        <v>8468.610000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>27.3</v>
+        <v>-0.77</v>
       </c>
       <c r="D253" t="n">
-        <v>1.53</v>
+        <v>3.75</v>
       </c>
       <c r="E253" t="n">
-        <v>1.479171494039803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>4.54</v>
+        <v>1.79</v>
       </c>
       <c r="B254" t="n">
-        <v>193.4</v>
+        <v>728.3200000000001</v>
       </c>
       <c r="C254" t="n">
-        <v>13.12</v>
+        <v>56.02</v>
       </c>
       <c r="D254" t="n">
-        <v>3.43</v>
+        <v>2.21</v>
       </c>
       <c r="E254" t="n">
-        <v>2.048415334311681</v>
+        <v>0.9875389408099688</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>5.26</v>
+        <v>2.69</v>
       </c>
       <c r="B255" t="n">
-        <v>163.48</v>
+        <v>228.57</v>
       </c>
       <c r="C255" t="n">
-        <v>-6.22</v>
+        <v>-3.97</v>
       </c>
       <c r="D255" t="n">
-        <v>0.52</v>
+        <v>1.9</v>
       </c>
       <c r="E255" t="n">
-        <v>2.311474987770655</v>
+        <v>0.7367601246105919</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3.93</v>
+        <v>2.55</v>
       </c>
       <c r="B256" t="n">
-        <v>155.54</v>
+        <v>175.88</v>
       </c>
       <c r="C256" t="n">
-        <v>2.69</v>
+        <v>3.69</v>
       </c>
       <c r="D256" t="n">
-        <v>1.74</v>
+        <v>2.97</v>
       </c>
       <c r="E256" t="n">
-        <v>1.655982080790917</v>
+        <v>0.7585669781931464</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>6.71</v>
+        <v>1.82</v>
       </c>
       <c r="B257" t="n">
-        <v>123.63</v>
+        <v>216.11</v>
       </c>
       <c r="C257" t="n">
-        <v>-1.43</v>
+        <v>0.61</v>
       </c>
       <c r="D257" t="n">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="E257" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9221183800623053</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>6.84</v>
+        <v>3.08</v>
       </c>
       <c r="B258" t="n">
-        <v>158.66</v>
+        <v>192.58</v>
       </c>
       <c r="C258" t="n">
-        <v>-2.42</v>
+        <v>11.58</v>
       </c>
       <c r="D258" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="E258" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5996884735202492</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>8.41</v>
+        <v>2</v>
       </c>
       <c r="B259" t="n">
-        <v>139.45</v>
+        <v>405.23</v>
       </c>
       <c r="C259" t="n">
-        <v>-2.15</v>
+        <v>12.86</v>
       </c>
       <c r="D259" t="n">
-        <v>0.26</v>
+        <v>0.79</v>
       </c>
       <c r="E259" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9034267912772586</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3.95</v>
+        <v>3.54</v>
       </c>
       <c r="B260" t="n">
-        <v>410.18</v>
+        <v>123.8</v>
       </c>
       <c r="C260" t="n">
-        <v>36.32</v>
+        <v>5.4</v>
       </c>
       <c r="D260" t="n">
-        <v>6.72</v>
+        <v>0.48</v>
       </c>
       <c r="E260" t="n">
-        <v>1.461921680698231</v>
+        <v>0.5062305295950156</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>4.61</v>
+        <v>2.66</v>
       </c>
       <c r="B261" t="n">
-        <v>161.35</v>
+        <v>191.16</v>
       </c>
       <c r="C261" t="n">
-        <v>-4.14</v>
+        <v>-2.45</v>
       </c>
       <c r="D261" t="n">
-        <v>3.37</v>
+        <v>1.12</v>
       </c>
       <c r="E261" t="n">
-        <v>2.074290054324039</v>
+        <v>0.7538940809968847</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>4.59</v>
+        <v>2.17</v>
       </c>
       <c r="B262" t="n">
-        <v>352.8</v>
+        <v>255.13</v>
       </c>
       <c r="C262" t="n">
-        <v>-2.36</v>
+        <v>2.08</v>
       </c>
       <c r="D262" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="E262" t="n">
-        <v>2.06135269431786</v>
+        <v>0.8473520249221184</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>5.92</v>
+        <v>3.03</v>
       </c>
       <c r="B263" t="n">
-        <v>278.81</v>
+        <v>144.26</v>
       </c>
       <c r="C263" t="n">
-        <v>-2.6</v>
+        <v>22.36</v>
       </c>
       <c r="D263" t="n">
-        <v>4.18</v>
+        <v>1.65</v>
       </c>
       <c r="E263" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6448598130841121</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>4.42</v>
+        <v>2.11</v>
       </c>
       <c r="B264" t="n">
-        <v>222.27</v>
+        <v>404.03</v>
       </c>
       <c r="C264" t="n">
-        <v>9.210000000000001</v>
+        <v>63.19</v>
       </c>
       <c r="D264" t="n">
-        <v>4.2</v>
+        <v>-0.72</v>
       </c>
       <c r="E264" t="n">
-        <v>1.992353440951572</v>
+        <v>0.9922118380062306</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.78</v>
+        <v>3.29</v>
       </c>
       <c r="B265" t="n">
-        <v>182.57</v>
+        <v>179.36</v>
       </c>
       <c r="C265" t="n">
-        <v>0.73</v>
+        <v>10.69</v>
       </c>
       <c r="D265" t="n">
-        <v>1.97</v>
+        <v>4.75</v>
       </c>
       <c r="E265" t="n">
-        <v>1.56110810741227</v>
+        <v>0.5498442367601246</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>5.21</v>
+        <v>1.99</v>
       </c>
       <c r="B266" t="n">
-        <v>54.68</v>
+        <v>160.99</v>
       </c>
       <c r="C266" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="D266" t="n">
-        <v>0.54</v>
+        <v>2.36</v>
       </c>
       <c r="E266" t="n">
-        <v>2.298537627764476</v>
+        <v>0.8753894080996885</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3.61</v>
+        <v>3.35</v>
       </c>
       <c r="B267" t="n">
-        <v>165.61</v>
+        <v>195.18</v>
       </c>
       <c r="C267" t="n">
-        <v>-2.76</v>
+        <v>0.05</v>
       </c>
       <c r="D267" t="n">
-        <v>4.67</v>
+        <v>2.2</v>
       </c>
       <c r="E267" t="n">
-        <v>1.444671867356659</v>
+        <v>0.5327102803738317</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3.64</v>
+        <v>2.52</v>
       </c>
       <c r="B268" t="n">
-        <v>165.52</v>
+        <v>171.39</v>
       </c>
       <c r="C268" t="n">
-        <v>7.33</v>
+        <v>2.9</v>
       </c>
       <c r="D268" t="n">
-        <v>2.66</v>
+        <v>-0.21</v>
       </c>
       <c r="E268" t="n">
-        <v>1.492108854045982</v>
+        <v>0.8161993769470405</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>6.1</v>
+        <v>2.59</v>
       </c>
       <c r="B269" t="n">
-        <v>227.93</v>
+        <v>149.71</v>
       </c>
       <c r="C269" t="n">
-        <v>17.26</v>
+        <v>6.17</v>
       </c>
       <c r="D269" t="n">
-        <v>4.2</v>
+        <v>3.57</v>
       </c>
       <c r="E269" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7461059190031153</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3.69</v>
+        <v>3.18</v>
       </c>
       <c r="B270" t="n">
-        <v>215.08</v>
+        <v>237.9</v>
       </c>
       <c r="C270" t="n">
-        <v>24.46</v>
+        <v>2.74</v>
       </c>
       <c r="D270" t="n">
-        <v>3.23</v>
+        <v>2.05</v>
       </c>
       <c r="E270" t="n">
-        <v>1.470546587369017</v>
+        <v>0.5809968847352025</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>6.99</v>
+        <v>3.07</v>
       </c>
       <c r="B271" t="n">
-        <v>282.94</v>
+        <v>119.82</v>
       </c>
       <c r="C271" t="n">
-        <v>3.14</v>
+        <v>5.61</v>
       </c>
       <c r="D271" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="E271" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6074766355140186</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3.95</v>
+        <v>3.23</v>
       </c>
       <c r="B272" t="n">
-        <v>133.44</v>
+        <v>220.88</v>
       </c>
       <c r="C272" t="n">
-        <v>13.16</v>
+        <v>-7.71</v>
       </c>
       <c r="D272" t="n">
-        <v>1.16</v>
+        <v>1.89</v>
       </c>
       <c r="E272" t="n">
-        <v>1.651669627455524</v>
+        <v>0.5856697819314641</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3.53</v>
+        <v>2.13</v>
       </c>
       <c r="B273" t="n">
-        <v>126.18</v>
+        <v>257.41</v>
       </c>
       <c r="C273" t="n">
-        <v>6.81</v>
+        <v>8.57</v>
       </c>
       <c r="D273" t="n">
-        <v>2.9</v>
+        <v>1.28</v>
       </c>
       <c r="E273" t="n">
-        <v>1.410172240673515</v>
+        <v>0.8598130841121495</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3.83</v>
+        <v>2.75</v>
       </c>
       <c r="B274" t="n">
-        <v>228.31</v>
+        <v>197.39</v>
       </c>
       <c r="C274" t="n">
-        <v>9.73</v>
+        <v>2.97</v>
       </c>
       <c r="D274" t="n">
-        <v>3.49</v>
+        <v>2.7</v>
       </c>
       <c r="E274" t="n">
-        <v>1.608545094101594</v>
+        <v>0.6884735202492211</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>4.61</v>
+        <v>3.21</v>
       </c>
       <c r="B275" t="n">
-        <v>149.7</v>
+        <v>199.7</v>
       </c>
       <c r="C275" t="n">
-        <v>6.77</v>
+        <v>-2.55</v>
       </c>
       <c r="D275" t="n">
-        <v>3.41</v>
+        <v>0.44</v>
       </c>
       <c r="E275" t="n">
-        <v>2.091539867665611</v>
+        <v>0.5965732087227414</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>5.36</v>
+        <v>2.42</v>
       </c>
       <c r="B276" t="n">
-        <v>289.45</v>
+        <v>165.49</v>
       </c>
       <c r="C276" t="n">
-        <v>5.33</v>
+        <v>10.58</v>
       </c>
       <c r="D276" t="n">
-        <v>3.35</v>
+        <v>2.47</v>
       </c>
       <c r="E276" t="n">
-        <v>2.389099147807729</v>
+        <v>0.794392523364486</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>4.46</v>
+        <v>1.87</v>
       </c>
       <c r="B277" t="n">
-        <v>218.2</v>
+        <v>104.46</v>
       </c>
       <c r="C277" t="n">
-        <v>0.5600000000000001</v>
+        <v>-7.08</v>
       </c>
       <c r="D277" t="n">
-        <v>1.94</v>
+        <v>0.98</v>
       </c>
       <c r="E277" t="n">
-        <v>1.996665894286965</v>
+        <v>0.9485981308411215</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>5.57</v>
+        <v>2.2</v>
       </c>
       <c r="B278" t="n">
-        <v>165.76</v>
+        <v>156.3</v>
       </c>
       <c r="C278" t="n">
-        <v>22.86</v>
+        <v>40.48</v>
       </c>
       <c r="D278" t="n">
-        <v>3.11</v>
+        <v>3.8</v>
       </c>
       <c r="E278" t="n">
-        <v>2.466723307844803</v>
+        <v>0.9517133956386293</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3.67</v>
+        <v>2.64</v>
       </c>
       <c r="B279" t="n">
-        <v>133.84</v>
+        <v>99.08</v>
       </c>
       <c r="C279" t="n">
-        <v>21.56</v>
+        <v>-1.79</v>
       </c>
       <c r="D279" t="n">
-        <v>1.22</v>
+        <v>0.44</v>
       </c>
       <c r="E279" t="n">
-        <v>1.436046960685873</v>
+        <v>0.7819314641744548</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>6.46</v>
+        <v>2.79</v>
       </c>
       <c r="B280" t="n">
-        <v>712.03</v>
+        <v>255.92</v>
       </c>
       <c r="C280" t="n">
-        <v>5.85</v>
+        <v>27.1</v>
       </c>
       <c r="D280" t="n">
-        <v>3.94</v>
+        <v>1.54</v>
       </c>
       <c r="E280" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7445482866043613</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>4.39</v>
+        <v>2.46</v>
       </c>
       <c r="B281" t="n">
-        <v>196.19</v>
+        <v>51.19</v>
       </c>
       <c r="C281" t="n">
-        <v>6.94</v>
+        <v>21.78</v>
       </c>
       <c r="D281" t="n">
-        <v>2.97</v>
+        <v>1.66</v>
       </c>
       <c r="E281" t="n">
-        <v>1.970791174274607</v>
+        <v>0.8208722741433022</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>5.13</v>
+        <v>2.48</v>
       </c>
       <c r="B282" t="n">
-        <v>436.71</v>
+        <v>151.64</v>
       </c>
       <c r="C282" t="n">
-        <v>0.83</v>
+        <v>32.78</v>
       </c>
       <c r="D282" t="n">
-        <v>4.16</v>
+        <v>3.05</v>
       </c>
       <c r="E282" t="n">
-        <v>2.27697536108751</v>
+        <v>0.8364485981308412</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3.78</v>
+        <v>2.8</v>
       </c>
       <c r="B283" t="n">
-        <v>116.32</v>
+        <v>508.35</v>
       </c>
       <c r="C283" t="n">
-        <v>10.03</v>
+        <v>2.03</v>
       </c>
       <c r="D283" t="n">
-        <v>1.33</v>
+        <v>2.71</v>
       </c>
       <c r="E283" t="n">
-        <v>1.539545840735306</v>
+        <v>0.6947040498442367</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>4.21</v>
+        <v>2.71</v>
       </c>
       <c r="B284" t="n">
-        <v>136.6</v>
+        <v>263.88</v>
       </c>
       <c r="C284" t="n">
-        <v>0.53</v>
+        <v>3.61</v>
       </c>
       <c r="D284" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="E284" t="n">
-        <v>1.824167760871244</v>
+        <v>0.719626168224299</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3.94</v>
+        <v>2.32</v>
       </c>
       <c r="B285" t="n">
-        <v>180.16</v>
+        <v>142.83</v>
       </c>
       <c r="C285" t="n">
-        <v>12.99</v>
+        <v>0.43</v>
       </c>
       <c r="D285" t="n">
-        <v>1.98</v>
+        <v>0.22</v>
       </c>
       <c r="E285" t="n">
-        <v>1.664606987461703</v>
+        <v>0.8489096573208723</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="B286" t="n">
-        <v>158.59</v>
+        <v>99</v>
       </c>
       <c r="C286" t="n">
-        <v>2.81</v>
+        <v>16.32</v>
       </c>
       <c r="D286" t="n">
-        <v>1.77</v>
+        <v>2.42</v>
       </c>
       <c r="E286" t="n">
-        <v>1.578357920753843</v>
+        <v>0.6043613707165109</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3.94</v>
+        <v>2.94</v>
       </c>
       <c r="B287" t="n">
-        <v>226.01</v>
+        <v>321.34</v>
       </c>
       <c r="C287" t="n">
-        <v>-2.63</v>
+        <v>2.72</v>
       </c>
       <c r="D287" t="n">
-        <v>1.12</v>
+        <v>3.24</v>
       </c>
       <c r="E287" t="n">
-        <v>1.638732267449345</v>
+        <v>0.6386292834890965</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3.59</v>
+        <v>2.78</v>
       </c>
       <c r="B288" t="n">
-        <v>208.33</v>
+        <v>181.16</v>
       </c>
       <c r="C288" t="n">
-        <v>-1.98</v>
+        <v>7.57</v>
       </c>
       <c r="D288" t="n">
-        <v>2.02</v>
+        <v>1.66</v>
       </c>
       <c r="E288" t="n">
-        <v>1.43173450735048</v>
+        <v>0.6869158878504673</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>4.44</v>
+        <v>3.19</v>
       </c>
       <c r="B289" t="n">
-        <v>391.39</v>
+        <v>189.13</v>
       </c>
       <c r="C289" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="D289" t="n">
-        <v>2.12</v>
+        <v>2.97</v>
       </c>
       <c r="E289" t="n">
-        <v>1.983728534280786</v>
+        <v>0.5747663551401869</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>5.09</v>
+        <v>3.44</v>
       </c>
       <c r="B290" t="n">
-        <v>217.45</v>
+        <v>470.51</v>
       </c>
       <c r="C290" t="n">
-        <v>6.42</v>
+        <v>28.86</v>
       </c>
       <c r="D290" t="n">
-        <v>4.39</v>
+        <v>3.51</v>
       </c>
       <c r="E290" t="n">
-        <v>2.268350454416725</v>
+        <v>0.5467289719626168</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>4.49</v>
+        <v>3.53</v>
       </c>
       <c r="B291" t="n">
-        <v>422.37</v>
+        <v>102.95</v>
       </c>
       <c r="C291" t="n">
-        <v>9.74</v>
+        <v>11.45</v>
       </c>
       <c r="D291" t="n">
-        <v>3.59</v>
+        <v>0.17</v>
       </c>
       <c r="E291" t="n">
-        <v>2.01822816096393</v>
+        <v>0.5171339563862928</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>10.46</v>
+        <v>3.29</v>
       </c>
       <c r="B292" t="n">
-        <v>155.39</v>
+        <v>318.41</v>
       </c>
       <c r="C292" t="n">
-        <v>9.08</v>
+        <v>-6.03</v>
       </c>
       <c r="D292" t="n">
-        <v>5.9</v>
+        <v>3.05</v>
       </c>
       <c r="E292" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5529595015576324</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>5.25</v>
+        <v>1.81</v>
       </c>
       <c r="B293" t="n">
-        <v>185.67</v>
+        <v>53.54</v>
       </c>
       <c r="C293" t="n">
-        <v>9.92</v>
+        <v>-2.88</v>
       </c>
       <c r="D293" t="n">
-        <v>1.19</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E293" t="n">
-        <v>2.324412347776834</v>
+        <v>0.9750778816199377</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3.7</v>
+        <v>2.13</v>
       </c>
       <c r="B294" t="n">
-        <v>138.57</v>
+        <v>210.96</v>
       </c>
       <c r="C294" t="n">
-        <v>3.05</v>
+        <v>10.93</v>
       </c>
       <c r="D294" t="n">
-        <v>0.38</v>
+        <v>3.67</v>
       </c>
       <c r="E294" t="n">
-        <v>1.466234134033624</v>
+        <v>0.8535825545171339</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>4.57</v>
+        <v>2.93</v>
       </c>
       <c r="B295" t="n">
-        <v>141.98</v>
+        <v>147.44</v>
       </c>
       <c r="C295" t="n">
-        <v>5.02</v>
+        <v>4.07</v>
       </c>
       <c r="D295" t="n">
-        <v>3.35</v>
+        <v>1.96</v>
       </c>
       <c r="E295" t="n">
-        <v>2.065665147653253</v>
+        <v>0.6464174454828661</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>7.71</v>
+        <v>2.06</v>
       </c>
       <c r="B296" t="n">
-        <v>239.54</v>
+        <v>128.9</v>
       </c>
       <c r="C296" t="n">
-        <v>16.57</v>
+        <v>8.4</v>
       </c>
       <c r="D296" t="n">
-        <v>3.41</v>
+        <v>2.47</v>
       </c>
       <c r="E296" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8707165109034268</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>6.33</v>
+        <v>2.44</v>
       </c>
       <c r="B297" t="n">
-        <v>183.91</v>
+        <v>238.97</v>
       </c>
       <c r="C297" t="n">
-        <v>1.56</v>
+        <v>2.69</v>
       </c>
       <c r="D297" t="n">
-        <v>3.16</v>
+        <v>2.36</v>
       </c>
       <c r="E297" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7881619937694704</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>4.66</v>
+        <v>2.07</v>
       </c>
       <c r="B298" t="n">
-        <v>173.55</v>
+        <v>376.66</v>
       </c>
       <c r="C298" t="n">
-        <v>6.98</v>
+        <v>-3.94</v>
       </c>
       <c r="D298" t="n">
-        <v>0.85</v>
+        <v>1.36</v>
       </c>
       <c r="E298" t="n">
-        <v>2.087227414330218</v>
+        <v>0.881619937694704</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>5.68</v>
+        <v>3.1</v>
       </c>
       <c r="B299" t="n">
-        <v>179.15</v>
+        <v>320.08</v>
       </c>
       <c r="C299" t="n">
-        <v>3.11</v>
+        <v>28.13</v>
       </c>
       <c r="D299" t="n">
-        <v>1.88</v>
+        <v>6.78</v>
       </c>
       <c r="E299" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6822429906542056</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>5.01</v>
+        <v>3.51</v>
       </c>
       <c r="B300" t="n">
-        <v>527.4</v>
+        <v>127.3</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.13</v>
+        <v>7.22</v>
       </c>
       <c r="D300" t="n">
-        <v>5.6</v>
+        <v>0.66</v>
       </c>
       <c r="E300" t="n">
-        <v>2.225225921062794</v>
+        <v>0.5124610591900312</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>6.93</v>
+        <v>3.03</v>
       </c>
       <c r="B301" t="n">
-        <v>145.99</v>
+        <v>181.33</v>
       </c>
       <c r="C301" t="n">
-        <v>13.67</v>
+        <v>8.44</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.53</v>
+        <v>2.24</v>
       </c>
       <c r="E301" t="n">
-        <v>2.768595041322314</v>
+        <v>0.616822429906542</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>4.26</v>
+        <v>3.2</v>
       </c>
       <c r="B302" t="n">
-        <v>140.12</v>
+        <v>193</v>
       </c>
       <c r="C302" t="n">
-        <v>0.2</v>
+        <v>6.63</v>
       </c>
       <c r="D302" t="n">
-        <v>2.39</v>
+        <v>3.82</v>
       </c>
       <c r="E302" t="n">
-        <v>1.871604747560567</v>
+        <v>0.5654205607476636</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>5.9</v>
+        <v>3.12</v>
       </c>
       <c r="B303" t="n">
-        <v>141.69</v>
+        <v>226.98</v>
       </c>
       <c r="C303" t="n">
-        <v>40.43</v>
+        <v>-0.32</v>
       </c>
       <c r="D303" t="n">
-        <v>3.21</v>
+        <v>2.83</v>
       </c>
       <c r="E303" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5934579439252337</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3.76</v>
+        <v>3</v>
       </c>
       <c r="B304" t="n">
-        <v>122.78</v>
+        <v>148.22</v>
       </c>
       <c r="C304" t="n">
-        <v>10.72</v>
+        <v>16.49</v>
       </c>
       <c r="D304" t="n">
-        <v>3.12</v>
+        <v>1.3</v>
       </c>
       <c r="E304" t="n">
-        <v>1.552483200741484</v>
+        <v>0.6417445482866043</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>6.31</v>
+        <v>2.33</v>
       </c>
       <c r="B305" t="n">
-        <v>113.79</v>
+        <v>147.87</v>
       </c>
       <c r="C305" t="n">
-        <v>14.08</v>
+        <v>17.74</v>
       </c>
       <c r="D305" t="n">
-        <v>0.6</v>
+        <v>9.25</v>
       </c>
       <c r="E305" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9595015576323987</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3.64</v>
+        <v>1.98</v>
       </c>
       <c r="B306" t="n">
-        <v>164.95</v>
+        <v>341.79</v>
       </c>
       <c r="C306" t="n">
-        <v>24.7</v>
+        <v>-7.36</v>
       </c>
       <c r="D306" t="n">
-        <v>3.18</v>
+        <v>1.99</v>
       </c>
       <c r="E306" t="n">
-        <v>1.427422054015087</v>
+        <v>0.9018691588785047</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>4.57</v>
+        <v>3.28</v>
       </c>
       <c r="B307" t="n">
-        <v>173.32</v>
+        <v>154.93</v>
       </c>
       <c r="C307" t="n">
-        <v>-27.95</v>
+        <v>5.67</v>
       </c>
       <c r="D307" t="n">
-        <v>0.91</v>
+        <v>2.01</v>
       </c>
       <c r="E307" t="n">
-        <v>1.854354934218995</v>
+        <v>0.5451713395638629</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>6.71</v>
+        <v>2.51</v>
       </c>
       <c r="B308" t="n">
-        <v>111.04</v>
+        <v>113.51</v>
       </c>
       <c r="C308" t="n">
-        <v>-3.68</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="D308" t="n">
-        <v>0.93</v>
+        <v>1.69</v>
       </c>
       <c r="E308" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7850467289719626</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>4.18</v>
+        <v>3.19</v>
       </c>
       <c r="B309" t="n">
-        <v>332.24</v>
+        <v>1155.6</v>
       </c>
       <c r="C309" t="n">
-        <v>-5.71</v>
+        <v>19.42</v>
       </c>
       <c r="D309" t="n">
-        <v>1.58</v>
+        <v>4.05</v>
       </c>
       <c r="E309" t="n">
-        <v>1.781043227517314</v>
+        <v>0.7897196261682243</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>4.79</v>
+        <v>2.76</v>
       </c>
       <c r="B310" t="n">
-        <v>703.72</v>
+        <v>692.37</v>
       </c>
       <c r="C310" t="n">
-        <v>13.01</v>
+        <v>-0.16</v>
       </c>
       <c r="D310" t="n">
-        <v>2.17</v>
+        <v>1.27</v>
       </c>
       <c r="E310" t="n">
-        <v>2.113102134342576</v>
+        <v>0.7710280373831776</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>5.42</v>
+        <v>2.66</v>
       </c>
       <c r="B311" t="n">
-        <v>121.51</v>
+        <v>114.96</v>
       </c>
       <c r="C311" t="n">
-        <v>3.18</v>
+        <v>3.82</v>
       </c>
       <c r="D311" t="n">
-        <v>1.17</v>
+        <v>-1.15</v>
       </c>
       <c r="E311" t="n">
-        <v>2.402036507813908</v>
+        <v>0.8052959501557633</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>5.93</v>
+        <v>3.4</v>
       </c>
       <c r="B312" t="n">
-        <v>137.1</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="C312" t="n">
-        <v>3.28</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D312" t="n">
-        <v>3.84</v>
+        <v>2.07</v>
       </c>
       <c r="E312" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5233644859813084</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>5.77</v>
+        <v>2.92</v>
       </c>
       <c r="B313" t="n">
-        <v>224.76</v>
+        <v>185.07</v>
       </c>
       <c r="C313" t="n">
-        <v>0.92</v>
+        <v>12.89</v>
       </c>
       <c r="D313" t="n">
-        <v>2.93</v>
+        <v>4.66</v>
       </c>
       <c r="E313" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6573208722741433</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>4.53</v>
+        <v>3.08</v>
       </c>
       <c r="B314" t="n">
-        <v>147.78</v>
+        <v>171.42</v>
       </c>
       <c r="C314" t="n">
-        <v>6.16</v>
+        <v>3.34</v>
       </c>
       <c r="D314" t="n">
-        <v>4.88</v>
+        <v>3.97</v>
       </c>
       <c r="E314" t="n">
-        <v>2.035477974305502</v>
+        <v>0.6012461059190031</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>4.36</v>
+        <v>2.74</v>
       </c>
       <c r="B315" t="n">
-        <v>183.19</v>
+        <v>209.41</v>
       </c>
       <c r="C315" t="n">
-        <v>0.92</v>
+        <v>-18.18</v>
       </c>
       <c r="D315" t="n">
-        <v>2.1</v>
+        <v>0.79</v>
       </c>
       <c r="E315" t="n">
-        <v>1.923354187585284</v>
+        <v>0.7928348909657321</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>7.24</v>
+        <v>3.3</v>
       </c>
       <c r="B316" t="n">
-        <v>137.95</v>
+        <v>293.06</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.85</v>
+        <v>2.41</v>
       </c>
       <c r="D316" t="n">
-        <v>2.33</v>
+        <v>1.93</v>
       </c>
       <c r="E316" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5373831775700935</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3.72</v>
+        <v>2.99</v>
       </c>
       <c r="B317" t="n">
-        <v>114.42</v>
+        <v>190.12</v>
       </c>
       <c r="C317" t="n">
-        <v>7.3</v>
+        <v>51.86</v>
       </c>
       <c r="D317" t="n">
-        <v>3.63</v>
+        <v>1.32</v>
       </c>
       <c r="E317" t="n">
-        <v>1.526608480729126</v>
+        <v>0.8442367601246106</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>5.31</v>
+        <v>2.25</v>
       </c>
       <c r="B318" t="n">
-        <v>235.34</v>
+        <v>250.55</v>
       </c>
       <c r="C318" t="n">
-        <v>10.38</v>
+        <v>-10.67</v>
       </c>
       <c r="D318" t="n">
-        <v>3.4</v>
+        <v>-5.34</v>
       </c>
       <c r="E318" t="n">
-        <v>2.367536881130764</v>
+        <v>0.985981308411215</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>6.42</v>
+        <v>2.45</v>
       </c>
       <c r="B319" t="n">
-        <v>132.62</v>
+        <v>759.36</v>
       </c>
       <c r="C319" t="n">
-        <v>-4.66</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D319" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="E319" t="n">
-        <v>2.768595041322314</v>
+        <v>0.883177570093458</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>4</v>
+        <v>1.81</v>
       </c>
       <c r="B320" t="n">
-        <v>149.28</v>
+        <v>378.07</v>
       </c>
       <c r="C320" t="n">
-        <v>8.050000000000001</v>
+        <v>-4.06</v>
       </c>
       <c r="D320" t="n">
-        <v>2.73</v>
+        <v>2.14</v>
       </c>
       <c r="E320" t="n">
-        <v>1.729293787492598</v>
+        <v>0.926791277258567</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4.59</v>
+        <v>2.41</v>
       </c>
       <c r="B321" t="n">
-        <v>164.11</v>
+        <v>100.54</v>
       </c>
       <c r="C321" t="n">
-        <v>6.62</v>
+        <v>29.25</v>
       </c>
       <c r="D321" t="n">
-        <v>0.26</v>
+        <v>2.91</v>
       </c>
       <c r="E321" t="n">
-        <v>2.026853067634716</v>
+        <v>0.8395638629283489</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>5.37</v>
+        <v>3.23</v>
       </c>
       <c r="B322" t="n">
-        <v>121.43</v>
+        <v>119.19</v>
       </c>
       <c r="C322" t="n">
-        <v>21.59</v>
+        <v>0.89</v>
       </c>
       <c r="D322" t="n">
-        <v>1.36</v>
+        <v>2.33</v>
       </c>
       <c r="E322" t="n">
-        <v>2.363224427795371</v>
+        <v>0.5638629283489096</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>5.01</v>
+        <v>3.12</v>
       </c>
       <c r="B323" t="n">
-        <v>183.72</v>
+        <v>145.78</v>
       </c>
       <c r="C323" t="n">
-        <v>23.62</v>
+        <v>1.83</v>
       </c>
       <c r="D323" t="n">
-        <v>4.88</v>
+        <v>5.33</v>
       </c>
       <c r="E323" t="n">
-        <v>2.229538374398187</v>
+        <v>0.6105919003115264</v>
       </c>
     </row>
   </sheetData>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E323"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,5476 +450,5272 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="B2" t="n">
-        <v>203.16</v>
+        <v>132.03</v>
       </c>
       <c r="C2" t="n">
-        <v>-13.96</v>
+        <v>7.32</v>
       </c>
       <c r="D2" t="n">
-        <v>1.21</v>
+        <v>5.11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.627831715210356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.87</v>
+        <v>5.58</v>
       </c>
       <c r="B3" t="n">
-        <v>165.67</v>
+        <v>219.8</v>
       </c>
       <c r="C3" t="n">
-        <v>8.56</v>
+        <v>0.58</v>
       </c>
       <c r="D3" t="n">
-        <v>2.36</v>
+        <v>6.62</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9003115264797508</v>
+        <v>0.93042071197411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.18</v>
+        <v>3.7</v>
       </c>
       <c r="B4" t="n">
-        <v>211.73</v>
+        <v>160.44</v>
       </c>
       <c r="C4" t="n">
-        <v>10.54</v>
+        <v>6.99</v>
       </c>
       <c r="D4" t="n">
-        <v>4.21</v>
+        <v>6.63</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5778816199376947</v>
+        <v>0.6019417475728155</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.32</v>
+        <v>4.35</v>
       </c>
       <c r="B5" t="n">
-        <v>147.55</v>
+        <v>167.94</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.28</v>
+        <v>27.33</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>3.71</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8457943925233645</v>
+        <v>0.7200647249190939</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.08</v>
+        <v>5.96</v>
       </c>
       <c r="B6" t="n">
-        <v>306.64</v>
+        <v>274.68</v>
       </c>
       <c r="C6" t="n">
-        <v>23.06</v>
+        <v>15.9</v>
       </c>
       <c r="D6" t="n">
-        <v>5.86</v>
+        <v>6.19</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9127725856697819</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.28</v>
+        <v>5.93</v>
       </c>
       <c r="B7" t="n">
-        <v>104.13</v>
+        <v>223.9</v>
       </c>
       <c r="C7" t="n">
-        <v>17.79</v>
+        <v>8.18</v>
       </c>
       <c r="D7" t="n">
-        <v>0.21</v>
+        <v>4.58</v>
       </c>
       <c r="E7" t="n">
-        <v>0.867601246105919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.49</v>
+        <v>4.28</v>
       </c>
       <c r="B8" t="n">
-        <v>272.98</v>
+        <v>359.06</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.88</v>
+        <v>14.8</v>
       </c>
       <c r="D8" t="n">
-        <v>2.07</v>
+        <v>5.29</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5077881619937694</v>
+        <v>0.7168284789644013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.79</v>
+        <v>6.45</v>
       </c>
       <c r="B9" t="n">
-        <v>180.89</v>
+        <v>124.45</v>
       </c>
       <c r="C9" t="n">
-        <v>7.36</v>
+        <v>3.98</v>
       </c>
       <c r="D9" t="n">
-        <v>1.01</v>
+        <v>2.83</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9361370716510904</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.22</v>
+        <v>4.24</v>
       </c>
       <c r="B10" t="n">
-        <v>104.65</v>
+        <v>233.35</v>
       </c>
       <c r="C10" t="n">
-        <v>5.15</v>
+        <v>3.09</v>
       </c>
       <c r="D10" t="n">
-        <v>1.79</v>
+        <v>7.62</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8411214953271028</v>
+        <v>0.7119741100323624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.98</v>
+        <v>5.73</v>
       </c>
       <c r="B11" t="n">
-        <v>113.8</v>
+        <v>225.07</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41</v>
+        <v>0.95</v>
       </c>
       <c r="D11" t="n">
-        <v>0.62</v>
+        <v>3.61</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9096573208722741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.96</v>
+        <v>5.65</v>
       </c>
       <c r="B12" t="n">
-        <v>191.62</v>
+        <v>120.23</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.47</v>
+        <v>18.33</v>
       </c>
       <c r="D12" t="n">
-        <v>2.76</v>
+        <v>4.91</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6401869158878505</v>
+        <v>0.93042071197411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.44</v>
+        <v>3.73</v>
       </c>
       <c r="B13" t="n">
-        <v>187.84</v>
+        <v>142.21</v>
       </c>
       <c r="C13" t="n">
-        <v>1.38</v>
+        <v>16.27</v>
       </c>
       <c r="D13" t="n">
-        <v>4.99</v>
+        <v>3.4</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7990654205607477</v>
+        <v>0.5970873786407767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.92</v>
+        <v>5.33</v>
       </c>
       <c r="B14" t="n">
-        <v>114.07</v>
+        <v>130.29</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.65</v>
+        <v>-3.92</v>
       </c>
       <c r="D14" t="n">
-        <v>1.39</v>
+        <v>2.76</v>
       </c>
       <c r="E14" t="n">
-        <v>0.661993769470405</v>
+        <v>0.8867313915857605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="B15" t="n">
-        <v>406.47</v>
+        <v>121.38</v>
       </c>
       <c r="C15" t="n">
-        <v>0.85</v>
+        <v>-1.79</v>
       </c>
       <c r="D15" t="n">
-        <v>3.14</v>
+        <v>2.64</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5186915887850467</v>
+        <v>0.5679611650485437</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.86</v>
+        <v>4.35</v>
       </c>
       <c r="B16" t="n">
-        <v>147.51</v>
+        <v>164.64</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.21</v>
+        <v>5.87</v>
       </c>
       <c r="D16" t="n">
-        <v>3.07</v>
+        <v>1.58</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6775700934579439</v>
+        <v>0.7378640776699029</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.85</v>
+        <v>6.03</v>
       </c>
       <c r="B17" t="n">
-        <v>190.95</v>
+        <v>148.13</v>
       </c>
       <c r="C17" t="n">
-        <v>12.09</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>6.29</v>
+        <v>4.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9501557632398754</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.87</v>
+        <v>4.78</v>
       </c>
       <c r="B18" t="n">
-        <v>288.54</v>
+        <v>159.28</v>
       </c>
       <c r="C18" t="n">
-        <v>7.91</v>
+        <v>4.39</v>
       </c>
       <c r="D18" t="n">
-        <v>0.74</v>
+        <v>3.07</v>
       </c>
       <c r="E18" t="n">
-        <v>0.67601246105919</v>
+        <v>0.8203883495145631</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.01</v>
+        <v>4.79</v>
       </c>
       <c r="B19" t="n">
-        <v>1071.62</v>
+        <v>146.93</v>
       </c>
       <c r="C19" t="n">
-        <v>5.71</v>
+        <v>2.08</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>4.99</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9781931464174455</v>
+        <v>0.8252427184466019</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2.29</v>
+        <v>5.27</v>
       </c>
       <c r="B20" t="n">
-        <v>188.06</v>
+        <v>229.74</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.49</v>
+        <v>-0.18</v>
       </c>
       <c r="D20" t="n">
-        <v>6.74</v>
+        <v>5.44</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8722741433021807</v>
+        <v>0.8851132686084142</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2.64</v>
+        <v>4.39</v>
       </c>
       <c r="B21" t="n">
-        <v>208.33</v>
+        <v>192.51</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.38</v>
+        <v>15.15</v>
       </c>
       <c r="D21" t="n">
-        <v>1.1</v>
+        <v>7.89</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7834890965732088</v>
+        <v>0.7524271844660194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.3</v>
+        <v>4.69</v>
       </c>
       <c r="B22" t="n">
-        <v>90.29000000000001</v>
+        <v>217.83</v>
       </c>
       <c r="C22" t="n">
-        <v>11.61</v>
+        <v>9.84</v>
       </c>
       <c r="D22" t="n">
-        <v>2.27</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5420560747663551</v>
+        <v>0.8106796116504854</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2.85</v>
+        <v>3.69</v>
       </c>
       <c r="B23" t="n">
-        <v>925.5599999999999</v>
+        <v>285.65</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.41</v>
+        <v>4.63</v>
       </c>
       <c r="D23" t="n">
-        <v>1.29</v>
+        <v>3.87</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8177570093457944</v>
+        <v>0.5922330097087378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.44</v>
+        <v>3.93</v>
       </c>
       <c r="B24" t="n">
-        <v>499.79</v>
+        <v>114.19</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.85</v>
+        <v>-9.789999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.24</v>
+        <v>2.67</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5560747663551402</v>
+        <v>0.6262135922330098</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.15</v>
+        <v>5.59</v>
       </c>
       <c r="B25" t="n">
-        <v>146.17</v>
+        <v>147.57</v>
       </c>
       <c r="C25" t="n">
-        <v>15.19</v>
+        <v>-5.3</v>
       </c>
       <c r="D25" t="n">
-        <v>0.85</v>
+        <v>3.51</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6090342679127726</v>
+        <v>0.9223300970873787</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.89</v>
+        <v>3.83</v>
       </c>
       <c r="B26" t="n">
-        <v>212.55</v>
+        <v>99.67</v>
       </c>
       <c r="C26" t="n">
-        <v>10.67</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>3.01</v>
+        <v>2.37</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8909657320872274</v>
+        <v>0.6181229773462783</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.19</v>
+        <v>5.97</v>
       </c>
       <c r="B27" t="n">
-        <v>481.75</v>
+        <v>147.9</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.17</v>
+        <v>3.18</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.95</v>
+        <v>2.6</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9174454828660437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.97</v>
+        <v>5.51</v>
       </c>
       <c r="B28" t="n">
-        <v>88.73</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.53</v>
+        <v>36.52</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.35</v>
+        <v>3.04</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9532710280373832</v>
+        <v>0.8915857605177994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.87</v>
+        <v>4.22</v>
       </c>
       <c r="B29" t="n">
-        <v>267.43</v>
+        <v>148.83</v>
       </c>
       <c r="C29" t="n">
-        <v>3.06</v>
+        <v>8.83</v>
       </c>
       <c r="D29" t="n">
-        <v>2.62</v>
+        <v>3.23</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8956386292834891</v>
+        <v>0.7071197411003236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.39</v>
+        <v>4.07</v>
       </c>
       <c r="B30" t="n">
-        <v>88.43000000000001</v>
+        <v>122.11</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.4</v>
+        <v>-1.32</v>
       </c>
       <c r="D30" t="n">
-        <v>0.52</v>
+        <v>2.41</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5404984423676013</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="B31" t="n">
-        <v>218.86</v>
+        <v>170.03</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.84</v>
+        <v>3.59</v>
       </c>
       <c r="D31" t="n">
-        <v>2.11</v>
+        <v>5.05</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5887850467289719</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.93</v>
+        <v>4.2</v>
       </c>
       <c r="B32" t="n">
-        <v>221.31</v>
+        <v>134.02</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.300000000000001</v>
+        <v>6.64</v>
       </c>
       <c r="D32" t="n">
-        <v>2.69</v>
+        <v>1.95</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9143302180685359</v>
+        <v>0.686084142394822</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.12</v>
+        <v>3.82</v>
       </c>
       <c r="B33" t="n">
-        <v>292.86</v>
+        <v>254.42</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.07</v>
+        <v>23.34</v>
       </c>
       <c r="D33" t="n">
-        <v>4.61</v>
+        <v>7.42</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6059190031152648</v>
+        <v>0.616504854368932</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.48</v>
+        <v>5.47</v>
       </c>
       <c r="B34" t="n">
-        <v>141.33</v>
+        <v>279.61</v>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>4.72</v>
       </c>
       <c r="D34" t="n">
-        <v>2.18</v>
+        <v>7.44</v>
       </c>
       <c r="E34" t="n">
-        <v>0.514018691588785</v>
+        <v>0.9158576051779935</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.1</v>
+        <v>3.79</v>
       </c>
       <c r="B35" t="n">
-        <v>210.61</v>
+        <v>127.7</v>
       </c>
       <c r="C35" t="n">
-        <v>23.03</v>
+        <v>0.64</v>
       </c>
       <c r="D35" t="n">
-        <v>1.67</v>
+        <v>3.79</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6214953271028038</v>
+        <v>0.6148867313915858</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.78</v>
+        <v>4.84</v>
       </c>
       <c r="B36" t="n">
-        <v>161.25</v>
+        <v>236.64</v>
       </c>
       <c r="C36" t="n">
-        <v>10.63</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>1.2</v>
+        <v>6.81</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9392523364485982</v>
+        <v>0.8300970873786407</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2.42</v>
+        <v>4.05</v>
       </c>
       <c r="B37" t="n">
-        <v>158.22</v>
+        <v>160.48</v>
       </c>
       <c r="C37" t="n">
-        <v>8.42</v>
+        <v>-2.93</v>
       </c>
       <c r="D37" t="n">
-        <v>3.34</v>
+        <v>5.22</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7912772585669782</v>
+        <v>0.6731391585760518</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2.89</v>
+        <v>4.85</v>
       </c>
       <c r="B38" t="n">
-        <v>451.62</v>
+        <v>622.1</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.84</v>
+        <v>-4.98</v>
       </c>
       <c r="D38" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6635514018691588</v>
+        <v>0.7831715210355987</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.84</v>
+        <v>5.77</v>
       </c>
       <c r="B39" t="n">
-        <v>1631.26</v>
+        <v>152.89</v>
       </c>
       <c r="C39" t="n">
-        <v>1.4</v>
+        <v>27.44</v>
       </c>
       <c r="D39" t="n">
-        <v>1.65</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9953271028037384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2.48</v>
+        <v>5.62</v>
       </c>
       <c r="B40" t="n">
-        <v>167.19</v>
+        <v>205.8</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.07</v>
+        <v>0.72</v>
       </c>
       <c r="D40" t="n">
-        <v>1.74</v>
+        <v>2.99</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7959501557632399</v>
+        <v>0.93042071197411</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.95</v>
+        <v>4.67</v>
       </c>
       <c r="B41" t="n">
-        <v>497.51</v>
+        <v>143.09</v>
       </c>
       <c r="C41" t="n">
-        <v>-3.05</v>
+        <v>15.45</v>
       </c>
       <c r="D41" t="n">
-        <v>0.91</v>
+        <v>4.37</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6728971962616822</v>
+        <v>0.8090614886731392</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.83</v>
+        <v>6.12</v>
       </c>
       <c r="B42" t="n">
-        <v>111.01</v>
+        <v>264.73</v>
       </c>
       <c r="C42" t="n">
-        <v>2.77</v>
+        <v>10.47</v>
       </c>
       <c r="D42" t="n">
-        <v>1.82</v>
+        <v>5.05</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9190031152647975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.05</v>
+        <v>4.25</v>
       </c>
       <c r="B43" t="n">
-        <v>151.49</v>
+        <v>150.05</v>
       </c>
       <c r="C43" t="n">
-        <v>9.710000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="D43" t="n">
-        <v>1.06</v>
+        <v>0.7</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6230529595015576</v>
+        <v>0.6877022653721683</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="B44" t="n">
-        <v>170.02</v>
+        <v>103.35</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.27</v>
+        <v>21.58</v>
       </c>
       <c r="D44" t="n">
-        <v>1.21</v>
+        <v>5.37</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5903426791277259</v>
+        <v>0.5145631067961165</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.28</v>
+        <v>4.52</v>
       </c>
       <c r="B45" t="n">
-        <v>239.98</v>
+        <v>178.37</v>
       </c>
       <c r="C45" t="n">
-        <v>1.94</v>
+        <v>-6.05</v>
       </c>
       <c r="D45" t="n">
-        <v>2.87</v>
+        <v>1.47</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5389408099688473</v>
+        <v>0.7572815533980582</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.43</v>
+        <v>6.9</v>
       </c>
       <c r="B46" t="n">
-        <v>164.75</v>
+        <v>257.9</v>
       </c>
       <c r="C46" t="n">
-        <v>3.09</v>
+        <v>7.99</v>
       </c>
       <c r="D46" t="n">
-        <v>2.09</v>
+        <v>4.07</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5155763239875389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.74</v>
+        <v>4.98</v>
       </c>
       <c r="B47" t="n">
-        <v>516.1799999999999</v>
+        <v>272.57</v>
       </c>
       <c r="C47" t="n">
-        <v>7.88</v>
+        <v>2.01</v>
       </c>
       <c r="D47" t="n">
-        <v>2.94</v>
+        <v>5.43</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9454828660436138</v>
+        <v>0.8478964401294499</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.94</v>
+        <v>3.44</v>
       </c>
       <c r="B48" t="n">
-        <v>2364.47</v>
+        <v>115.08</v>
       </c>
       <c r="C48" t="n">
-        <v>-3.3</v>
+        <v>12.07</v>
       </c>
       <c r="D48" t="n">
-        <v>3.11</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9968847352024922</v>
+        <v>0.5226537216828478</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.1</v>
+        <v>6.37</v>
       </c>
       <c r="B49" t="n">
-        <v>182.73</v>
+        <v>41.22</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.47</v>
+        <v>4.06</v>
       </c>
       <c r="D49" t="n">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8691588785046729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3.23</v>
+        <v>3.77</v>
       </c>
       <c r="B50" t="n">
-        <v>263.92</v>
+        <v>156.3</v>
       </c>
       <c r="C50" t="n">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
       <c r="D50" t="n">
-        <v>1.88</v>
+        <v>3.27</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5623052959501558</v>
+        <v>0.6067961165048543</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.16</v>
+        <v>4.5</v>
       </c>
       <c r="B51" t="n">
-        <v>196.99</v>
+        <v>135.72</v>
       </c>
       <c r="C51" t="n">
-        <v>23.42</v>
+        <v>-2.08</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04</v>
+        <v>5.94</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6370716510903427</v>
+        <v>0.7702265372168284</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2.11</v>
+        <v>4</v>
       </c>
       <c r="B52" t="n">
-        <v>182.7</v>
+        <v>260.78</v>
       </c>
       <c r="C52" t="n">
-        <v>2.85</v>
+        <v>-1.41</v>
       </c>
       <c r="D52" t="n">
-        <v>1.65</v>
+        <v>4.52</v>
       </c>
       <c r="E52" t="n">
-        <v>0.8644859813084113</v>
+        <v>0.6634304207119741</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2.53</v>
+        <v>5.88</v>
       </c>
       <c r="B53" t="n">
-        <v>236.58</v>
+        <v>112.24</v>
       </c>
       <c r="C53" t="n">
-        <v>3.71</v>
+        <v>16.79</v>
       </c>
       <c r="D53" t="n">
-        <v>3.3</v>
+        <v>1.24</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7632398753894081</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.88</v>
+        <v>4.6</v>
       </c>
       <c r="B54" t="n">
-        <v>409.26</v>
+        <v>437.23</v>
       </c>
       <c r="C54" t="n">
-        <v>0.74</v>
+        <v>3.96</v>
       </c>
       <c r="D54" t="n">
-        <v>0.86</v>
+        <v>5.08</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6791277258566978</v>
+        <v>0.7815533980582524</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3.59</v>
+        <v>5.38</v>
       </c>
       <c r="B55" t="n">
-        <v>158.85</v>
+        <v>412.21</v>
       </c>
       <c r="C55" t="n">
-        <v>8.44</v>
+        <v>8.1</v>
       </c>
       <c r="D55" t="n">
-        <v>8.390000000000001</v>
+        <v>5.01</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5482866043613707</v>
+        <v>0.8932038834951457</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.96</v>
+        <v>3.58</v>
       </c>
       <c r="B56" t="n">
-        <v>185.64</v>
+        <v>139.78</v>
       </c>
       <c r="C56" t="n">
-        <v>8.81</v>
+        <v>19.27</v>
       </c>
       <c r="D56" t="n">
-        <v>2.91</v>
+        <v>1.91</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8785046728971962</v>
+        <v>0.5355987055016181</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2.66</v>
+        <v>3.66</v>
       </c>
       <c r="B57" t="n">
-        <v>404.29</v>
+        <v>304.89</v>
       </c>
       <c r="C57" t="n">
-        <v>-3.87</v>
+        <v>8.92</v>
       </c>
       <c r="D57" t="n">
-        <v>5.29</v>
+        <v>6.98</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7663551401869159</v>
+        <v>0.5857605177993528</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="B58" t="n">
-        <v>130.88</v>
+        <v>69.39</v>
       </c>
       <c r="C58" t="n">
-        <v>-1.08</v>
+        <v>3.03</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43</v>
+        <v>7.14</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5514018691588785</v>
+        <v>0.6682847896440129</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.74</v>
+        <v>3.98</v>
       </c>
       <c r="B59" t="n">
-        <v>170.26</v>
+        <v>172.42</v>
       </c>
       <c r="C59" t="n">
-        <v>6.02</v>
+        <v>8.58</v>
       </c>
       <c r="D59" t="n">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6962616822429907</v>
+        <v>0.6521035598705501</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.77</v>
+        <v>4.17</v>
       </c>
       <c r="B60" t="n">
-        <v>181.14</v>
+        <v>233.98</v>
       </c>
       <c r="C60" t="n">
-        <v>2.11</v>
+        <v>12.67</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.51</v>
+        <v>10.61</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9688473520249221</v>
+        <v>0.6828478964401294</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.13</v>
+        <v>4.03</v>
       </c>
       <c r="B61" t="n">
-        <v>173.38</v>
+        <v>108.73</v>
       </c>
       <c r="C61" t="n">
-        <v>14.17</v>
+        <v>4.74</v>
       </c>
       <c r="D61" t="n">
-        <v>1.64</v>
+        <v>2.69</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5981308411214953</v>
+        <v>0.6618122977346278</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.57</v>
+        <v>6.86</v>
       </c>
       <c r="B62" t="n">
-        <v>218.55</v>
+        <v>341.09</v>
       </c>
       <c r="C62" t="n">
-        <v>10.54</v>
+        <v>-22.1</v>
       </c>
       <c r="D62" t="n">
-        <v>1.52</v>
+        <v>-4.86</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7679127725856698</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2.84</v>
+        <v>4.82</v>
       </c>
       <c r="B63" t="n">
-        <v>82.22</v>
+        <v>517.45</v>
       </c>
       <c r="C63" t="n">
-        <v>7.35</v>
+        <v>8.67</v>
       </c>
       <c r="D63" t="n">
-        <v>0.65</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7009345794392523</v>
+        <v>0.7961165048543689</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.9</v>
+        <v>6.32</v>
       </c>
       <c r="B64" t="n">
-        <v>805.42</v>
+        <v>362.69</v>
       </c>
       <c r="C64" t="n">
-        <v>2.92</v>
+        <v>-2.15</v>
       </c>
       <c r="D64" t="n">
-        <v>2.07</v>
+        <v>4.25</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9641744548286605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.69</v>
+        <v>5.61</v>
       </c>
       <c r="B65" t="n">
-        <v>122.99</v>
+        <v>162.68</v>
       </c>
       <c r="C65" t="n">
-        <v>-4.3</v>
+        <v>0.38</v>
       </c>
       <c r="D65" t="n">
-        <v>1.03</v>
+        <v>6.5</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7554517133956387</v>
+        <v>0.93042071197411</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.86</v>
+        <v>4.73</v>
       </c>
       <c r="B66" t="n">
-        <v>173.07</v>
+        <v>292.57</v>
       </c>
       <c r="C66" t="n">
-        <v>6.8</v>
+        <v>-11.13</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.83</v>
+        <v>4.22</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9610591900311527</v>
+        <v>0.8058252427184466</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.55</v>
+        <v>3.46</v>
       </c>
       <c r="B67" t="n">
-        <v>316.19</v>
+        <v>358.96</v>
       </c>
       <c r="C67" t="n">
-        <v>5.98</v>
+        <v>7.58</v>
       </c>
       <c r="D67" t="n">
-        <v>2.35</v>
+        <v>7.44</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7616822429906542</v>
+        <v>0.5275080906148867</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.96</v>
+        <v>4.86</v>
       </c>
       <c r="B68" t="n">
-        <v>169.17</v>
+        <v>412.32</v>
       </c>
       <c r="C68" t="n">
-        <v>20.61</v>
+        <v>11.43</v>
       </c>
       <c r="D68" t="n">
-        <v>3.42</v>
+        <v>2.79</v>
       </c>
       <c r="E68" t="n">
-        <v>0.897196261682243</v>
+        <v>0.8220064724919094</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.69</v>
+        <v>4.31</v>
       </c>
       <c r="B69" t="n">
-        <v>212.96</v>
+        <v>137.54</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8</v>
+        <v>4.75</v>
       </c>
       <c r="D69" t="n">
-        <v>0.57</v>
+        <v>4.87</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7507788161993769</v>
+        <v>0.7411003236245954</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.86</v>
+        <v>4.87</v>
       </c>
       <c r="B70" t="n">
-        <v>121.15</v>
+        <v>349.96</v>
       </c>
       <c r="C70" t="n">
-        <v>34.42</v>
+        <v>6.92</v>
       </c>
       <c r="D70" t="n">
-        <v>2.9</v>
+        <v>6.47</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9719626168224299</v>
+        <v>0.8317152103559871</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>3.23</v>
+        <v>3.95</v>
       </c>
       <c r="B71" t="n">
-        <v>336.12</v>
+        <v>101.16</v>
       </c>
       <c r="C71" t="n">
-        <v>-4.88</v>
+        <v>11.19</v>
       </c>
       <c r="D71" t="n">
-        <v>1.57</v>
+        <v>3.7</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5825545171339563</v>
+        <v>0.6440129449838188</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="B72" t="n">
-        <v>343.01</v>
+        <v>434.06</v>
       </c>
       <c r="C72" t="n">
-        <v>1.44</v>
+        <v>-2.68</v>
       </c>
       <c r="D72" t="n">
-        <v>3.43</v>
+        <v>6.8</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5202492211838006</v>
+        <v>0.598705501618123</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.16</v>
+        <v>5.11</v>
       </c>
       <c r="B73" t="n">
-        <v>171.64</v>
+        <v>271.78</v>
       </c>
       <c r="C73" t="n">
-        <v>41.32</v>
+        <v>22.76</v>
       </c>
       <c r="D73" t="n">
-        <v>8.43</v>
+        <v>6.73</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9844236760124611</v>
+        <v>0.8576051779935275</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.7</v>
+        <v>4.56</v>
       </c>
       <c r="B74" t="n">
-        <v>378.63</v>
+        <v>95.91</v>
       </c>
       <c r="C74" t="n">
-        <v>-9.52</v>
+        <v>-3.42</v>
       </c>
       <c r="D74" t="n">
-        <v>2.52</v>
+        <v>4.56</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7476635514018691</v>
+        <v>0.7799352750809061</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.89</v>
+        <v>5.42</v>
       </c>
       <c r="B75" t="n">
-        <v>212.52</v>
+        <v>171.2</v>
       </c>
       <c r="C75" t="n">
-        <v>2.56</v>
+        <v>3.28</v>
       </c>
       <c r="D75" t="n">
-        <v>4.12</v>
+        <v>3.81</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6604361370716511</v>
+        <v>0.9061488673139159</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.71</v>
+        <v>4.65</v>
       </c>
       <c r="B76" t="n">
-        <v>316.59</v>
+        <v>206.21</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.53</v>
+        <v>7.17</v>
       </c>
       <c r="D76" t="n">
-        <v>2.23</v>
+        <v>2.92</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7274143302180686</v>
+        <v>0.8042071197411004</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.59</v>
+        <v>5.3</v>
       </c>
       <c r="B77" t="n">
-        <v>653.09</v>
+        <v>107.89</v>
       </c>
       <c r="C77" t="n">
-        <v>-7.93</v>
+        <v>43.84</v>
       </c>
       <c r="D77" t="n">
-        <v>1.22</v>
+        <v>0.97</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8224299065420561</v>
+        <v>0.8446601941747572</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>3.11</v>
+        <v>3.74</v>
       </c>
       <c r="B78" t="n">
-        <v>238.9</v>
+        <v>420.89</v>
       </c>
       <c r="C78" t="n">
-        <v>8.42</v>
+        <v>7.52</v>
       </c>
       <c r="D78" t="n">
-        <v>1.97</v>
+        <v>6.32</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5950155763239875</v>
+        <v>0.5889967637540453</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.16</v>
+        <v>6.32</v>
       </c>
       <c r="B79" t="n">
-        <v>102.39</v>
+        <v>123.79</v>
       </c>
       <c r="C79" t="n">
-        <v>17.49</v>
+        <v>7.77</v>
       </c>
       <c r="D79" t="n">
-        <v>2.04</v>
+        <v>-0.03</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8613707165109035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.74</v>
+        <v>3.83</v>
       </c>
       <c r="B80" t="n">
-        <v>144.76</v>
+        <v>144.88</v>
       </c>
       <c r="C80" t="n">
-        <v>10.14</v>
+        <v>4.33</v>
       </c>
       <c r="D80" t="n">
-        <v>2.39</v>
+        <v>3.66</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7024922118380063</v>
+        <v>0.6310679611650486</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.98</v>
+        <v>6.6</v>
       </c>
       <c r="B81" t="n">
-        <v>245.29</v>
+        <v>112.95</v>
       </c>
       <c r="C81" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="D81" t="n">
-        <v>1.4</v>
+        <v>4.29</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6339563862928349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.91</v>
+        <v>3.69</v>
       </c>
       <c r="B82" t="n">
-        <v>785.55</v>
+        <v>174.96</v>
       </c>
       <c r="C82" t="n">
-        <v>11.17</v>
+        <v>3.08</v>
       </c>
       <c r="D82" t="n">
-        <v>3.48</v>
+        <v>4.38</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7258566978193146</v>
+        <v>0.5954692556634305</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.85</v>
+        <v>3.94</v>
       </c>
       <c r="B83" t="n">
-        <v>299.59</v>
+        <v>173.11</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25</v>
+        <v>6.32</v>
       </c>
       <c r="D83" t="n">
-        <v>5.42</v>
+        <v>4.65</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6806853582554517</v>
+        <v>0.6504854368932039</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.14</v>
+        <v>3.85</v>
       </c>
       <c r="B84" t="n">
-        <v>207.02</v>
+        <v>93.93000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>6.25</v>
+        <v>7.35</v>
       </c>
       <c r="D84" t="n">
-        <v>2.19</v>
+        <v>4.31</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8520249221183801</v>
+        <v>0.6326860841423948</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>3.32</v>
+        <v>3.43</v>
       </c>
       <c r="B85" t="n">
-        <v>254.08</v>
+        <v>167.02</v>
       </c>
       <c r="C85" t="n">
-        <v>-2.47</v>
+        <v>12.26</v>
       </c>
       <c r="D85" t="n">
-        <v>1.52</v>
+        <v>7.2</v>
       </c>
       <c r="E85" t="n">
-        <v>0.543613707165109</v>
+        <v>0.5307443365695793</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.01</v>
+        <v>4.69</v>
       </c>
       <c r="B86" t="n">
-        <v>145.58</v>
+        <v>168.93</v>
       </c>
       <c r="C86" t="n">
-        <v>9.279999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="D86" t="n">
-        <v>6.11</v>
+        <v>9.74</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9049844236760125</v>
+        <v>0.8025889967637541</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.95</v>
+        <v>4.3</v>
       </c>
       <c r="B87" t="n">
-        <v>1820.24</v>
+        <v>159.57</v>
       </c>
       <c r="C87" t="n">
-        <v>7.99</v>
+        <v>6.24</v>
       </c>
       <c r="D87" t="n">
-        <v>2.04</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9906542056074766</v>
+        <v>0.7297734627831716</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.14</v>
+        <v>4.61</v>
       </c>
       <c r="B88" t="n">
-        <v>61.51</v>
+        <v>214.12</v>
       </c>
       <c r="C88" t="n">
-        <v>15.51</v>
+        <v>13.83</v>
       </c>
       <c r="D88" t="n">
-        <v>2.79</v>
+        <v>4.37</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8582554517133957</v>
+        <v>0.7977346278317152</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.36</v>
+        <v>5.6</v>
       </c>
       <c r="B89" t="n">
-        <v>174.63</v>
+        <v>129.72</v>
       </c>
       <c r="C89" t="n">
-        <v>7.73</v>
+        <v>9.18</v>
       </c>
       <c r="D89" t="n">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8037383177570093</v>
+        <v>0.9223300970873787</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.94</v>
+        <v>5.51</v>
       </c>
       <c r="B90" t="n">
-        <v>254.08</v>
+        <v>201.17</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.08</v>
+        <v>-9.92</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.78</v>
+        <v>1.74</v>
       </c>
       <c r="E90" t="n">
-        <v>0.956386292834891</v>
+        <v>0.9029126213592233</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.54</v>
+        <v>5.21</v>
       </c>
       <c r="B91" t="n">
-        <v>88.05</v>
+        <v>83.06999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>4.62</v>
+        <v>13.62</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.13</v>
+        <v>3.98</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8084112149532711</v>
+        <v>0.8673139158576052</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.25</v>
+        <v>6.19</v>
       </c>
       <c r="B92" t="n">
-        <v>224.27</v>
+        <v>85.67</v>
       </c>
       <c r="C92" t="n">
-        <v>18.59</v>
+        <v>1.56</v>
       </c>
       <c r="D92" t="n">
-        <v>4.39</v>
+        <v>0.62</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8426791277258567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>3.18</v>
+        <v>3.53</v>
       </c>
       <c r="B93" t="n">
-        <v>22.46</v>
+        <v>160.23</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.2</v>
+        <v>7.85</v>
       </c>
       <c r="D93" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="E93" t="n">
-        <v>0.618380062305296</v>
+        <v>0.5339805825242718</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.27</v>
+        <v>4.69</v>
       </c>
       <c r="B94" t="n">
-        <v>737.62</v>
+        <v>261.68</v>
       </c>
       <c r="C94" t="n">
-        <v>0.78</v>
+        <v>6.52</v>
       </c>
       <c r="D94" t="n">
-        <v>1.98</v>
+        <v>3.71</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8769470404984424</v>
+        <v>0.8122977346278317</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.69</v>
+        <v>5.17</v>
       </c>
       <c r="B95" t="n">
-        <v>173.51</v>
+        <v>206.26</v>
       </c>
       <c r="C95" t="n">
-        <v>4.72</v>
+        <v>-5.29</v>
       </c>
       <c r="D95" t="n">
-        <v>3.98</v>
+        <v>3.12</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7227414330218068</v>
+        <v>0.8608414239482201</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.61</v>
+        <v>5.62</v>
       </c>
       <c r="B96" t="n">
-        <v>205.72</v>
+        <v>285.4</v>
       </c>
       <c r="C96" t="n">
-        <v>2.29</v>
+        <v>4.86</v>
       </c>
       <c r="D96" t="n">
-        <v>0.38</v>
+        <v>12.91</v>
       </c>
       <c r="E96" t="n">
-        <v>0.7772585669781932</v>
+        <v>0.9158576051779935</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3.33</v>
+        <v>3.98</v>
       </c>
       <c r="B97" t="n">
-        <v>236.13</v>
+        <v>274.54</v>
       </c>
       <c r="C97" t="n">
-        <v>3.04</v>
+        <v>2.8</v>
       </c>
       <c r="D97" t="n">
-        <v>0.11</v>
+        <v>7.27</v>
       </c>
       <c r="E97" t="n">
-        <v>0.559190031152648</v>
+        <v>0.6585760517799353</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.92</v>
+        <v>3.49</v>
       </c>
       <c r="B98" t="n">
-        <v>176.94</v>
+        <v>162.42</v>
       </c>
       <c r="C98" t="n">
-        <v>6.49</v>
+        <v>13.31</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.21</v>
+        <v>4.64</v>
       </c>
       <c r="E98" t="n">
-        <v>0.940809968847352</v>
+        <v>0.5372168284789643</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.39</v>
+        <v>4.04</v>
       </c>
       <c r="B99" t="n">
-        <v>59.43</v>
+        <v>224.31</v>
       </c>
       <c r="C99" t="n">
-        <v>24.84</v>
+        <v>1.47</v>
       </c>
       <c r="D99" t="n">
-        <v>1.49</v>
+        <v>4.4</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5545171339563862</v>
+        <v>0.6763754045307443</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2.51</v>
+        <v>4.29</v>
       </c>
       <c r="B100" t="n">
-        <v>247.95</v>
+        <v>315.57</v>
       </c>
       <c r="C100" t="n">
-        <v>-1.1</v>
+        <v>6.29</v>
       </c>
       <c r="D100" t="n">
-        <v>2.61</v>
+        <v>5.6</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7757009345794392</v>
+        <v>0.7346278317152104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2.36</v>
+        <v>5.25</v>
       </c>
       <c r="B101" t="n">
-        <v>164.08</v>
+        <v>189.81</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.46</v>
+        <v>1.21</v>
       </c>
       <c r="D101" t="n">
-        <v>2.73</v>
+        <v>2.55</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8115264797507789</v>
+        <v>0.8770226537216829</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2.76</v>
+        <v>3.51</v>
       </c>
       <c r="B102" t="n">
-        <v>211.34</v>
+        <v>211.47</v>
       </c>
       <c r="C102" t="n">
-        <v>13.13</v>
+        <v>21.71</v>
       </c>
       <c r="D102" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6993769470404985</v>
+        <v>0.5129449838187702</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>3.54</v>
+        <v>6.22</v>
       </c>
       <c r="B103" t="n">
-        <v>80.44</v>
+        <v>141.9</v>
       </c>
       <c r="C103" t="n">
-        <v>1.6</v>
+        <v>2.66</v>
       </c>
       <c r="D103" t="n">
-        <v>1.05</v>
+        <v>5.11</v>
       </c>
       <c r="E103" t="n">
-        <v>0.5031152647975078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2.13</v>
+        <v>3.76</v>
       </c>
       <c r="B104" t="n">
-        <v>451.62</v>
+        <v>224.74</v>
       </c>
       <c r="C104" t="n">
-        <v>4.54</v>
+        <v>6.36</v>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>4.85</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8629283489096573</v>
+        <v>0.6213592233009708</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2.12</v>
+        <v>3.97</v>
       </c>
       <c r="B105" t="n">
-        <v>165.03</v>
+        <v>256.27</v>
       </c>
       <c r="C105" t="n">
-        <v>67.93000000000001</v>
+        <v>4.23</v>
       </c>
       <c r="D105" t="n">
-        <v>2.34</v>
+        <v>7.04</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9890965732087228</v>
+        <v>0.6601941747572816</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>3.26</v>
+        <v>4.31</v>
       </c>
       <c r="B106" t="n">
-        <v>312.05</v>
+        <v>127.02</v>
       </c>
       <c r="C106" t="n">
-        <v>-3.59</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>1.31</v>
+        <v>5.3</v>
       </c>
       <c r="E106" t="n">
-        <v>0.573208722741433</v>
+        <v>0.7443365695792881</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2.34</v>
+        <v>3.91</v>
       </c>
       <c r="B107" t="n">
-        <v>168.77</v>
+        <v>347.78</v>
       </c>
       <c r="C107" t="n">
-        <v>7.16</v>
+        <v>6.23</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4</v>
+        <v>5.41</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8348909657320872</v>
+        <v>0.6407766990291263</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.96</v>
+        <v>3.44</v>
       </c>
       <c r="B108" t="n">
-        <v>304.31</v>
+        <v>148.84</v>
       </c>
       <c r="C108" t="n">
-        <v>5.09</v>
+        <v>-1.87</v>
       </c>
       <c r="D108" t="n">
-        <v>2.27</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8800623052959502</v>
+        <v>0.5161812297734628</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>3.36</v>
+        <v>4.5</v>
       </c>
       <c r="B109" t="n">
-        <v>671.9299999999999</v>
+        <v>151.53</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2</v>
+        <v>6.65</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.18</v>
+        <v>3.48</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6277258566978193</v>
+        <v>0.7734627831715211</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.96</v>
+        <v>4.87</v>
       </c>
       <c r="B110" t="n">
-        <v>251.89</v>
+        <v>128.78</v>
       </c>
       <c r="C110" t="n">
-        <v>7.52</v>
+        <v>-0.25</v>
       </c>
       <c r="D110" t="n">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="E110" t="n">
-        <v>0.632398753894081</v>
+        <v>0.8236245954692557</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3.35</v>
+        <v>11.1</v>
       </c>
       <c r="B111" t="n">
-        <v>104.46</v>
+        <v>167.07</v>
       </c>
       <c r="C111" t="n">
-        <v>19.4</v>
+        <v>12.7</v>
       </c>
       <c r="D111" t="n">
-        <v>0.32</v>
+        <v>9.25</v>
       </c>
       <c r="E111" t="n">
-        <v>0.5716510903426791</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.66</v>
+        <v>5.17</v>
       </c>
       <c r="B112" t="n">
-        <v>210.32</v>
+        <v>212.88</v>
       </c>
       <c r="C112" t="n">
-        <v>17.53</v>
+        <v>4.16</v>
       </c>
       <c r="D112" t="n">
-        <v>11.41</v>
+        <v>5.73</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6900311526479751</v>
+        <v>0.8689320388349514</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>3.01</v>
+        <v>4.5</v>
       </c>
       <c r="B113" t="n">
-        <v>150.33</v>
+        <v>620.09</v>
       </c>
       <c r="C113" t="n">
-        <v>3.71</v>
+        <v>3.95</v>
       </c>
       <c r="D113" t="n">
-        <v>1.72</v>
+        <v>2.93</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6246105919003115</v>
+        <v>0.6909385113268608</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>3.26</v>
+        <v>4.45</v>
       </c>
       <c r="B114" t="n">
-        <v>168.65</v>
+        <v>108.98</v>
       </c>
       <c r="C114" t="n">
-        <v>20.72</v>
+        <v>6.59</v>
       </c>
       <c r="D114" t="n">
-        <v>2.37</v>
+        <v>5.49</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5685358255451713</v>
+        <v>0.7653721682847896</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.02</v>
+        <v>3.65</v>
       </c>
       <c r="B115" t="n">
-        <v>827.49</v>
+        <v>119.38</v>
       </c>
       <c r="C115" t="n">
-        <v>1.42</v>
+        <v>7.49</v>
       </c>
       <c r="D115" t="n">
-        <v>2.78</v>
+        <v>0.9</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6978193146417445</v>
+        <v>0.5420711974110033</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>3.21</v>
+        <v>3.9</v>
       </c>
       <c r="B116" t="n">
-        <v>152.99</v>
+        <v>189.97</v>
       </c>
       <c r="C116" t="n">
-        <v>54.74</v>
+        <v>5.63</v>
       </c>
       <c r="D116" t="n">
-        <v>2.4</v>
+        <v>9.44</v>
       </c>
       <c r="E116" t="n">
-        <v>0.7975077881619937</v>
+        <v>0.6359223300970874</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2.88</v>
+        <v>4.42</v>
       </c>
       <c r="B117" t="n">
-        <v>252.88</v>
+        <v>259.72</v>
       </c>
       <c r="C117" t="n">
-        <v>2.01</v>
+        <v>-3.75</v>
       </c>
       <c r="D117" t="n">
-        <v>2.94</v>
+        <v>1.13</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6588785046728972</v>
+        <v>0.7427184466019418</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2.26</v>
+        <v>4.49</v>
       </c>
       <c r="B118" t="n">
-        <v>213.11</v>
+        <v>202.5</v>
       </c>
       <c r="C118" t="n">
-        <v>7.11</v>
+        <v>6.45</v>
       </c>
       <c r="D118" t="n">
-        <v>1.09</v>
+        <v>8.17</v>
       </c>
       <c r="E118" t="n">
-        <v>0.838006230529595</v>
+        <v>0.7718446601941747</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.63</v>
+        <v>6.06</v>
       </c>
       <c r="B119" t="n">
-        <v>166.42</v>
+        <v>184.76</v>
       </c>
       <c r="C119" t="n">
-        <v>8.33</v>
+        <v>4.39</v>
       </c>
       <c r="D119" t="n">
-        <v>2.44</v>
+        <v>4.27</v>
       </c>
       <c r="E119" t="n">
-        <v>0.7398753894080997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2.16</v>
+        <v>4.15</v>
       </c>
       <c r="B120" t="n">
-        <v>239.95</v>
+        <v>270.15</v>
       </c>
       <c r="C120" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="D120" t="n">
-        <v>1.93</v>
+        <v>5.68</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8504672897196262</v>
+        <v>0.6925566343042071</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.69</v>
+        <v>3.74</v>
       </c>
       <c r="B121" t="n">
-        <v>153.72</v>
+        <v>148.41</v>
       </c>
       <c r="C121" t="n">
-        <v>24.16</v>
+        <v>19.42</v>
       </c>
       <c r="D121" t="n">
-        <v>2.21</v>
+        <v>0.88</v>
       </c>
       <c r="E121" t="n">
-        <v>0.7570093457943925</v>
+        <v>0.5647249190938511</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>3.52</v>
+        <v>5.42</v>
       </c>
       <c r="B122" t="n">
-        <v>243.53</v>
+        <v>210.44</v>
       </c>
       <c r="C122" t="n">
-        <v>3.92</v>
+        <v>11.6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.91</v>
       </c>
       <c r="E122" t="n">
-        <v>0.5046728971962616</v>
+        <v>0.9093851132686084</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.25</v>
+        <v>3.56</v>
       </c>
       <c r="B123" t="n">
-        <v>165.28</v>
+        <v>201.65</v>
       </c>
       <c r="C123" t="n">
-        <v>9.279999999999999</v>
+        <v>12.98</v>
       </c>
       <c r="D123" t="n">
-        <v>1.54</v>
+        <v>13.35</v>
       </c>
       <c r="E123" t="n">
-        <v>0.557632398753894</v>
+        <v>0.5080906148867314</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2.61</v>
+        <v>5.39</v>
       </c>
       <c r="B124" t="n">
-        <v>229.77</v>
+        <v>165.81</v>
       </c>
       <c r="C124" t="n">
-        <v>12.3</v>
+        <v>6.1</v>
       </c>
       <c r="D124" t="n">
-        <v>4.3</v>
+        <v>5.85</v>
       </c>
       <c r="E124" t="n">
-        <v>0.7492211838006231</v>
+        <v>0.901294498381877</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2.35</v>
+        <v>4.26</v>
       </c>
       <c r="B125" t="n">
-        <v>199.68</v>
+        <v>311.47</v>
       </c>
       <c r="C125" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="D125" t="n">
-        <v>2.27</v>
+        <v>1.86</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8146417445482866</v>
+        <v>0.6974110032362459</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.04</v>
+        <v>3.65</v>
       </c>
       <c r="B126" t="n">
-        <v>206.6</v>
+        <v>190.43</v>
       </c>
       <c r="C126" t="n">
-        <v>6.72</v>
+        <v>5.18</v>
       </c>
       <c r="D126" t="n">
-        <v>4.42</v>
+        <v>1.32</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6152647975077882</v>
+        <v>0.5533980582524272</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="B127" t="n">
-        <v>126.21</v>
+        <v>137.72</v>
       </c>
       <c r="C127" t="n">
-        <v>41.36</v>
+        <v>5.06</v>
       </c>
       <c r="D127" t="n">
-        <v>3.94</v>
+        <v>5.59</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5295950155763239</v>
+        <v>0.610032362459547</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2.26</v>
+        <v>5.92</v>
       </c>
       <c r="B128" t="n">
-        <v>1027.31</v>
+        <v>252.16</v>
       </c>
       <c r="C128" t="n">
-        <v>4.33</v>
+        <v>-4.08</v>
       </c>
       <c r="D128" t="n">
-        <v>0.53</v>
+        <v>5.38</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9735202492211839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>3.06</v>
+        <v>4.58</v>
       </c>
       <c r="B129" t="n">
-        <v>130.28</v>
+        <v>192.09</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.02</v>
+        <v>1.97</v>
       </c>
       <c r="D129" t="n">
-        <v>0.99</v>
+        <v>2.25</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6261682242990654</v>
+        <v>0.7864077669902912</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.93</v>
+        <v>4.38</v>
       </c>
       <c r="B130" t="n">
-        <v>445.27</v>
+        <v>200.45</v>
       </c>
       <c r="C130" t="n">
-        <v>3.07</v>
+        <v>12.15</v>
       </c>
       <c r="D130" t="n">
-        <v>2.17</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6557632398753894</v>
+        <v>0.7508090614886731</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2.38</v>
+        <v>3.54</v>
       </c>
       <c r="B131" t="n">
-        <v>280.04</v>
+        <v>125.15</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.91</v>
+        <v>19.65</v>
       </c>
       <c r="D131" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="E131" t="n">
-        <v>0.82398753894081</v>
+        <v>0.529126213592233</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.5</v>
+        <v>4.11</v>
       </c>
       <c r="B132" t="n">
-        <v>141.42</v>
+        <v>182.35</v>
       </c>
       <c r="C132" t="n">
-        <v>3.07</v>
+        <v>-2.88</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5</v>
+        <v>1.43</v>
       </c>
       <c r="E132" t="n">
-        <v>0.8006230529595015</v>
+        <v>0.6699029126213593</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1.87</v>
+        <v>6.99</v>
       </c>
       <c r="B133" t="n">
-        <v>297.08</v>
+        <v>354.99</v>
       </c>
       <c r="C133" t="n">
-        <v>-4.73</v>
+        <v>17.19</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.67</v>
+        <v>9.82</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9626168224299065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="B134" t="n">
-        <v>931.16</v>
+        <v>294.07</v>
       </c>
       <c r="C134" t="n">
-        <v>0.36</v>
+        <v>-0.88</v>
       </c>
       <c r="D134" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="E134" t="n">
-        <v>0.942367601246106</v>
+        <v>0.6844660194174758</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.82</v>
+        <v>4.26</v>
       </c>
       <c r="B135" t="n">
-        <v>916.3200000000001</v>
+        <v>409.94</v>
       </c>
       <c r="C135" t="n">
-        <v>-4.31</v>
+        <v>20.73</v>
       </c>
       <c r="D135" t="n">
-        <v>0.54</v>
+        <v>16.9</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9813084112149533</v>
+        <v>0.5728155339805825</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.44</v>
+        <v>5.52</v>
       </c>
       <c r="B136" t="n">
-        <v>257.94</v>
+        <v>113.88</v>
       </c>
       <c r="C136" t="n">
-        <v>-6.44</v>
+        <v>32.52</v>
       </c>
       <c r="D136" t="n">
-        <v>1.69</v>
+        <v>2.29</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8099688473520249</v>
+        <v>0.8964401294498382</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2.58</v>
+        <v>5.65</v>
       </c>
       <c r="B137" t="n">
-        <v>147.93</v>
+        <v>301.69</v>
       </c>
       <c r="C137" t="n">
-        <v>1.86</v>
+        <v>-7.09</v>
       </c>
       <c r="D137" t="n">
-        <v>1.4</v>
+        <v>8.35</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7694704049844237</v>
+        <v>0.9223300970873787</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>3</v>
+        <v>4.48</v>
       </c>
       <c r="B138" t="n">
-        <v>116.2</v>
+        <v>115.6</v>
       </c>
       <c r="C138" t="n">
-        <v>14.34</v>
+        <v>37.32</v>
       </c>
       <c r="D138" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="E138" t="n">
-        <v>0.6292834890965732</v>
+        <v>0.7103559870550162</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.78</v>
+        <v>4.34</v>
       </c>
       <c r="B139" t="n">
-        <v>195.2</v>
+        <v>416.71</v>
       </c>
       <c r="C139" t="n">
-        <v>-1.53</v>
+        <v>3.34</v>
       </c>
       <c r="D139" t="n">
-        <v>0.82</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7242990654205608</v>
+        <v>0.7216828478964401</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2.8</v>
+        <v>3.92</v>
       </c>
       <c r="B140" t="n">
-        <v>290.13</v>
+        <v>114.27</v>
       </c>
       <c r="C140" t="n">
-        <v>-3.28</v>
+        <v>11.77</v>
       </c>
       <c r="D140" t="n">
-        <v>2.32</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
-        <v>0.6838006230529595</v>
+        <v>0.6375404530744336</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.76</v>
+        <v>4.67</v>
       </c>
       <c r="B141" t="n">
-        <v>453.56</v>
+        <v>136.64</v>
       </c>
       <c r="C141" t="n">
-        <v>6.25</v>
+        <v>2.53</v>
       </c>
       <c r="D141" t="n">
-        <v>2.46</v>
+        <v>3.33</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9314641744548287</v>
+        <v>0.8074433656957929</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="B142" t="n">
-        <v>182.76</v>
+        <v>158.76</v>
       </c>
       <c r="C142" t="n">
-        <v>-13</v>
+        <v>5.75</v>
       </c>
       <c r="D142" t="n">
-        <v>3.82</v>
+        <v>6.17</v>
       </c>
       <c r="E142" t="n">
-        <v>0.5264797507788161</v>
+        <v>0.5469255663430421</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2.05</v>
+        <v>3.57</v>
       </c>
       <c r="B143" t="n">
-        <v>3939.19</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.37</v>
+        <v>16.83</v>
       </c>
       <c r="D143" t="n">
-        <v>0.68</v>
+        <v>5.53</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9984423676012462</v>
+        <v>0.5436893203883495</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>3</v>
+        <v>4.64</v>
       </c>
       <c r="B144" t="n">
-        <v>81.53</v>
+        <v>268.74</v>
       </c>
       <c r="C144" t="n">
-        <v>31.13</v>
+        <v>-1.93</v>
       </c>
       <c r="D144" t="n">
-        <v>0.77</v>
+        <v>7.85</v>
       </c>
       <c r="E144" t="n">
-        <v>0.7180685358255452</v>
+        <v>0.7993527508090615</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2.61</v>
+        <v>3.56</v>
       </c>
       <c r="B145" t="n">
-        <v>112.79</v>
+        <v>104.67</v>
       </c>
       <c r="C145" t="n">
-        <v>9.4</v>
+        <v>16.4</v>
       </c>
       <c r="D145" t="n">
-        <v>0.47</v>
+        <v>0.66</v>
       </c>
       <c r="E145" t="n">
-        <v>0.778816199376947</v>
+        <v>0.5210355987055016</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>3.14</v>
+        <v>3.93</v>
       </c>
       <c r="B146" t="n">
-        <v>138.41</v>
+        <v>124.68</v>
       </c>
       <c r="C146" t="n">
-        <v>8.59</v>
+        <v>3.13</v>
       </c>
       <c r="D146" t="n">
-        <v>1.94</v>
+        <v>9.75</v>
       </c>
       <c r="E146" t="n">
-        <v>0.5919003115264797</v>
+        <v>0.6343042071197411</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.03</v>
+        <v>4.35</v>
       </c>
       <c r="B147" t="n">
-        <v>293.76</v>
+        <v>254.59</v>
       </c>
       <c r="C147" t="n">
-        <v>4.91</v>
+        <v>-4.48</v>
       </c>
       <c r="D147" t="n">
-        <v>2.77</v>
+        <v>5.85</v>
       </c>
       <c r="E147" t="n">
-        <v>0.6137071651090342</v>
+        <v>0.7475728155339806</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2.68</v>
+        <v>5.48</v>
       </c>
       <c r="B148" t="n">
-        <v>157.9</v>
+        <v>184.86</v>
       </c>
       <c r="C148" t="n">
-        <v>3.93</v>
+        <v>7.23</v>
       </c>
       <c r="D148" t="n">
-        <v>4.66</v>
+        <v>10.34</v>
       </c>
       <c r="E148" t="n">
-        <v>0.7336448598130841</v>
+        <v>0.9093851132686084</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2.9</v>
+        <v>3.57</v>
       </c>
       <c r="B149" t="n">
-        <v>178.65</v>
+        <v>180.24</v>
       </c>
       <c r="C149" t="n">
-        <v>15.75</v>
+        <v>17</v>
       </c>
       <c r="D149" t="n">
-        <v>1.27</v>
+        <v>4.89</v>
       </c>
       <c r="E149" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5485436893203883</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3</v>
+        <v>4.18</v>
       </c>
       <c r="B150" t="n">
-        <v>119</v>
+        <v>156.14</v>
       </c>
       <c r="C150" t="n">
-        <v>6.81</v>
+        <v>19.03</v>
       </c>
       <c r="D150" t="n">
-        <v>3.36</v>
+        <v>7.36</v>
       </c>
       <c r="E150" t="n">
-        <v>0.6199376947040498</v>
+        <v>0.6893203883495146</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.95</v>
+        <v>5.39</v>
       </c>
       <c r="B151" t="n">
-        <v>190.5</v>
+        <v>126.57</v>
       </c>
       <c r="C151" t="n">
-        <v>13.31</v>
+        <v>42.59</v>
       </c>
       <c r="D151" t="n">
-        <v>1.68</v>
+        <v>6.42</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8925233644859814</v>
+        <v>0.8656957928802589</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2.9</v>
+        <v>6.64</v>
       </c>
       <c r="B152" t="n">
-        <v>198.41</v>
+        <v>509.37</v>
       </c>
       <c r="C152" t="n">
-        <v>7.71</v>
+        <v>-1.48</v>
       </c>
       <c r="D152" t="n">
-        <v>2.38</v>
+        <v>8.4</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6510903426791277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2.82</v>
+        <v>5.9</v>
       </c>
       <c r="B153" t="n">
-        <v>170.46</v>
+        <v>135.77</v>
       </c>
       <c r="C153" t="n">
-        <v>-6.32</v>
+        <v>-15.13</v>
       </c>
       <c r="D153" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7087227414330218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>1.9</v>
+        <v>3.62</v>
       </c>
       <c r="B154" t="n">
-        <v>136.59</v>
+        <v>145.04</v>
       </c>
       <c r="C154" t="n">
-        <v>5.7</v>
+        <v>2.08</v>
       </c>
       <c r="D154" t="n">
-        <v>2.38</v>
+        <v>3.09</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8940809968847352</v>
+        <v>0.558252427184466</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.76</v>
+        <v>6.94</v>
       </c>
       <c r="B155" t="n">
-        <v>374.06</v>
+        <v>1486.62</v>
       </c>
       <c r="C155" t="n">
-        <v>8.550000000000001</v>
+        <v>-5.85</v>
       </c>
       <c r="D155" t="n">
-        <v>3.95</v>
+        <v>-1.14</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6931464174454829</v>
+        <v>0.7313915857605178</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.75</v>
+        <v>3.9</v>
       </c>
       <c r="B156" t="n">
-        <v>175.8</v>
+        <v>129.42</v>
       </c>
       <c r="C156" t="n">
-        <v>-3.24</v>
+        <v>26.02</v>
       </c>
       <c r="D156" t="n">
-        <v>0.98</v>
+        <v>2.85</v>
       </c>
       <c r="E156" t="n">
-        <v>0.9548286604361371</v>
+        <v>0.6197411003236246</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2.48</v>
+        <v>4.48</v>
       </c>
       <c r="B157" t="n">
-        <v>165.58</v>
+        <v>187.37</v>
       </c>
       <c r="C157" t="n">
-        <v>-3.68</v>
+        <v>-2.15</v>
       </c>
       <c r="D157" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="E157" t="n">
-        <v>0.8021806853582555</v>
+        <v>0.7669902912621359</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.27</v>
+        <v>3.8</v>
       </c>
       <c r="B158" t="n">
-        <v>119.88</v>
+        <v>104.7</v>
       </c>
       <c r="C158" t="n">
-        <v>8.76</v>
+        <v>3.57</v>
       </c>
       <c r="D158" t="n">
-        <v>2.81</v>
+        <v>2.13</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8271028037383178</v>
+        <v>0.6035598705501618</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1.95</v>
+        <v>4.98</v>
       </c>
       <c r="B159" t="n">
-        <v>135.87</v>
+        <v>422.15</v>
       </c>
       <c r="C159" t="n">
-        <v>-6.78</v>
+        <v>6.81</v>
       </c>
       <c r="D159" t="n">
-        <v>0.9</v>
+        <v>7.13</v>
       </c>
       <c r="E159" t="n">
-        <v>0.9236760124610592</v>
+        <v>0.8381877022653722</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2.18</v>
+        <v>5.06</v>
       </c>
       <c r="B160" t="n">
-        <v>233.57</v>
+        <v>102.99</v>
       </c>
       <c r="C160" t="n">
-        <v>-3.9</v>
+        <v>14.64</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.19</v>
+        <v>3.96</v>
       </c>
       <c r="E160" t="n">
-        <v>0.8862928348909658</v>
+        <v>0.8527508090614887</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.95</v>
+        <v>6.09</v>
       </c>
       <c r="B161" t="n">
-        <v>273.74</v>
+        <v>111.37</v>
       </c>
       <c r="C161" t="n">
-        <v>1.61</v>
+        <v>4.13</v>
       </c>
       <c r="D161" t="n">
-        <v>1.38</v>
+        <v>4.37</v>
       </c>
       <c r="E161" t="n">
-        <v>0.6479750778816199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.35</v>
+        <v>5.32</v>
       </c>
       <c r="B162" t="n">
-        <v>121.28</v>
+        <v>238.09</v>
       </c>
       <c r="C162" t="n">
-        <v>15.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D162" t="n">
-        <v>-2.33</v>
+        <v>2.86</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9252336448598131</v>
+        <v>0.889967637540453</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="B163" t="n">
-        <v>123.42</v>
+        <v>147.07</v>
       </c>
       <c r="C163" t="n">
-        <v>5.19</v>
+        <v>8.68</v>
       </c>
       <c r="D163" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="E163" t="n">
-        <v>0.5794392523364486</v>
+        <v>0.56957928802589</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.7</v>
+        <v>3.34</v>
       </c>
       <c r="B164" t="n">
-        <v>148.38</v>
+        <v>288.7</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-6.05</v>
       </c>
       <c r="D164" t="n">
-        <v>1.96</v>
+        <v>4.61</v>
       </c>
       <c r="E164" t="n">
-        <v>0.7305295950155763</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2.77</v>
+        <v>4.33</v>
       </c>
       <c r="B165" t="n">
-        <v>159.62</v>
+        <v>318.89</v>
       </c>
       <c r="C165" t="n">
-        <v>-7.09</v>
+        <v>-3.96</v>
       </c>
       <c r="D165" t="n">
-        <v>5.52</v>
+        <v>2.99</v>
       </c>
       <c r="E165" t="n">
-        <v>0.7429906542056075</v>
+        <v>0.7249190938511327</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2.32</v>
+        <v>3.95</v>
       </c>
       <c r="B166" t="n">
-        <v>239.99</v>
+        <v>98.98</v>
       </c>
       <c r="C166" t="n">
-        <v>-3.3</v>
+        <v>5.46</v>
       </c>
       <c r="D166" t="n">
-        <v>1.44</v>
+        <v>5.29</v>
       </c>
       <c r="E166" t="n">
-        <v>0.8317757009345794</v>
+        <v>0.6472491909385113</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2.62</v>
+        <v>4.33</v>
       </c>
       <c r="B167" t="n">
-        <v>486.07</v>
+        <v>187.75</v>
       </c>
       <c r="C167" t="n">
-        <v>6.92</v>
+        <v>7.32</v>
       </c>
       <c r="D167" t="n">
-        <v>1.82</v>
+        <v>9.48</v>
       </c>
       <c r="E167" t="n">
-        <v>0.7601246105919003</v>
+        <v>0.7394822006472492</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.9</v>
+        <v>4.89</v>
       </c>
       <c r="B168" t="n">
-        <v>305.87</v>
+        <v>318.3</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.74</v>
+        <v>3.99</v>
       </c>
       <c r="D168" t="n">
-        <v>1.75</v>
+        <v>10.49</v>
       </c>
       <c r="E168" t="n">
-        <v>0.6682242990654206</v>
+        <v>0.8268608414239482</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2.12</v>
+        <v>3.64</v>
       </c>
       <c r="B169" t="n">
-        <v>161.18</v>
+        <v>137.14</v>
       </c>
       <c r="C169" t="n">
-        <v>5.78</v>
+        <v>11.63</v>
       </c>
       <c r="D169" t="n">
-        <v>1.32</v>
+        <v>6.58</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8660436137071651</v>
+        <v>0.5760517799352751</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.35</v>
+        <v>3.77</v>
       </c>
       <c r="B170" t="n">
-        <v>182.98</v>
+        <v>205.17</v>
       </c>
       <c r="C170" t="n">
-        <v>2.11</v>
+        <v>17.86</v>
       </c>
       <c r="D170" t="n">
-        <v>2.9</v>
+        <v>4.78</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8068535825545171</v>
+        <v>0.6132686084142395</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2.7</v>
+        <v>6.09</v>
       </c>
       <c r="B171" t="n">
-        <v>196.26</v>
+        <v>443.92</v>
       </c>
       <c r="C171" t="n">
-        <v>5.27</v>
+        <v>0.79</v>
       </c>
       <c r="D171" t="n">
-        <v>2.42</v>
+        <v>3.83</v>
       </c>
       <c r="E171" t="n">
-        <v>0.7149532710280374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3.11</v>
+        <v>3.71</v>
       </c>
       <c r="B172" t="n">
-        <v>439.65</v>
+        <v>229.04</v>
       </c>
       <c r="C172" t="n">
-        <v>9.390000000000001</v>
+        <v>-1.08</v>
       </c>
       <c r="D172" t="n">
-        <v>4.45</v>
+        <v>2.46</v>
       </c>
       <c r="E172" t="n">
-        <v>0.602803738317757</v>
+        <v>0.5825242718446602</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.83</v>
+        <v>4.44</v>
       </c>
       <c r="B173" t="n">
-        <v>160.47</v>
+        <v>306.12</v>
       </c>
       <c r="C173" t="n">
-        <v>18.95</v>
+        <v>3.83</v>
       </c>
       <c r="D173" t="n">
-        <v>3.61</v>
+        <v>3.93</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9205607476635514</v>
+        <v>0.7588996763754046</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2.93</v>
+        <v>4.55</v>
       </c>
       <c r="B174" t="n">
-        <v>318.78</v>
+        <v>197.09</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.66</v>
+        <v>7.11</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.67</v>
+        <v>3.66</v>
       </c>
       <c r="E174" t="n">
-        <v>0.7118380062305296</v>
+        <v>0.7880258899676376</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2.97</v>
+        <v>5.43</v>
       </c>
       <c r="B175" t="n">
-        <v>337.97</v>
+        <v>129.12</v>
       </c>
       <c r="C175" t="n">
-        <v>1.08</v>
+        <v>0.91</v>
       </c>
       <c r="D175" t="n">
-        <v>0.98</v>
+        <v>7.57</v>
       </c>
       <c r="E175" t="n">
-        <v>0.6526479750778816</v>
+        <v>0.9061488673139159</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.73</v>
+        <v>4.02</v>
       </c>
       <c r="B176" t="n">
-        <v>100.34</v>
+        <v>150.23</v>
       </c>
       <c r="C176" t="n">
-        <v>5.55</v>
+        <v>-1.72</v>
       </c>
       <c r="D176" t="n">
-        <v>2.88</v>
+        <v>2.18</v>
       </c>
       <c r="E176" t="n">
-        <v>0.9283489096573209</v>
+        <v>0.6488673139158576</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>3.48</v>
+        <v>4.21</v>
       </c>
       <c r="B177" t="n">
-        <v>413.51</v>
+        <v>172.3</v>
       </c>
       <c r="C177" t="n">
-        <v>-17.99</v>
+        <v>23.05</v>
       </c>
       <c r="D177" t="n">
-        <v>8.140000000000001</v>
+        <v>6.55</v>
       </c>
       <c r="E177" t="n">
-        <v>0.6308411214953271</v>
+        <v>0.6941747572815534</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>3.23</v>
+        <v>4.29</v>
       </c>
       <c r="B178" t="n">
-        <v>311.28</v>
+        <v>372.76</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.24</v>
+        <v>6.78</v>
       </c>
       <c r="D178" t="n">
-        <v>2.22</v>
+        <v>5.26</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5669781931464174</v>
+        <v>0.7265372168284789</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2.69</v>
+        <v>3.45</v>
       </c>
       <c r="B179" t="n">
-        <v>99.14</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.94</v>
+        <v>28.77</v>
       </c>
       <c r="D179" t="n">
-        <v>0.25</v>
+        <v>6.22</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7725856697819314</v>
+        <v>0.5064724919093851</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.26</v>
+        <v>6.24</v>
       </c>
       <c r="B180" t="n">
-        <v>172.09</v>
+        <v>103.81</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.58</v>
+        <v>-3.05</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.48</v>
+        <v>1.13</v>
       </c>
       <c r="E180" t="n">
-        <v>0.9112149532710281</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.62</v>
+        <v>3.32</v>
       </c>
       <c r="B181" t="n">
-        <v>181.61</v>
+        <v>151.46</v>
       </c>
       <c r="C181" t="n">
-        <v>5.13</v>
+        <v>19.66</v>
       </c>
       <c r="D181" t="n">
-        <v>2.64</v>
+        <v>5.23</v>
       </c>
       <c r="E181" t="n">
-        <v>0.7414330218068536</v>
+        <v>0.5032362459546925</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>3.52</v>
+        <v>4.34</v>
       </c>
       <c r="B182" t="n">
-        <v>242.06</v>
+        <v>309.73</v>
       </c>
       <c r="C182" t="n">
-        <v>24.71</v>
+        <v>57.27</v>
       </c>
       <c r="D182" t="n">
-        <v>3.48</v>
+        <v>10.31</v>
       </c>
       <c r="E182" t="n">
-        <v>0.5109034267912772</v>
+        <v>0.5550161812297735</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2.87</v>
+        <v>4.7</v>
       </c>
       <c r="B183" t="n">
-        <v>154.13</v>
+        <v>287.63</v>
       </c>
       <c r="C183" t="n">
-        <v>11.78</v>
+        <v>-12.11</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.21</v>
+        <v>-3.26</v>
       </c>
       <c r="E183" t="n">
-        <v>0.7165109034267912</v>
+        <v>0.7362459546925566</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3.02</v>
+        <v>4.09</v>
       </c>
       <c r="B184" t="n">
-        <v>188.59</v>
+        <v>130.45</v>
       </c>
       <c r="C184" t="n">
-        <v>26.51</v>
+        <v>11.26</v>
       </c>
       <c r="D184" t="n">
-        <v>6.76</v>
+        <v>2.06</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7102803738317757</v>
+        <v>0.6747572815533981</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>3.13</v>
+        <v>5.05</v>
       </c>
       <c r="B185" t="n">
-        <v>250.91</v>
+        <v>269.62</v>
       </c>
       <c r="C185" t="n">
-        <v>-8.99</v>
+        <v>6.89</v>
       </c>
       <c r="D185" t="n">
-        <v>1.85</v>
+        <v>5.2</v>
       </c>
       <c r="E185" t="n">
-        <v>0.6121495327102804</v>
+        <v>0.8543689320388349</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1.89</v>
+        <v>4.32</v>
       </c>
       <c r="B186" t="n">
-        <v>64.73999999999999</v>
+        <v>128.49</v>
       </c>
       <c r="C186" t="n">
-        <v>10.47</v>
+        <v>19.39</v>
       </c>
       <c r="D186" t="n">
-        <v>0.48</v>
+        <v>3.38</v>
       </c>
       <c r="E186" t="n">
-        <v>0.9345794392523364</v>
+        <v>0.7281553398058253</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2.35</v>
+        <v>4.22</v>
       </c>
       <c r="B187" t="n">
-        <v>281.55</v>
+        <v>284.65</v>
       </c>
       <c r="C187" t="n">
-        <v>-11.04</v>
+        <v>6.09</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.33</v>
+        <v>8.48</v>
       </c>
       <c r="E187" t="n">
-        <v>0.9080996884735203</v>
+        <v>0.7038834951456311</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>3.36</v>
+        <v>5.4</v>
       </c>
       <c r="B188" t="n">
-        <v>248.58</v>
+        <v>147.68</v>
       </c>
       <c r="C188" t="n">
-        <v>4.75</v>
+        <v>1.84</v>
       </c>
       <c r="D188" t="n">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5280373831775701</v>
+        <v>0.8980582524271845</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="B189" t="n">
-        <v>200.75</v>
+        <v>225.27</v>
       </c>
       <c r="C189" t="n">
-        <v>-8.1</v>
+        <v>2.08</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.9</v>
+        <v>6.12</v>
       </c>
       <c r="E189" t="n">
-        <v>0.7320872274143302</v>
+        <v>0.517799352750809</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3.54</v>
+        <v>4.97</v>
       </c>
       <c r="B190" t="n">
-        <v>306.58</v>
+        <v>312.67</v>
       </c>
       <c r="C190" t="n">
-        <v>0.24</v>
+        <v>1.75</v>
       </c>
       <c r="D190" t="n">
-        <v>1.04</v>
+        <v>6.74</v>
       </c>
       <c r="E190" t="n">
-        <v>0.5015576323987538</v>
+        <v>0.8462783171521036</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1.85</v>
+        <v>3.73</v>
       </c>
       <c r="B191" t="n">
-        <v>406.31</v>
+        <v>257.72</v>
       </c>
       <c r="C191" t="n">
-        <v>12.82</v>
+        <v>2.15</v>
       </c>
       <c r="D191" t="n">
-        <v>6.65</v>
+        <v>0.36</v>
       </c>
       <c r="E191" t="n">
-        <v>0.9579439252336449</v>
+        <v>0.5598705501618123</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1.79</v>
+        <v>4.36</v>
       </c>
       <c r="B192" t="n">
-        <v>472.99</v>
+        <v>235.65</v>
       </c>
       <c r="C192" t="n">
-        <v>17.49</v>
+        <v>15.32</v>
       </c>
       <c r="D192" t="n">
-        <v>2.38</v>
+        <v>5.68</v>
       </c>
       <c r="E192" t="n">
-        <v>0.9439252336448598</v>
+        <v>0.7491909385113269</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2.48</v>
+        <v>3.69</v>
       </c>
       <c r="B193" t="n">
-        <v>128.58</v>
+        <v>233.99</v>
       </c>
       <c r="C193" t="n">
-        <v>28.21</v>
+        <v>19.93</v>
       </c>
       <c r="D193" t="n">
-        <v>4.21</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>0.8255451713395638</v>
+        <v>0.5744336569579288</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2.07</v>
+        <v>3.42</v>
       </c>
       <c r="B194" t="n">
-        <v>148.93</v>
+        <v>106.38</v>
       </c>
       <c r="C194" t="n">
-        <v>-4.97</v>
+        <v>7.09</v>
       </c>
       <c r="D194" t="n">
-        <v>6.42</v>
+        <v>3.84</v>
       </c>
       <c r="E194" t="n">
-        <v>0.9158878504672897</v>
+        <v>0.5194174757281553</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2.77</v>
+        <v>4.69</v>
       </c>
       <c r="B195" t="n">
-        <v>351.51</v>
+        <v>147.35</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.89</v>
+        <v>6.54</v>
       </c>
       <c r="D195" t="n">
-        <v>2.74</v>
+        <v>1.43</v>
       </c>
       <c r="E195" t="n">
-        <v>0.6915887850467289</v>
+        <v>0.8009708737864077</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>3.04</v>
+        <v>6.42</v>
       </c>
       <c r="B196" t="n">
-        <v>52.85</v>
+        <v>89.68000000000001</v>
       </c>
       <c r="C196" t="n">
-        <v>15.5</v>
+        <v>0.54</v>
       </c>
       <c r="D196" t="n">
-        <v>0.62</v>
+        <v>2.52</v>
       </c>
       <c r="E196" t="n">
-        <v>0.6495327102803738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="B197" t="n">
-        <v>271.83</v>
+        <v>134.04</v>
       </c>
       <c r="C197" t="n">
-        <v>8.369999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="D197" t="n">
-        <v>3.97</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="E197" t="n">
-        <v>0.6744548286604362</v>
+        <v>0.6391585760517799</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3.42</v>
+        <v>13.02</v>
       </c>
       <c r="B198" t="n">
-        <v>137.1</v>
+        <v>374.3</v>
       </c>
       <c r="C198" t="n">
-        <v>16.64</v>
+        <v>35.89</v>
       </c>
       <c r="D198" t="n">
-        <v>1.91</v>
+        <v>0.4</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5249221183800623</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2.64</v>
+        <v>13.33</v>
       </c>
       <c r="B199" t="n">
-        <v>555.7</v>
+        <v>177.04</v>
       </c>
       <c r="C199" t="n">
-        <v>-6.74</v>
+        <v>-11.34</v>
       </c>
       <c r="D199" t="n">
-        <v>2.44</v>
+        <v>5.08</v>
       </c>
       <c r="E199" t="n">
-        <v>0.780373831775701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>1.79</v>
+        <v>4.72</v>
       </c>
       <c r="B200" t="n">
-        <v>238.03</v>
+        <v>106.6</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.65</v>
+        <v>7.58</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.5</v>
+        <v>3.24</v>
       </c>
       <c r="E200" t="n">
-        <v>0.9657320872274143</v>
+        <v>0.813915857605178</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.8</v>
+        <v>5.42</v>
       </c>
       <c r="B201" t="n">
-        <v>229.88</v>
+        <v>149.57</v>
       </c>
       <c r="C201" t="n">
-        <v>4.58</v>
+        <v>23.73</v>
       </c>
       <c r="D201" t="n">
-        <v>3.05</v>
+        <v>6.33</v>
       </c>
       <c r="E201" t="n">
-        <v>0.6713395638629284</v>
+        <v>0.8996763754045307</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2.06</v>
+        <v>3.66</v>
       </c>
       <c r="B202" t="n">
-        <v>104.96</v>
+        <v>260.23</v>
       </c>
       <c r="C202" t="n">
-        <v>5.6</v>
+        <v>6.25</v>
       </c>
       <c r="D202" t="n">
-        <v>0.75</v>
+        <v>5.84</v>
       </c>
       <c r="E202" t="n">
-        <v>0.8847352024922118</v>
+        <v>0.5906148867313916</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>2.77</v>
+        <v>4.36</v>
       </c>
       <c r="B203" t="n">
-        <v>125.97</v>
+        <v>115.81</v>
       </c>
       <c r="C203" t="n">
-        <v>-8.630000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.54</v>
+        <v>1.59</v>
       </c>
       <c r="E203" t="n">
-        <v>0.8193146417445483</v>
+        <v>0.7330097087378641</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3.52</v>
+        <v>3.72</v>
       </c>
       <c r="B204" t="n">
-        <v>144.69</v>
+        <v>205.51</v>
       </c>
       <c r="C204" t="n">
-        <v>-9.18</v>
+        <v>-7.72</v>
       </c>
       <c r="D204" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="E204" t="n">
-        <v>0.5093457943925234</v>
+        <v>0.5841423948220065</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3.48</v>
+        <v>5.24</v>
       </c>
       <c r="B205" t="n">
-        <v>1733.22</v>
+        <v>154.12</v>
       </c>
       <c r="C205" t="n">
-        <v>1.49</v>
+        <v>12.65</v>
       </c>
       <c r="D205" t="n">
-        <v>4.74</v>
+        <v>7.61</v>
       </c>
       <c r="E205" t="n">
-        <v>0.9766355140186916</v>
+        <v>0.8818770226537217</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>1.93</v>
+        <v>4.04</v>
       </c>
       <c r="B206" t="n">
-        <v>231.36</v>
+        <v>204.98</v>
       </c>
       <c r="C206" t="n">
-        <v>-7.15</v>
+        <v>-0.78</v>
       </c>
       <c r="D206" t="n">
-        <v>0.68</v>
+        <v>1.78</v>
       </c>
       <c r="E206" t="n">
-        <v>0.9330218068535826</v>
+        <v>0.6553398058252428</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>2.98</v>
+        <v>4.26</v>
       </c>
       <c r="B207" t="n">
-        <v>124.45</v>
+        <v>183.68</v>
       </c>
       <c r="C207" t="n">
-        <v>16.71</v>
+        <v>7.26</v>
       </c>
       <c r="D207" t="n">
-        <v>0.33</v>
+        <v>3.48</v>
       </c>
       <c r="E207" t="n">
-        <v>0.6651090342679128</v>
+        <v>0.7233009708737864</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2.71</v>
+        <v>4.18</v>
       </c>
       <c r="B208" t="n">
-        <v>187.6</v>
+        <v>181.3</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.52</v>
+        <v>4.52</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5</v>
+        <v>5.06</v>
       </c>
       <c r="E208" t="n">
-        <v>0.7523364485981309</v>
+        <v>0.6990291262135923</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3.18</v>
+        <v>3.34</v>
       </c>
       <c r="B209" t="n">
-        <v>202.24</v>
+        <v>250.17</v>
       </c>
       <c r="C209" t="n">
-        <v>-2.48</v>
+        <v>22.81</v>
       </c>
       <c r="D209" t="n">
-        <v>2.62</v>
+        <v>6.72</v>
       </c>
       <c r="E209" t="n">
-        <v>0.5841121495327103</v>
+        <v>0.5016181229773463</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2.68</v>
+        <v>7.01</v>
       </c>
       <c r="B210" t="n">
-        <v>218.76</v>
+        <v>131.8</v>
       </c>
       <c r="C210" t="n">
-        <v>29.39</v>
+        <v>-5.21</v>
       </c>
       <c r="D210" t="n">
-        <v>8.81</v>
+        <v>-0.04</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8878504672897196</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2.82</v>
+        <v>4.4</v>
       </c>
       <c r="B211" t="n">
-        <v>225.5</v>
+        <v>135.58</v>
       </c>
       <c r="C211" t="n">
-        <v>1.64</v>
+        <v>14.22</v>
       </c>
       <c r="D211" t="n">
-        <v>2.32</v>
+        <v>6.41</v>
       </c>
       <c r="E211" t="n">
-        <v>0.6697819314641744</v>
+        <v>0.7556634304207119</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2.34</v>
+        <v>4.54</v>
       </c>
       <c r="B212" t="n">
-        <v>327.04</v>
+        <v>249.53</v>
       </c>
       <c r="C212" t="n">
-        <v>-13.29</v>
+        <v>20</v>
       </c>
       <c r="D212" t="n">
-        <v>-2.67</v>
+        <v>8.49</v>
       </c>
       <c r="E212" t="n">
-        <v>0.9704049844236761</v>
+        <v>0.7750809061488673</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.72</v>
+        <v>3.75</v>
       </c>
       <c r="B213" t="n">
-        <v>139.56</v>
+        <v>192.26</v>
       </c>
       <c r="C213" t="n">
-        <v>4.17</v>
+        <v>3.98</v>
       </c>
       <c r="D213" t="n">
-        <v>2.45</v>
+        <v>1.1</v>
       </c>
       <c r="E213" t="n">
-        <v>0.7071651090342679</v>
+        <v>0.587378640776699</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3.09</v>
+        <v>3.55</v>
       </c>
       <c r="B214" t="n">
-        <v>104.28</v>
+        <v>176.05</v>
       </c>
       <c r="C214" t="n">
-        <v>24.49</v>
+        <v>-1.24</v>
       </c>
       <c r="D214" t="n">
-        <v>7.55</v>
+        <v>5.71</v>
       </c>
       <c r="E214" t="n">
-        <v>0.7133956386292835</v>
+        <v>0.5453074433656958</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>1.95</v>
+        <v>7.44</v>
       </c>
       <c r="B215" t="n">
-        <v>151.15</v>
+        <v>149.23</v>
       </c>
       <c r="C215" t="n">
-        <v>-15.05</v>
+        <v>10.29</v>
       </c>
       <c r="D215" t="n">
-        <v>1.69</v>
+        <v>2.37</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9470404984423676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3.33</v>
+        <v>3.64</v>
       </c>
       <c r="B216" t="n">
-        <v>146.78</v>
+        <v>153.23</v>
       </c>
       <c r="C216" t="n">
-        <v>17.51</v>
+        <v>5.85</v>
       </c>
       <c r="D216" t="n">
-        <v>3.12</v>
+        <v>5.26</v>
       </c>
       <c r="E216" t="n">
-        <v>0.5358255451713395</v>
+        <v>0.5792880258899676</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2.28</v>
+        <v>3.74</v>
       </c>
       <c r="B217" t="n">
-        <v>158.57</v>
+        <v>138.18</v>
       </c>
       <c r="C217" t="n">
-        <v>3.09</v>
+        <v>7.72</v>
       </c>
       <c r="D217" t="n">
-        <v>1.71</v>
+        <v>5</v>
       </c>
       <c r="E217" t="n">
-        <v>0.8286604361370716</v>
+        <v>0.6084142394822006</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>1.77</v>
+        <v>5.45</v>
       </c>
       <c r="B218" t="n">
-        <v>388.87</v>
+        <v>162.96</v>
       </c>
       <c r="C218" t="n">
-        <v>-5.71</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D218" t="n">
-        <v>0.15</v>
+        <v>5.18</v>
       </c>
       <c r="E218" t="n">
-        <v>0.9672897196261683</v>
+        <v>0.9158576051779935</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2.2</v>
+        <v>3.79</v>
       </c>
       <c r="B219" t="n">
-        <v>142.24</v>
+        <v>103.71</v>
       </c>
       <c r="C219" t="n">
-        <v>21.01</v>
+        <v>3.18</v>
       </c>
       <c r="D219" t="n">
-        <v>2.3</v>
+        <v>-1.87</v>
       </c>
       <c r="E219" t="n">
-        <v>0.8551401869158879</v>
+        <v>0.5388349514563107</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3.14</v>
+        <v>4.11</v>
       </c>
       <c r="B220" t="n">
-        <v>96.68000000000001</v>
+        <v>177.74</v>
       </c>
       <c r="C220" t="n">
-        <v>-4.72</v>
+        <v>23.91</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.35</v>
+        <v>10.52</v>
       </c>
       <c r="E220" t="n">
-        <v>0.6433021806853583</v>
+        <v>0.6537216828478964</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2.13</v>
+        <v>5.1</v>
       </c>
       <c r="B221" t="n">
-        <v>177.23</v>
+        <v>447.39</v>
       </c>
       <c r="C221" t="n">
-        <v>-8.07</v>
+        <v>-3.26</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.01</v>
+        <v>0.62</v>
       </c>
       <c r="E221" t="n">
-        <v>0.9065420560747663</v>
+        <v>0.8365695792880259</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2.76</v>
+        <v>5.65</v>
       </c>
       <c r="B222" t="n">
-        <v>189.29</v>
+        <v>274.22</v>
       </c>
       <c r="C222" t="n">
-        <v>1.51</v>
+        <v>12.54</v>
       </c>
       <c r="D222" t="n">
-        <v>3.58</v>
+        <v>5.65</v>
       </c>
       <c r="E222" t="n">
-        <v>0.6853582554517134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3.51</v>
+        <v>5.28</v>
       </c>
       <c r="B223" t="n">
-        <v>465.02</v>
+        <v>244.55</v>
       </c>
       <c r="C223" t="n">
-        <v>8.050000000000001</v>
+        <v>-9.18</v>
       </c>
       <c r="D223" t="n">
-        <v>3.69</v>
+        <v>7.37</v>
       </c>
       <c r="E223" t="n">
-        <v>0.5</v>
+        <v>0.8786407766990292</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.72</v>
+        <v>4.9</v>
       </c>
       <c r="B224" t="n">
-        <v>220.46</v>
+        <v>155.45</v>
       </c>
       <c r="C224" t="n">
-        <v>9.69</v>
+        <v>59.41</v>
       </c>
       <c r="D224" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="E224" t="n">
-        <v>0.7040498442367601</v>
+        <v>0.7184466019417476</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="B225" t="n">
-        <v>91.44</v>
+        <v>177.29</v>
       </c>
       <c r="C225" t="n">
-        <v>14.43</v>
+        <v>4.47</v>
       </c>
       <c r="D225" t="n">
-        <v>1.84</v>
+        <v>5.83</v>
       </c>
       <c r="E225" t="n">
-        <v>0.5311526479750779</v>
+        <v>0.5097087378640777</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.35</v>
+        <v>5.35</v>
       </c>
       <c r="B226" t="n">
-        <v>1637.73</v>
+        <v>232.53</v>
       </c>
       <c r="C226" t="n">
-        <v>4.23</v>
+        <v>0.66</v>
       </c>
       <c r="D226" t="n">
-        <v>1.21</v>
+        <v>6.48</v>
       </c>
       <c r="E226" t="n">
-        <v>0.9937694704049844</v>
+        <v>0.8948220064724919</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>1.93</v>
+        <v>4.64</v>
       </c>
       <c r="B227" t="n">
-        <v>91.15000000000001</v>
+        <v>134.54</v>
       </c>
       <c r="C227" t="n">
-        <v>2.73</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="D227" t="n">
-        <v>2.56</v>
+        <v>0.79</v>
       </c>
       <c r="E227" t="n">
-        <v>0.8894080996884736</v>
+        <v>0.7686084142394822</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1.76</v>
+        <v>4.31</v>
       </c>
       <c r="B228" t="n">
-        <v>447.24</v>
+        <v>214.17</v>
       </c>
       <c r="C228" t="n">
-        <v>-22.54</v>
+        <v>14.53</v>
       </c>
       <c r="D228" t="n">
-        <v>0.91</v>
+        <v>5.66</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9797507788161994</v>
+        <v>0.7459546925566343</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.66</v>
+        <v>3.59</v>
       </c>
       <c r="B229" t="n">
-        <v>89.7</v>
+        <v>197.62</v>
       </c>
       <c r="C229" t="n">
-        <v>9.869999999999999</v>
+        <v>7.51</v>
       </c>
       <c r="D229" t="n">
-        <v>2.23</v>
+        <v>7.52</v>
       </c>
       <c r="E229" t="n">
-        <v>0.7383177570093458</v>
+        <v>0.5631067961165048</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.63</v>
+        <v>4.17</v>
       </c>
       <c r="B230" t="n">
-        <v>113.54</v>
+        <v>149.24</v>
       </c>
       <c r="C230" t="n">
-        <v>13.96</v>
+        <v>6.18</v>
       </c>
       <c r="D230" t="n">
-        <v>5.23</v>
+        <v>5.64</v>
       </c>
       <c r="E230" t="n">
-        <v>0.764797507788162</v>
+        <v>0.6957928802588996</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2.56</v>
+        <v>3.41</v>
       </c>
       <c r="B231" t="n">
-        <v>482.88</v>
+        <v>156.11</v>
       </c>
       <c r="C231" t="n">
-        <v>4.46</v>
+        <v>14</v>
       </c>
       <c r="D231" t="n">
-        <v>2.93</v>
+        <v>6.63</v>
       </c>
       <c r="E231" t="n">
-        <v>0.7741433021806854</v>
+        <v>0.5258899676375405</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="B232" t="n">
-        <v>247.7</v>
+        <v>198.75</v>
       </c>
       <c r="C232" t="n">
-        <v>7.31</v>
+        <v>0.6</v>
       </c>
       <c r="D232" t="n">
-        <v>1.45</v>
+        <v>5.32</v>
       </c>
       <c r="E232" t="n">
-        <v>0.7866043613707165</v>
+        <v>0.6003236245954693</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3.26</v>
+        <v>4.44</v>
       </c>
       <c r="B233" t="n">
-        <v>119.01</v>
+        <v>165.47</v>
       </c>
       <c r="C233" t="n">
-        <v>6.8</v>
+        <v>14.21</v>
       </c>
       <c r="D233" t="n">
-        <v>1.3</v>
+        <v>6.46</v>
       </c>
       <c r="E233" t="n">
-        <v>0.5607476635514018</v>
+        <v>0.7621359223300971</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3.18</v>
+        <v>5.29</v>
       </c>
       <c r="B234" t="n">
-        <v>285.03</v>
+        <v>479.55</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.03</v>
+        <v>7.44</v>
       </c>
       <c r="D234" t="n">
-        <v>3.09</v>
+        <v>7.16</v>
       </c>
       <c r="E234" t="n">
-        <v>0.5763239875389408</v>
+        <v>0.8705501618122977</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2.2</v>
+        <v>4.72</v>
       </c>
       <c r="B235" t="n">
-        <v>152.85</v>
+        <v>160.92</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.86</v>
+        <v>2.27</v>
       </c>
       <c r="D235" t="n">
-        <v>0.2</v>
+        <v>5.15</v>
       </c>
       <c r="E235" t="n">
-        <v>0.8738317757009346</v>
+        <v>0.8155339805825242</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>2.96</v>
+        <v>5.13</v>
       </c>
       <c r="B236" t="n">
-        <v>216.63</v>
+        <v>348.5</v>
       </c>
       <c r="C236" t="n">
-        <v>3.31</v>
+        <v>10.84</v>
       </c>
       <c r="D236" t="n">
-        <v>1.95</v>
+        <v>8.06</v>
       </c>
       <c r="E236" t="n">
-        <v>0.6355140186915887</v>
+        <v>0.8592233009708737</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>1.96</v>
+        <v>4.87</v>
       </c>
       <c r="B237" t="n">
-        <v>1102.84</v>
+        <v>122.67</v>
       </c>
       <c r="C237" t="n">
-        <v>6.07</v>
+        <v>10.42</v>
       </c>
       <c r="D237" t="n">
-        <v>2.75</v>
+        <v>7.37</v>
       </c>
       <c r="E237" t="n">
-        <v>0.9828660436137072</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2.87</v>
+        <v>3.98</v>
       </c>
       <c r="B238" t="n">
-        <v>369.17</v>
+        <v>226.71</v>
       </c>
       <c r="C238" t="n">
-        <v>-4.77</v>
+        <v>9.82</v>
       </c>
       <c r="D238" t="n">
-        <v>-2.37</v>
+        <v>4.99</v>
       </c>
       <c r="E238" t="n">
-        <v>0.8130841121495327</v>
+        <v>0.6650485436893204</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.21</v>
+        <v>5.05</v>
       </c>
       <c r="B239" t="n">
-        <v>134.2</v>
+        <v>309.39</v>
       </c>
       <c r="C239" t="n">
-        <v>-20.06</v>
+        <v>31.79</v>
       </c>
       <c r="D239" t="n">
-        <v>0.75</v>
+        <v>6.76</v>
       </c>
       <c r="E239" t="n">
-        <v>0.6542056074766355</v>
+        <v>0.8414239482200647</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>2.77</v>
+        <v>3.46</v>
       </c>
       <c r="B240" t="n">
-        <v>237.08</v>
+        <v>130.05</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.85</v>
+        <v>1.59</v>
       </c>
       <c r="D240" t="n">
-        <v>1.02</v>
+        <v>2.9</v>
       </c>
       <c r="E240" t="n">
-        <v>0.721183800623053</v>
+        <v>0.5242718446601942</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2.3</v>
+        <v>4.44</v>
       </c>
       <c r="B241" t="n">
-        <v>181.7</v>
+        <v>305.76</v>
       </c>
       <c r="C241" t="n">
-        <v>-12.65</v>
+        <v>8.31</v>
       </c>
       <c r="D241" t="n">
-        <v>1.34</v>
+        <v>7.73</v>
       </c>
       <c r="E241" t="n">
-        <v>0.8566978193146417</v>
+        <v>0.7605177993527508</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3.29</v>
+        <v>3.57</v>
       </c>
       <c r="B242" t="n">
-        <v>98.02</v>
+        <v>342.54</v>
       </c>
       <c r="C242" t="n">
-        <v>-7.83</v>
+        <v>1.49</v>
       </c>
       <c r="D242" t="n">
-        <v>1.88</v>
+        <v>3.92</v>
       </c>
       <c r="E242" t="n">
-        <v>0.5700934579439252</v>
+        <v>0.540453074433657</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>1.79</v>
+        <v>5.66</v>
       </c>
       <c r="B243" t="n">
-        <v>175.48</v>
+        <v>167.66</v>
       </c>
       <c r="C243" t="n">
-        <v>8.890000000000001</v>
+        <v>15.56</v>
       </c>
       <c r="D243" t="n">
-        <v>1.2</v>
+        <v>0.52</v>
       </c>
       <c r="E243" t="n">
-        <v>0.9299065420560748</v>
+        <v>0.9223300970873787</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3.17</v>
+        <v>5.26</v>
       </c>
       <c r="B244" t="n">
-        <v>126.62</v>
+        <v>194.01</v>
       </c>
       <c r="C244" t="n">
-        <v>10.18</v>
+        <v>5.27</v>
       </c>
       <c r="D244" t="n">
-        <v>4.37</v>
+        <v>7.2</v>
       </c>
       <c r="E244" t="n">
-        <v>0.5872274143302181</v>
+        <v>0.883495145631068</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3.4</v>
+        <v>5.07</v>
       </c>
       <c r="B245" t="n">
-        <v>201.33</v>
+        <v>77.18000000000001</v>
       </c>
       <c r="C245" t="n">
-        <v>8.17</v>
+        <v>0.71</v>
       </c>
       <c r="D245" t="n">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="E245" t="n">
-        <v>0.5218068535825545</v>
+        <v>0.8511326860841424</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>1.93</v>
+        <v>4.5</v>
       </c>
       <c r="B246" t="n">
-        <v>420.57</v>
+        <v>224.76</v>
       </c>
       <c r="C246" t="n">
-        <v>15.86</v>
+        <v>2.11</v>
       </c>
       <c r="D246" t="n">
-        <v>2.65</v>
+        <v>7.02</v>
       </c>
       <c r="E246" t="n">
-        <v>0.8987538940809969</v>
+        <v>0.7783171521035599</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2.74</v>
+        <v>4.25</v>
       </c>
       <c r="B247" t="n">
-        <v>363.61</v>
+        <v>136.01</v>
       </c>
       <c r="C247" t="n">
-        <v>3.47</v>
+        <v>1.68</v>
       </c>
       <c r="D247" t="n">
-        <v>0.97</v>
+        <v>4.54</v>
       </c>
       <c r="E247" t="n">
-        <v>0.7289719626168224</v>
+        <v>0.7135922330097088</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3.41</v>
+        <v>6.35</v>
       </c>
       <c r="B248" t="n">
-        <v>242.52</v>
+        <v>82.34</v>
       </c>
       <c r="C248" t="n">
-        <v>9.9</v>
+        <v>4.2</v>
       </c>
       <c r="D248" t="n">
-        <v>5.93</v>
+        <v>3.82</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5342679127725857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2.84</v>
+        <v>4.8</v>
       </c>
       <c r="B249" t="n">
-        <v>122.51</v>
+        <v>174.59</v>
       </c>
       <c r="C249" t="n">
-        <v>-2.6</v>
+        <v>-8.210000000000001</v>
       </c>
       <c r="D249" t="n">
-        <v>0.67</v>
+        <v>7.23</v>
       </c>
       <c r="E249" t="n">
-        <v>0.705607476635514</v>
+        <v>0.8187702265372169</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.24</v>
+        <v>5.02</v>
       </c>
       <c r="B250" t="n">
-        <v>280.21</v>
+        <v>166.42</v>
       </c>
       <c r="C250" t="n">
-        <v>1.54</v>
+        <v>-2.28</v>
       </c>
       <c r="D250" t="n">
-        <v>2.73</v>
+        <v>0.99</v>
       </c>
       <c r="E250" t="n">
-        <v>0.8302180685358256</v>
+        <v>0.843042071197411</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>2.67</v>
+        <v>3.47</v>
       </c>
       <c r="B251" t="n">
-        <v>206.67</v>
+        <v>476.71</v>
       </c>
       <c r="C251" t="n">
-        <v>16.46</v>
+        <v>9.58</v>
       </c>
       <c r="D251" t="n">
-        <v>3.5</v>
+        <v>8.4</v>
       </c>
       <c r="E251" t="n">
-        <v>0.735202492211838</v>
+        <v>0.5048543689320388</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>1.74</v>
+        <v>6.64</v>
       </c>
       <c r="B252" t="n">
-        <v>105.63</v>
+        <v>166.87</v>
       </c>
       <c r="C252" t="n">
-        <v>3.03</v>
+        <v>2.01</v>
       </c>
       <c r="D252" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="E252" t="n">
-        <v>0.9376947040498442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>1.86</v>
+        <v>5.43</v>
       </c>
       <c r="B253" t="n">
-        <v>8468.610000000001</v>
+        <v>223.75</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.77</v>
+        <v>4.45</v>
       </c>
       <c r="D253" t="n">
-        <v>3.75</v>
+        <v>5.69</v>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0.9110032362459547</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>1.79</v>
+        <v>3.77</v>
       </c>
       <c r="B254" t="n">
-        <v>728.3200000000001</v>
+        <v>185.66</v>
       </c>
       <c r="C254" t="n">
-        <v>56.02</v>
+        <v>-0.59</v>
       </c>
       <c r="D254" t="n">
-        <v>2.21</v>
+        <v>10.8</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9875389408099688</v>
+        <v>0.580906148867314</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>2.69</v>
+        <v>4.99</v>
       </c>
       <c r="B255" t="n">
-        <v>228.57</v>
+        <v>160.49</v>
       </c>
       <c r="C255" t="n">
-        <v>-3.97</v>
+        <v>2.15</v>
       </c>
       <c r="D255" t="n">
-        <v>1.9</v>
+        <v>4.09</v>
       </c>
       <c r="E255" t="n">
-        <v>0.7367601246105919</v>
+        <v>0.8495145631067961</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.55</v>
+        <v>3.9</v>
       </c>
       <c r="B256" t="n">
-        <v>175.88</v>
+        <v>211.39</v>
       </c>
       <c r="C256" t="n">
-        <v>3.69</v>
+        <v>13.07</v>
       </c>
       <c r="D256" t="n">
-        <v>2.97</v>
+        <v>7.27</v>
       </c>
       <c r="E256" t="n">
-        <v>0.7585669781931464</v>
+        <v>0.6423948220064725</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1.82</v>
+        <v>3.67</v>
       </c>
       <c r="B257" t="n">
-        <v>216.11</v>
+        <v>81.41</v>
       </c>
       <c r="C257" t="n">
-        <v>0.61</v>
+        <v>4.79</v>
       </c>
       <c r="D257" t="n">
-        <v>1.43</v>
+        <v>9.93</v>
       </c>
       <c r="E257" t="n">
-        <v>0.9221183800623053</v>
+        <v>0.551779935275081</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3.08</v>
+        <v>3.53</v>
       </c>
       <c r="B258" t="n">
-        <v>192.58</v>
+        <v>244.21</v>
       </c>
       <c r="C258" t="n">
-        <v>11.58</v>
+        <v>0.08</v>
       </c>
       <c r="D258" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="E258" t="n">
-        <v>0.5996884735202492</v>
+        <v>0.5323624595469255</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>2</v>
+        <v>4.71</v>
       </c>
       <c r="B259" t="n">
-        <v>405.23</v>
+        <v>53.42</v>
       </c>
       <c r="C259" t="n">
-        <v>12.86</v>
+        <v>18.11</v>
       </c>
       <c r="D259" t="n">
-        <v>0.79</v>
+        <v>1.49</v>
       </c>
       <c r="E259" t="n">
-        <v>0.9034267912772586</v>
+        <v>0.7912621359223301</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3.54</v>
+        <v>5.25</v>
       </c>
       <c r="B260" t="n">
-        <v>123.8</v>
+        <v>134.43</v>
       </c>
       <c r="C260" t="n">
-        <v>5.4</v>
+        <v>15.66</v>
       </c>
       <c r="D260" t="n">
-        <v>0.48</v>
+        <v>2.24</v>
       </c>
       <c r="E260" t="n">
-        <v>0.5062305295950156</v>
+        <v>0.8754045307443366</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>2.66</v>
+        <v>3.73</v>
       </c>
       <c r="B261" t="n">
-        <v>191.16</v>
+        <v>202.41</v>
       </c>
       <c r="C261" t="n">
-        <v>-2.45</v>
+        <v>13.45</v>
       </c>
       <c r="D261" t="n">
-        <v>1.12</v>
+        <v>7.28</v>
       </c>
       <c r="E261" t="n">
-        <v>0.7538940809968847</v>
+        <v>0.6051779935275081</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2.17</v>
+        <v>5.13</v>
       </c>
       <c r="B262" t="n">
-        <v>255.13</v>
+        <v>187</v>
       </c>
       <c r="C262" t="n">
-        <v>2.08</v>
+        <v>-6.58</v>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>9.16</v>
       </c>
       <c r="E262" t="n">
-        <v>0.8473520249221184</v>
+        <v>0.8559870550161812</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3.03</v>
+        <v>4.56</v>
       </c>
       <c r="B263" t="n">
-        <v>144.26</v>
+        <v>623.47</v>
       </c>
       <c r="C263" t="n">
-        <v>22.36</v>
+        <v>22.43</v>
       </c>
       <c r="D263" t="n">
-        <v>1.65</v>
+        <v>4.47</v>
       </c>
       <c r="E263" t="n">
-        <v>0.6448598130841121</v>
+        <v>0.7006472491909385</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>2.11</v>
+        <v>3.69</v>
       </c>
       <c r="B264" t="n">
-        <v>404.03</v>
+        <v>92.81</v>
       </c>
       <c r="C264" t="n">
-        <v>63.19</v>
+        <v>6.59</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.72</v>
+        <v>3.42</v>
       </c>
       <c r="E264" t="n">
-        <v>0.9922118380062306</v>
+        <v>0.5776699029126213</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.29</v>
+        <v>5.87</v>
       </c>
       <c r="B265" t="n">
-        <v>179.36</v>
+        <v>156.22</v>
       </c>
       <c r="C265" t="n">
-        <v>10.69</v>
+        <v>4.55</v>
       </c>
       <c r="D265" t="n">
-        <v>4.75</v>
+        <v>2.76</v>
       </c>
       <c r="E265" t="n">
-        <v>0.5498442367601246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>1.99</v>
+        <v>6.36</v>
       </c>
       <c r="B266" t="n">
-        <v>160.99</v>
+        <v>149.69</v>
       </c>
       <c r="C266" t="n">
-        <v>5.4</v>
+        <v>-0.22</v>
       </c>
       <c r="D266" t="n">
-        <v>2.36</v>
+        <v>3.91</v>
       </c>
       <c r="E266" t="n">
-        <v>0.8753894080996885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3.35</v>
+        <v>4.11</v>
       </c>
       <c r="B267" t="n">
-        <v>195.18</v>
+        <v>131.33</v>
       </c>
       <c r="C267" t="n">
-        <v>0.05</v>
+        <v>2.99</v>
       </c>
       <c r="D267" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="E267" t="n">
-        <v>0.5327102803738317</v>
+        <v>0.6796116504854369</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>2.52</v>
+        <v>3.69</v>
       </c>
       <c r="B268" t="n">
-        <v>171.39</v>
+        <v>170.89</v>
       </c>
       <c r="C268" t="n">
-        <v>2.9</v>
+        <v>14.92</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.21</v>
+        <v>4.09</v>
       </c>
       <c r="E268" t="n">
-        <v>0.8161993769470405</v>
+        <v>0.5938511326860841</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.59</v>
+        <v>5.29</v>
       </c>
       <c r="B269" t="n">
-        <v>149.71</v>
+        <v>246.31</v>
       </c>
       <c r="C269" t="n">
-        <v>6.17</v>
+        <v>0.09</v>
       </c>
       <c r="D269" t="n">
-        <v>3.57</v>
+        <v>4.44</v>
       </c>
       <c r="E269" t="n">
-        <v>0.7461059190031153</v>
+        <v>0.8883495145631068</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3.18</v>
+        <v>4.04</v>
       </c>
       <c r="B270" t="n">
-        <v>237.9</v>
+        <v>153.98</v>
       </c>
       <c r="C270" t="n">
-        <v>2.74</v>
+        <v>6.53</v>
       </c>
       <c r="D270" t="n">
-        <v>2.05</v>
+        <v>6.61</v>
       </c>
       <c r="E270" t="n">
-        <v>0.5809968847352025</v>
+        <v>0.6779935275080906</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3.07</v>
+        <v>6.37</v>
       </c>
       <c r="B271" t="n">
-        <v>119.82</v>
+        <v>183.93</v>
       </c>
       <c r="C271" t="n">
-        <v>5.61</v>
+        <v>15.64</v>
       </c>
       <c r="D271" t="n">
-        <v>2.47</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="E271" t="n">
-        <v>0.6074766355140186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3.23</v>
+        <v>4.66</v>
       </c>
       <c r="B272" t="n">
-        <v>220.88</v>
+        <v>185.94</v>
       </c>
       <c r="C272" t="n">
-        <v>-7.71</v>
+        <v>6.92</v>
       </c>
       <c r="D272" t="n">
-        <v>1.89</v>
+        <v>10.24</v>
       </c>
       <c r="E272" t="n">
-        <v>0.5856697819314641</v>
+        <v>0.7944983818770227</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.13</v>
+        <v>5.07</v>
       </c>
       <c r="B273" t="n">
-        <v>257.41</v>
+        <v>87.04000000000001</v>
       </c>
       <c r="C273" t="n">
-        <v>8.57</v>
+        <v>41.26</v>
       </c>
       <c r="D273" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="E273" t="n">
-        <v>0.8598130841121495</v>
+        <v>0.8171521035598706</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2.75</v>
+        <v>3.42</v>
       </c>
       <c r="B274" t="n">
-        <v>197.39</v>
+        <v>137.43</v>
       </c>
       <c r="C274" t="n">
-        <v>2.97</v>
+        <v>15.47</v>
       </c>
       <c r="D274" t="n">
-        <v>2.7</v>
+        <v>2.43</v>
       </c>
       <c r="E274" t="n">
-        <v>0.6884735202492211</v>
+        <v>0.511326860841424</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3.21</v>
+        <v>5.77</v>
       </c>
       <c r="B275" t="n">
-        <v>199.7</v>
+        <v>136.48</v>
       </c>
       <c r="C275" t="n">
-        <v>-2.55</v>
+        <v>-13.49</v>
       </c>
       <c r="D275" t="n">
-        <v>0.44</v>
+        <v>2.61</v>
       </c>
       <c r="E275" t="n">
-        <v>0.5965732087227414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2.42</v>
+        <v>5.81</v>
       </c>
       <c r="B276" t="n">
-        <v>165.49</v>
+        <v>162.86</v>
       </c>
       <c r="C276" t="n">
-        <v>10.58</v>
+        <v>1.73</v>
       </c>
       <c r="D276" t="n">
-        <v>2.47</v>
+        <v>6.3</v>
       </c>
       <c r="E276" t="n">
-        <v>0.794392523364486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>1.87</v>
+        <v>4.84</v>
       </c>
       <c r="B277" t="n">
-        <v>104.46</v>
+        <v>130.8</v>
       </c>
       <c r="C277" t="n">
-        <v>-7.08</v>
+        <v>11.98</v>
       </c>
       <c r="D277" t="n">
-        <v>0.98</v>
+        <v>5.92</v>
       </c>
       <c r="E277" t="n">
-        <v>0.9485981308411215</v>
+        <v>0.8284789644012945</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2.2</v>
+        <v>5.21</v>
       </c>
       <c r="B278" t="n">
-        <v>156.3</v>
+        <v>213.62</v>
       </c>
       <c r="C278" t="n">
-        <v>40.48</v>
+        <v>-1.39</v>
       </c>
       <c r="D278" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="E278" t="n">
-        <v>0.9517133956386293</v>
+        <v>0.8737864077669902</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2.64</v>
+        <v>4.26</v>
       </c>
       <c r="B279" t="n">
-        <v>99.08</v>
+        <v>170.83</v>
       </c>
       <c r="C279" t="n">
-        <v>-1.79</v>
+        <v>5.61</v>
       </c>
       <c r="D279" t="n">
-        <v>0.44</v>
+        <v>8.51</v>
       </c>
       <c r="E279" t="n">
-        <v>0.7819314641744548</v>
+        <v>0.7152103559870551</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2.79</v>
+        <v>4.56</v>
       </c>
       <c r="B280" t="n">
-        <v>255.92</v>
+        <v>143.98</v>
       </c>
       <c r="C280" t="n">
-        <v>27.1</v>
+        <v>18.62</v>
       </c>
       <c r="D280" t="n">
-        <v>1.54</v>
+        <v>7.9</v>
       </c>
       <c r="E280" t="n">
-        <v>0.7445482866043613</v>
+        <v>0.7847896440129449</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2.46</v>
+        <v>4.52</v>
       </c>
       <c r="B281" t="n">
-        <v>51.19</v>
+        <v>145.85</v>
       </c>
       <c r="C281" t="n">
-        <v>21.78</v>
+        <v>55.99</v>
       </c>
       <c r="D281" t="n">
-        <v>1.66</v>
+        <v>6.63</v>
       </c>
       <c r="E281" t="n">
-        <v>0.8208722741433022</v>
+        <v>0.6456310679611651</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2.48</v>
+        <v>3.66</v>
       </c>
       <c r="B282" t="n">
-        <v>151.64</v>
+        <v>113.98</v>
       </c>
       <c r="C282" t="n">
-        <v>32.78</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D282" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="E282" t="n">
-        <v>0.8364485981308412</v>
+        <v>0.5663430420711975</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2.8</v>
+        <v>3.67</v>
       </c>
       <c r="B283" t="n">
-        <v>508.35</v>
+        <v>163.38</v>
       </c>
       <c r="C283" t="n">
-        <v>2.03</v>
+        <v>28.23</v>
       </c>
       <c r="D283" t="n">
-        <v>2.71</v>
+        <v>5.97</v>
       </c>
       <c r="E283" t="n">
-        <v>0.6947040498442367</v>
+        <v>0.5501618122977346</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2.71</v>
+        <v>3.64</v>
       </c>
       <c r="B284" t="n">
-        <v>263.88</v>
+        <v>147.17</v>
       </c>
       <c r="C284" t="n">
-        <v>3.61</v>
+        <v>18.87</v>
       </c>
       <c r="D284" t="n">
-        <v>1.98</v>
+        <v>5.36</v>
       </c>
       <c r="E284" t="n">
-        <v>0.719626168224299</v>
+        <v>0.5711974110032363</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.32</v>
+        <v>4.06</v>
       </c>
       <c r="B285" t="n">
-        <v>142.83</v>
+        <v>181.25</v>
       </c>
       <c r="C285" t="n">
-        <v>0.43</v>
+        <v>0.78</v>
       </c>
       <c r="D285" t="n">
-        <v>0.22</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="E285" t="n">
-        <v>0.8489096573208723</v>
+        <v>0.6715210355987055</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3.11</v>
+        <v>5.26</v>
       </c>
       <c r="B286" t="n">
-        <v>99</v>
+        <v>198.48</v>
       </c>
       <c r="C286" t="n">
-        <v>16.32</v>
+        <v>-0.43</v>
       </c>
       <c r="D286" t="n">
-        <v>2.42</v>
+        <v>10.43</v>
       </c>
       <c r="E286" t="n">
-        <v>0.6043613707165109</v>
+        <v>0.872168284789644</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2.94</v>
+        <v>4.19</v>
       </c>
       <c r="B287" t="n">
-        <v>321.34</v>
+        <v>216.31</v>
       </c>
       <c r="C287" t="n">
-        <v>2.72</v>
+        <v>12.24</v>
       </c>
       <c r="D287" t="n">
-        <v>3.24</v>
+        <v>6.47</v>
       </c>
       <c r="E287" t="n">
-        <v>0.6386292834890965</v>
+        <v>0.7087378640776699</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.78</v>
+        <v>4.08</v>
       </c>
       <c r="B288" t="n">
-        <v>181.16</v>
+        <v>100.96</v>
       </c>
       <c r="C288" t="n">
-        <v>7.57</v>
+        <v>4.38</v>
       </c>
       <c r="D288" t="n">
-        <v>1.66</v>
+        <v>1.1</v>
       </c>
       <c r="E288" t="n">
-        <v>0.6869158878504673</v>
+        <v>0.656957928802589</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3.19</v>
+        <v>3.85</v>
       </c>
       <c r="B289" t="n">
-        <v>189.13</v>
+        <v>337.27</v>
       </c>
       <c r="C289" t="n">
-        <v>1.35</v>
+        <v>4.43</v>
       </c>
       <c r="D289" t="n">
-        <v>2.97</v>
+        <v>3.31</v>
       </c>
       <c r="E289" t="n">
-        <v>0.5747663551401869</v>
+        <v>0.6294498381877023</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3.44</v>
+        <v>4.94</v>
       </c>
       <c r="B290" t="n">
-        <v>470.51</v>
+        <v>164.82</v>
       </c>
       <c r="C290" t="n">
-        <v>28.86</v>
+        <v>10.45</v>
       </c>
       <c r="D290" t="n">
-        <v>3.51</v>
+        <v>2.87</v>
       </c>
       <c r="E290" t="n">
-        <v>0.5467289719626168</v>
+        <v>0.8398058252427184</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3.53</v>
+        <v>5.15</v>
       </c>
       <c r="B291" t="n">
-        <v>102.95</v>
+        <v>122.12</v>
       </c>
       <c r="C291" t="n">
-        <v>11.45</v>
+        <v>1.47</v>
       </c>
       <c r="D291" t="n">
-        <v>0.17</v>
+        <v>6.52</v>
       </c>
       <c r="E291" t="n">
-        <v>0.5171339563862928</v>
+        <v>0.8640776699029126</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="B292" t="n">
-        <v>318.41</v>
+        <v>198.77</v>
       </c>
       <c r="C292" t="n">
-        <v>-6.03</v>
+        <v>6.13</v>
       </c>
       <c r="D292" t="n">
-        <v>3.05</v>
+        <v>4.89</v>
       </c>
       <c r="E292" t="n">
-        <v>0.5529595015576324</v>
+        <v>0.5614886731391586</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>1.81</v>
+        <v>4.07</v>
       </c>
       <c r="B293" t="n">
-        <v>53.54</v>
+        <v>170.66</v>
       </c>
       <c r="C293" t="n">
-        <v>-2.88</v>
+        <v>-22.72</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.8100000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="E293" t="n">
-        <v>0.9750778816199377</v>
+        <v>0.6116504854368932</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>2.13</v>
+        <v>4.46</v>
       </c>
       <c r="B294" t="n">
-        <v>210.96</v>
+        <v>341.13</v>
       </c>
       <c r="C294" t="n">
-        <v>10.93</v>
+        <v>3.89</v>
       </c>
       <c r="D294" t="n">
-        <v>3.67</v>
+        <v>6.17</v>
       </c>
       <c r="E294" t="n">
-        <v>0.8535825545171339</v>
+        <v>0.7637540453074434</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2.93</v>
+        <v>5.16</v>
       </c>
       <c r="B295" t="n">
-        <v>147.44</v>
+        <v>375.19</v>
       </c>
       <c r="C295" t="n">
-        <v>4.07</v>
+        <v>9.19</v>
       </c>
       <c r="D295" t="n">
-        <v>1.96</v>
+        <v>6.6</v>
       </c>
       <c r="E295" t="n">
-        <v>0.6464174454828661</v>
+        <v>0.8624595469255664</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2.06</v>
+        <v>5.63</v>
       </c>
       <c r="B296" t="n">
-        <v>128.9</v>
+        <v>157.61</v>
       </c>
       <c r="C296" t="n">
-        <v>8.4</v>
+        <v>5.54</v>
       </c>
       <c r="D296" t="n">
-        <v>2.47</v>
+        <v>6.97</v>
       </c>
       <c r="E296" t="n">
-        <v>0.8707165109034268</v>
+        <v>0.93042071197411</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2.44</v>
+        <v>4.58</v>
       </c>
       <c r="B297" t="n">
-        <v>238.97</v>
+        <v>251.96</v>
       </c>
       <c r="C297" t="n">
-        <v>2.69</v>
+        <v>5.29</v>
       </c>
       <c r="D297" t="n">
-        <v>2.36</v>
+        <v>6.11</v>
       </c>
       <c r="E297" t="n">
-        <v>0.7881619937694704</v>
+        <v>0.7928802588996764</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.07</v>
+        <v>3.87</v>
       </c>
       <c r="B298" t="n">
-        <v>376.66</v>
+        <v>108.62</v>
       </c>
       <c r="C298" t="n">
-        <v>-3.94</v>
+        <v>11.98</v>
       </c>
       <c r="D298" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="E298" t="n">
-        <v>0.881619937694704</v>
+        <v>0.6245954692556634</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3.1</v>
+        <v>5.81</v>
       </c>
       <c r="B299" t="n">
-        <v>320.08</v>
+        <v>132.57</v>
       </c>
       <c r="C299" t="n">
-        <v>28.13</v>
+        <v>-12.64</v>
       </c>
       <c r="D299" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="E299" t="n">
-        <v>0.6822429906542056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3.51</v>
+        <v>5.71</v>
       </c>
       <c r="B300" t="n">
-        <v>127.3</v>
+        <v>198.52</v>
       </c>
       <c r="C300" t="n">
-        <v>7.22</v>
+        <v>8.5</v>
       </c>
       <c r="D300" t="n">
-        <v>0.66</v>
+        <v>6.57</v>
       </c>
       <c r="E300" t="n">
-        <v>0.5124610591900312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3.03</v>
+        <v>4.43</v>
       </c>
       <c r="B301" t="n">
-        <v>181.33</v>
+        <v>277.86</v>
       </c>
       <c r="C301" t="n">
-        <v>8.44</v>
+        <v>-3.94</v>
       </c>
       <c r="D301" t="n">
-        <v>2.24</v>
+        <v>4.19</v>
       </c>
       <c r="E301" t="n">
-        <v>0.616822429906542</v>
+        <v>0.7540453074433657</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3.2</v>
+        <v>3.86</v>
       </c>
       <c r="B302" t="n">
-        <v>193</v>
+        <v>53.18</v>
       </c>
       <c r="C302" t="n">
-        <v>6.63</v>
+        <v>14.92</v>
       </c>
       <c r="D302" t="n">
-        <v>3.82</v>
+        <v>3.15</v>
       </c>
       <c r="E302" t="n">
-        <v>0.5654205607476636</v>
+        <v>0.6229773462783171</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3.12</v>
+        <v>5.04</v>
       </c>
       <c r="B303" t="n">
-        <v>226.98</v>
+        <v>138.56</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.32</v>
+        <v>0.54</v>
       </c>
       <c r="D303" t="n">
-        <v>2.83</v>
+        <v>-0.46</v>
       </c>
       <c r="E303" t="n">
-        <v>0.5934579439252337</v>
+        <v>0.8349514563106796</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="B304" t="n">
-        <v>148.22</v>
+        <v>162.84</v>
       </c>
       <c r="C304" t="n">
-        <v>16.49</v>
+        <v>2.85</v>
       </c>
       <c r="D304" t="n">
-        <v>1.3</v>
+        <v>4.65</v>
       </c>
       <c r="E304" t="n">
-        <v>0.6417445482866043</v>
+        <v>0.7055016181229773</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2.33</v>
+        <v>4.5</v>
       </c>
       <c r="B305" t="n">
-        <v>147.87</v>
+        <v>284.93</v>
       </c>
       <c r="C305" t="n">
-        <v>17.74</v>
+        <v>5.21</v>
       </c>
       <c r="D305" t="n">
-        <v>9.25</v>
+        <v>4.02</v>
       </c>
       <c r="E305" t="n">
-        <v>0.9595015576323987</v>
+        <v>0.7766990291262136</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1.98</v>
+        <v>5.72</v>
       </c>
       <c r="B306" t="n">
-        <v>341.79</v>
+        <v>147.37</v>
       </c>
       <c r="C306" t="n">
-        <v>-7.36</v>
+        <v>5.53</v>
       </c>
       <c r="D306" t="n">
-        <v>1.99</v>
+        <v>6.57</v>
       </c>
       <c r="E306" t="n">
-        <v>0.9018691588785047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3.28</v>
+        <v>3.64</v>
       </c>
       <c r="B307" t="n">
-        <v>154.93</v>
+        <v>216.28</v>
       </c>
       <c r="C307" t="n">
-        <v>5.67</v>
+        <v>4.94</v>
       </c>
       <c r="D307" t="n">
-        <v>2.01</v>
+        <v>9.83</v>
       </c>
       <c r="E307" t="n">
-        <v>0.5451713395638629</v>
+        <v>0.5566343042071198</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>2.51</v>
+        <v>5.28</v>
       </c>
       <c r="B308" t="n">
-        <v>113.51</v>
+        <v>206.16</v>
       </c>
       <c r="C308" t="n">
-        <v>9.289999999999999</v>
+        <v>-2.74</v>
       </c>
       <c r="D308" t="n">
-        <v>1.69</v>
+        <v>9.5</v>
       </c>
       <c r="E308" t="n">
-        <v>0.7850467289719626</v>
+        <v>0.8802588996763754</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>3.19</v>
+        <v>4.54</v>
       </c>
       <c r="B309" t="n">
-        <v>1155.6</v>
+        <v>246.6</v>
       </c>
       <c r="C309" t="n">
-        <v>19.42</v>
+        <v>4.79</v>
       </c>
       <c r="D309" t="n">
-        <v>4.05</v>
+        <v>5.15</v>
       </c>
       <c r="E309" t="n">
-        <v>0.7897196261682243</v>
+        <v>0.7896440129449838</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2.76</v>
+        <v>4.1</v>
       </c>
       <c r="B310" t="n">
-        <v>692.37</v>
+        <v>152.44</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.16</v>
+        <v>6.57</v>
       </c>
       <c r="D310" t="n">
-        <v>1.27</v>
+        <v>3.18</v>
       </c>
       <c r="E310" t="n">
-        <v>0.7710280373831776</v>
+        <v>0.6812297734627831</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="B311" t="n">
-        <v>114.96</v>
+        <v>186.32</v>
       </c>
       <c r="C311" t="n">
-        <v>3.82</v>
+        <v>9.76</v>
       </c>
       <c r="D311" t="n">
-        <v>-1.15</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="E311" t="n">
-        <v>0.8052959501557633</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="B312" t="n">
-        <v>89.93000000000001</v>
-      </c>
-      <c r="C312" t="n">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="D312" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="E312" t="n">
-        <v>0.5233644859813084</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="B313" t="n">
-        <v>185.07</v>
-      </c>
-      <c r="C313" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="D313" t="n">
-        <v>4.66</v>
-      </c>
-      <c r="E313" t="n">
-        <v>0.6573208722741433</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="B314" t="n">
-        <v>171.42</v>
-      </c>
-      <c r="C314" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="D314" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="E314" t="n">
-        <v>0.6012461059190031</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="B315" t="n">
-        <v>209.41</v>
-      </c>
-      <c r="C315" t="n">
-        <v>-18.18</v>
-      </c>
-      <c r="D315" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="E315" t="n">
-        <v>0.7928348909657321</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="B316" t="n">
-        <v>293.06</v>
-      </c>
-      <c r="C316" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="D316" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E316" t="n">
-        <v>0.5373831775700935</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="B317" t="n">
-        <v>190.12</v>
-      </c>
-      <c r="C317" t="n">
-        <v>51.86</v>
-      </c>
-      <c r="D317" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E317" t="n">
-        <v>0.8442367601246106</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="B318" t="n">
-        <v>250.55</v>
-      </c>
-      <c r="C318" t="n">
-        <v>-10.67</v>
-      </c>
-      <c r="D318" t="n">
-        <v>-5.34</v>
-      </c>
-      <c r="E318" t="n">
-        <v>0.985981308411215</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="B319" t="n">
-        <v>759.36</v>
-      </c>
-      <c r="C319" t="n">
-        <v>-9.300000000000001</v>
-      </c>
-      <c r="D319" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="E319" t="n">
-        <v>0.883177570093458</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="B320" t="n">
-        <v>378.07</v>
-      </c>
-      <c r="C320" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="D320" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E320" t="n">
-        <v>0.926791277258567</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="B321" t="n">
-        <v>100.54</v>
-      </c>
-      <c r="C321" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="D321" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="E321" t="n">
-        <v>0.8395638629283489</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="B322" t="n">
-        <v>119.19</v>
-      </c>
-      <c r="C322" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D322" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="E322" t="n">
-        <v>0.5638629283489096</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="B323" t="n">
-        <v>145.78</v>
-      </c>
-      <c r="C323" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="D323" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="E323" t="n">
-        <v>0.6105919003115264</v>
+        <v>0.7022653721682848</v>
       </c>
     </row>
   </sheetData>
